--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -1881,45 +1881,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="168.7109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="74.65234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.25" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="74.65625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.25390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="45.671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="92.67578125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="191.12890625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="191.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -785,7 +785,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|Group)
 </t>
   </si>
   <si>
@@ -939,7 +939,7 @@
     <t>Encounter.participant.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|RelatedPerson)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1071,7 +1071,7 @@
     <t>Encounter.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Condition|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Procedure|Observation|ImmunizationRecommendation)
 </t>
   </si>
   <si>
@@ -1111,7 +1111,7 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Condition|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Procedure)
 </t>
   </si>
   <si>
@@ -1234,7 +1234,7 @@
     <t>Encounter.hospitalization.origin</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location|Organization)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Location|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization)
 </t>
   </si>
   <si>
@@ -1439,7 +1439,7 @@
     <t>Encounter.location.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Location)
 </t>
   </si>
   <si>
@@ -1523,7 +1523,7 @@
     <t>Encounter.serviceProvider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization)
 </t>
   </si>
   <si>
@@ -1543,7 +1543,7 @@
     <t>Encounter.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter)
 </t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -1071,7 +1071,7 @@
     <t>Encounter.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Condition|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Procedure|Observation|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Condition|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Procedure|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Common|ImmunizationRecommendation)
 </t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -256,7 +256,7 @@
     <t/>
   </si>
   <si>
-    <t>An interaction during which services are provided to the patient / 患者さんにサービスが提供されている間の相互作用</t>
+    <t>An interaction during which services are provided to the patient / 患者にサービスが提供されている間の相互作用</t>
   </si>
   <si>
     <t>An interaction between a patient and healthcare provider(s) for the purpose of providing healthcare service(s) or assessing the health status of a patient.
@@ -1375,11 +1375,11 @@
     <t>Encounter.hospitalization.destination</t>
   </si>
   <si>
-    <t>Location/organization to which the patient is discharged / 患者さんが退院する場所・機関</t>
+    <t>Location/organization to which the patient is discharged / 患者が退院する場所・機関</t>
   </si>
   <si>
     <t>Location/organization to which the patient is discharged.
-患者さんが退院する場所・機関</t>
+患者が退院する場所・機関</t>
   </si>
   <si>
     <t>.participation[typeCode=DST]</t>
@@ -1413,11 +1413,11 @@
     <t>Encounter.location</t>
   </si>
   <si>
-    <t>List of locations where the patient has been / 患者さんがいたことのある場所の一覧</t>
+    <t>List of locations where the patient has been / 患者がいたことのある場所の一覧</t>
   </si>
   <si>
     <t>List of locations where  the patient has been during this encounter.
-このEncounterの間に患者さんがいたことのある場所のリスト</t>
+このEncounterの間に患者がいたことのある場所のリスト</t>
   </si>
   <si>
     <t>Virtual encounters can be recorded in the Encounter by specifying a location reference to a location of type "kind" such as "client's home" and an encounter.class = "virtual".

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -708,7 +708,7 @@
 具体的なEncouterの種類（メール相談、外科デイケア、熟練看護、リハビリテーションなど）</t>
   </si>
   <si>
-    <t>Since there are many ways to further classify encounters, this element is 0..*.
+    <t>Since there are many ways to further classify encounters, this element is ..*.
 Encouterをさらに分類する方法はいろいろあるので、この要素は0...*です。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="476">
   <si>
     <t>Property</t>
   </si>
@@ -534,11 +534,11 @@
   </si>
   <si>
     <t>The status history permits the encounter resource to contain the status history without needing to read through the historical versions of the resource, or even have the server store them.
-ステータス履歴(status History)は、リソースの歴史的なバージョンを読み込んだり、サーバーに保存させたりすることなく、Encouterリソースがステータス履歴を含むことを可能にします。</t>
+ステータス履歴(status History)は、リソースの歴史的なバージョンを読み込んだり、サーバーに保存させたりすることなく、Encouterリソースがステータス履歴を含むことを可能にする。</t>
   </si>
   <si>
     <t>The current status is always found in the current version of the resource, not the status history.
-現在のステータスは、ステータスの履歴ではなく、常にリソースの現在のバージョンにあります。</t>
+現在のステータスは、ステータスの履歴ではなく、常にリソースの現在のバージョンにある。</t>
   </si>
   <si>
     <t>n/a</t>
@@ -612,7 +612,7 @@
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
 Period is not used for a duration (a measure of elapsed time). See [Duration](datatypes.html#Duration).
-これは期間ではありません-これは時間の尺度（別のタイプ）ですが、時間の固定値で発生する期間です。 期間は時間の範囲を指定します。 使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、または範囲から1つの値が適用されるか（たとえば、「これら2回の間に患者に与える」）を指定します。 期間が必要な場合は、タイプをInterval | Durationとして指定します。</t>
+これは期間ではない-これは時間の尺度（別のタイプ）ですが、時間の固定値で発生する期間です。 期間は時間の範囲を指定する。 使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、または範囲から1つの値が適用されるか（たとえば、「これら2回の間に患者に与える」）を指定する。 期間が必要な場合は、タイプをInterval | Durationとして指定する。</t>
   </si>
   <si>
     <t>Encounter.class</t>
@@ -630,7 +630,7 @@
   </si>
   <si>
     <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.
-コードは列挙やコードリストの中で非常にカジュアルに定義されることもあれば、SNOMED CTのような非常にフォーマルな定義まであります - 詳細はHL7 v3コア・プリンシプルを参照してください。</t>
+コードは列挙やコードリストの中で非常にカジュアルに定義されることもあれば、SNOMED CTのような非常にフォーマルな定義まである。 - 詳細はHL7 v3コア・プリンシプルを参照すること。</t>
   </si>
   <si>
     <t>extensible</t>
@@ -658,7 +658,7 @@
   </si>
   <si>
     <t>The class history permits the tracking of the encounters transitions without needing to go  through the resource history.  This would be used for a case where an admission starts of as an emergency encounter, then transitions into an inpatient scenario. Doing this and not restarting a new encounter ensures that any lab/diagnostic results can more easily follow the patient and not require re-processing and not get lost or cancelled during a kind of discharge from emergency to inpatient.
-クラスの履歴は、リソースの履歴を経由することなく、Encouterの遷移を追跡することを可能にします。これは、入院患者が緊急時にEncouterした後、入院患者のシナリオに移行する場合に使用されます。このようにして、新しいEncouterを再開しないようにすることで、検査/診断結果がより簡単に患者を追跡することができ、再処理を必要とせず、救急から入院への退院の際に紛失したりキャンセルされたりすることがないことを保証します。</t>
+クラスの履歴は、リソースの履歴を経由することなく、Encouterの遷移を追跡することを可能にする。これは、入院患者が緊急時にEncouterした後、入院患者のシナリオに移行する場合に使用される。このようにして、新しいEncouterを再開しないようにすることで、検査/診断結果がより簡単に患者を追跡することができ、再処理を必要とせず、救急から入院への退院の際に紛失したりキャンセルされたりすることがないことを保証する。</t>
   </si>
   <si>
     <t>Encounter.classHistory.id</t>
@@ -681,7 +681,7 @@
   </si>
   <si>
     <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.
-コードは列挙やコードリストの中で非常にカジュアルに定義されることもあれば、SNOMED CTのような非常にフォーマルな定義まであります - 詳細はHL7 v3コア・プリンシプルを参照してください。</t>
+コードは列挙やコードリストの中で非常にカジュアルに定義されることもあれば、SNOMED CTのような非常にフォーマルな定義まである- 詳細はHL7 v3コア・プリンシプルを参照すること。</t>
   </si>
   <si>
     <t>Encounter.classHistory.period</t>
@@ -756,11 +756,11 @@
     <t>Encounter.priority</t>
   </si>
   <si>
-    <t>Indicates the urgency of the encounter / このEncounterの緊急性を示します</t>
+    <t>Indicates the urgency of the encounter / このEncounterの緊急性を示す。</t>
   </si>
   <si>
     <t>Indicates the urgency of the encounter.
-このEncounterの緊急性を示します。</t>
+このEncounterの緊急性を示す。</t>
   </si>
   <si>
     <t>Indicates the urgency of the encounter.</t>
@@ -823,7 +823,7 @@
   </si>
   <si>
     <t>Where a specific encounter should be classified as a part of a specific episode(s) of care this field should be used. This association can facilitate grouping of related encounters together for a specific purpose, such as government reporting, issue tracking, association via a common problem.  The association is recorded on the encounter as these are typically created after the episode of care and grouped on entry rather than editing the episode of care to append another encounter to it (the episode of care could span years).
-特定のEncounterをケアの特定のエピソードの一部として分類する必要がある場合は、このフィールドを使用する必要があります。この関連付けにより、政府の報告、問題追跡、一般的な問題を介した関連付けなど、特定の目的のために関連するエンカウンターをグループ化することが容易になります。これらは通常、ケアのエピソードの後に​​作成され、ケアのエピソードを編集して別のエンカウンターを追加するのではなく、エントリ時にグループ化されるため、関連付けはエンカウンターに記録されます（ケアのエピソードは数年にわたる場合があります）。</t>
+特定のEncounterをケアの特定のエピソードの一部として分類する必要がある場合は、このフィールドを使用する必要がある。この関連付けにより、政府の報告、問題追跡、一般的な問題を介した関連付けなど、特定の目的のために関連するエンカウンターをグループ化することが容易になる。これらは通常、ケアのエピソードの後に​​作成され、ケアのエピソードを編集して別のエンカウンターを追加するのではなく、エントリ時にグループ化されるため、関連付けはエンカウンターに記録される（ケアのエピソードは数年にわたる場合がある）。</t>
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
@@ -902,7 +902,7 @@
   </si>
   <si>
     <t>The participant type indicates how an individual participates in an encounter. It includes non-practitioner participants, and for practitioners this is to describe the action type in the context of this encounter (e.g. Admitting Dr, Attending Dr, Translator, Consulting Dr). This is different to the practitioner roles which are functional roles, derived from terms of employment, education, licensing, etc.
-参加者タイプは、個人がEncounterにどのように参加するかを示します。これには、開業医以外の参加者が含まれます。開業医の場合、これは、このEncounterのコンテキストでのアクションタイプを説明することです（例：入院医師、出席医師、翻訳者、コンサルティング医師）。これは、雇用、教育、ライセンスなどの条件から派生した機能的な役割である開業医の役割とは異なります。</t>
+参加者タイプは、個人がEncounterにどのように参加するかを示す。これには、開業医以外の参加者が含まれる。開業医の場合、これは、このEncounterのコンテキストでのアクションタイプを説明することです（例：入院医師、出席医師、翻訳者、コンサルティング医師）。これは、雇用、教育、ライセンスなどの条件から派生した機能的な役割である開業医の役割とは異なる。</t>
   </si>
   <si>
     <t>Role of participant in encounter.</t>
@@ -927,7 +927,7 @@
   </si>
   <si>
     <t>The period of time that the specified participant participated in the encounter. These can overlap or be sub-sets of the overall encounter's period.
-指定された参加者がEncounterに参加した期間。これらは重複することも、Encounter全体の期間のサブセットになることもあります。</t>
+指定された参加者がEncounterに参加した期間。これらは重複することも、Encounter全体の期間のサブセットになることもある。</t>
   </si>
   <si>
     <t>.time</t>
@@ -1019,7 +1019,7 @@
   </si>
   <si>
     <t>Quantity of time the encounter lasted. This excludes the time during leaves of absence.
-このエンカウンターが続いた時間。これは休職中の時間を除外します。</t>
+このエンカウンターが続いた時間。これは休職中の時間を除外する。</t>
   </si>
   <si>
     <t>May differ from the time the Encounter.period lasted because of leave of absence.
@@ -1079,7 +1079,7 @@
   </si>
   <si>
     <t>Reason the encounter takes place, expressed as a code. For admissions, this can be used for a coded admission diagnosis.
-コードとして表現されたエンカウンターが起こった理由。入院の場合、これはコード化されたコード化された入院時診断に使用できます。</t>
+コードとして表現されたエンカウンターが起こった理由。入院の場合、これはコード化されたコード化された入院時診断に使用できる。</t>
   </si>
   <si>
     <t>Encounter.diagnosis</t>
@@ -1123,7 +1123,7 @@
   </si>
   <si>
     <t>For systems that need to know which was the primary diagnosis, these will be marked with the standard extension primaryDiagnosis (which is a sequence value rather than a flag, 1 = primary diagnosis).
-どちらが一次診断であったかを知る必要があるシステムでは、これらは標準のエクステンションであるprimaryDiagnosis（フラグではなくシーケンス値、1 = 一次診断）でマークされます。</t>
+どちらが一次診断であったかを知る必要があるシステムでは、これらは標準のエクステンションであるprimaryDiagnosis（フラグではなくシーケンス値、1 = 一次診断）でマークされる。</t>
   </si>
   <si>
     <t>Event.reasonReference</t>
@@ -1202,7 +1202,7 @@
     <t>An Encounter may cover more than just the inpatient stay. Contexts such as outpatients, community clinics, and aged care facilities are also included.  The duration recorded in the period of this encounter covers the entire scope of this hospitalization record.
-Encounterは、入院患者の滞在の記録だけではない。外来患者、地域の診療所、高齢者施設などのコンテクストも含まれます。
+Encounterは、入院患者の滞在の記録だけではない。外来患者、地域の診療所、高齢者施設などのコンテクストも含まれる。
 このEncouterの期間に記録された時間区間は、この入院記録の全範囲をカバーしている。</t>
   </si>
   <si>
@@ -1246,7 +1246,7 @@
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は実際のFHIRリソースへの参照でなければならず、解決可能でなければなりません。解決は URL からの検索、またはリソースタイプによって、絶対参照を正規の URL として扱い、ローカルのレジストリ/リポジトリで検索することで行うことができます。</t>
+参照は実際のFHIRリソースへの参照でなければならず、解決可能でなければならない。解決は URL からの検索、またはリソースタイプによって、絶対参照を正規の URL として扱い、ローカルのレジストリ/リポジトリで検索することで行うことができる。</t>
   </si>
   <si>
     <t>.participation[typeCode=ORG].role</t>
@@ -1282,7 +1282,7 @@
     <t>Encounter.hospitalization.reAdmission</t>
   </si>
   <si>
-    <t>The type of hospital re-admission that has occurred (if any). If the value is absent, then this is not identified as a readmission / 発生した病院の再入院のタイプ（もしあれば）。値がない場合、これは再入院として識別されません。</t>
+    <t>The type of hospital re-admission that has occurred (if any). If the value is absent, then this is not identified as a readmission / 発生した病院の再入院のタイプ（もしあれば）。値がない場合、これは再入院として識別されない。</t>
   </si>
   <si>
     <t>Whether this hospitalization is a readmission and why if known.
@@ -1309,11 +1309,11 @@
   </si>
   <si>
     <t>For example, a patient may request both a dairy-free and nut-free diet preference (not mutually exclusive).
-例えば、患者は、乳製品を含まない食事とナッツ類を含まない食事の両方を希望することができます（相互に排他的ではありません）。</t>
+例えば、患者は、乳製品を含まない食事とナッツ類を含まない食事の両方を希望することができる（相互に排他的ではない）。</t>
   </si>
   <si>
     <t>Used to track patient's diet restrictions and/or preference. For a complete description of the nutrition needs of a patient during their stay, one should use the nutritionOrder resource which links to Encounter.
-患者の食事制限および／または好み・嗜好を追跡するために使用される。滞在中の患者の栄養ニーズの完全な説明については、EncounterにリンクしているnutritionOrderリソースを使用する必要があります。</t>
+患者の食事制限および／または好み・嗜好を追跡するために使用される。滞在中の患者の栄養ニーズの完全な説明については、EncounterにリンクしているnutritionOrderリソースを使用する必要がある。</t>
   </si>
   <si>
     <t>Medical, cultural or ethical food preferences to help with catering requirements.</t>
@@ -1382,6 +1382,10 @@
 患者が退院する場所・機関</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+参照は実際のFHIRリソースへの参照でなければならず、解決可能でなければなりません。解決は URL からの検索、またはリソースタイプによって、絶対参照を正規の URL として扱い、ローカルのレジストリ/リポジトリで検索することで行うことができる。</t>
+  </si>
+  <si>
     <t>.participation[typeCode=DST]</t>
   </si>
   <si>
@@ -1470,7 +1474,7 @@
   </si>
   <si>
     <t>When the patient is no longer active at a location, then the period end date is entered, and the status may be changed to completed.
-患者がその場所で活動しなくなった場合、期間終了日が入力され、ステータスが完了した状態に変更されることがあります</t>
+患者がその場所で活動しなくなった場合、期間終了日が入力され、ステータスが完了した状態に変更されることがある</t>
   </si>
   <si>
     <t>The status of the location.</t>
@@ -1489,13 +1493,13 @@
   </si>
   <si>
     <t>This will be used to specify the required levels (bed/ward/room/etc.) desired to be recorded to simplify either messaging or query.
-これは、メッセージングまたはクエリのいずれかを簡素化するために記録したい必要なレベル（ベッド/ワード/ルーム/その他）を指定するために使用されます。</t>
+これは、メッセージングまたはクエリのいずれかを簡素化するために記録したい必要なレベル（ベッド/ワード/ルーム/その他）を指定するために使用される。</t>
   </si>
   <si>
     <t>This information is de-normalized from the Location resource to support the easier understanding of the encounter resource and processing in messaging or query.
 There may be many levels in the hierachy, and this may only pic specific levels that are required for a specific usage scenario.
-この情報は、メッセージングやクエリでのEncouterリソースの理解や処理を容易にするために、Locationリソースから非正規化されています。
-階層には多くのレベルがあり、これは特定の使用シナリオに必要とされる特定のレベルのみをピックすることができます。</t>
+この情報は、メッセージングやクエリでのEncouterリソースの理解や処理を容易にするために、Locationリソースから非正規化されている。
+階層には多くのレベルがあり、これは特定の使用シナリオに必要とされる特定のレベルのみをピックすることができる。</t>
   </si>
   <si>
     <t>Physical form of the location.</t>
@@ -1516,7 +1520,7 @@
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
 Period is not used for a duration (a measure of elapsed time). See [Duration](datatypes.html#Duration).
-期間は時間の範囲を指定します; 使用のコンテキストは、範囲全体が適用されるかどうかを指定します (例: "患者はこの時間範囲の病院の入院患者でした" )。または、範囲から1つの値が適用されます（例：「この2回の間に患者に与える」）。
+期間は時間の範囲を指定する。 使用のコンテキストは、範囲全体が適用されるかどうかを指定する (例: "患者はこの時間範囲の病院の入院患者でした" )。または、範囲から1つの値が適用される（例：「この2回の間に患者に与える」）。
 期間は、期間(経過時間の尺度)には使用されません。Duration](datatypes.html#Duration)を参照のこと。</t>
   </si>
   <si>
@@ -1891,7 +1895,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="168.7109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="167.61328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -8828,7 +8832,7 @@
         <v>420</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8896,18 +8900,18 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8933,10 +8937,10 @@
         <v>214</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>384</v>
@@ -8968,10 +8972,10 @@
         <v>218</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -8989,7 +8993,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9007,18 +9011,18 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9044,13 +9048,13 @@
         <v>163</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9100,7 +9104,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9118,7 +9122,7 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>79</v>
@@ -9129,7 +9133,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9238,7 +9242,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9349,7 +9353,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9462,7 +9466,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9485,13 +9489,13 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>379</v>
@@ -9544,7 +9548,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>86</v>
@@ -9559,21 +9563,21 @@
         <v>98</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>292</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9599,13 +9603,13 @@
         <v>106</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9634,10 +9638,10 @@
         <v>155</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -9655,7 +9659,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -9673,7 +9677,7 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>79</v>
@@ -9684,7 +9688,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9710,13 +9714,13 @@
         <v>214</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9745,10 +9749,10 @@
         <v>218</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -9766,7 +9770,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9795,7 +9799,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9821,13 +9825,13 @@
         <v>185</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9877,7 +9881,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9906,7 +9910,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9929,13 +9933,13 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>253</v>
@@ -9988,7 +9992,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10006,18 +10010,18 @@
         <v>291</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10040,16 +10044,16 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10099,7 +10103,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10114,10 +10118,10 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="475">
   <si>
     <t>Property</t>
   </si>
@@ -1382,10 +1382,6 @@
 患者が退院する場所・機関</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は実際のFHIRリソースへの参照でなければならず、解決可能でなければなりません。解決は URL からの検索、またはリソースタイプによって、絶対参照を正規の URL として扱い、ローカルのレジストリ/リポジトリで検索することで行うことができる。</t>
-  </si>
-  <si>
     <t>.participation[typeCode=DST]</t>
   </si>
   <si>
@@ -1521,7 +1517,7 @@
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
 Period is not used for a duration (a measure of elapsed time). See [Duration](datatypes.html#Duration).
 期間は時間の範囲を指定する。 使用のコンテキストは、範囲全体が適用されるかどうかを指定する (例: "患者はこの時間範囲の病院の入院患者でした" )。または、範囲から1つの値が適用される（例：「この2回の間に患者に与える」）。
-期間は、期間(経過時間の尺度)には使用されません。Duration](datatypes.html#Duration)を参照のこと。</t>
+期間は、期間(経過時間の尺度)には使用されない。Duration](datatypes.html#Duration)を参照のこと。</t>
   </si>
   <si>
     <t>Encounter.serviceProvider</t>
@@ -8832,7 +8828,7 @@
         <v>420</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>421</v>
+        <v>379</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8900,18 +8896,18 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>423</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8937,10 +8933,10 @@
         <v>214</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>384</v>
@@ -8972,11 +8968,11 @@
         <v>218</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Y64" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="Y64" t="s" s="2">
-        <v>428</v>
-      </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
       </c>
@@ -8993,7 +8989,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9011,18 +9007,18 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>430</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9048,13 +9044,13 @@
         <v>163</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9104,7 +9100,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9122,7 +9118,7 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>79</v>
@@ -9133,7 +9129,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9242,7 +9238,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9353,7 +9349,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9466,7 +9462,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9489,13 +9485,13 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>379</v>
@@ -9548,7 +9544,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>86</v>
@@ -9563,21 +9559,21 @@
         <v>98</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>292</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>445</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9603,13 +9599,13 @@
         <v>106</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9638,11 +9634,11 @@
         <v>155</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Y70" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="Y70" t="s" s="2">
-        <v>451</v>
-      </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
       </c>
@@ -9659,7 +9655,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -9677,7 +9673,7 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>79</v>
@@ -9688,7 +9684,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9714,13 +9710,13 @@
         <v>214</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9749,11 +9745,11 @@
         <v>218</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="Y71" t="s" s="2">
-        <v>458</v>
-      </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
       </c>
@@ -9770,7 +9766,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9799,7 +9795,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9825,13 +9821,13 @@
         <v>185</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9881,7 +9877,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9910,7 +9906,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9933,13 +9929,13 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>253</v>
@@ -9992,7 +9988,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10010,18 +10006,18 @@
         <v>291</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>468</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10044,16 +10040,16 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10103,7 +10099,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10118,10 +10114,10 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -709,7 +709,7 @@
   </si>
   <si>
     <t>Since there are many ways to further classify encounters, this element is ..*.
-Encouterをさらに分類する方法はいろいろあるので、この要素は0...*です。</t>
+Encouterをさらに分類する方法はいろいろあるので、この要素は...*です。</t>
   </si>
   <si>
     <t>example</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -499,7 +499,7 @@
   </si>
   <si>
     <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).
-内部のビジネス・ルールは、ステータス(およびクラス)間で発生する可能性のある適切な遷移を検出することに注意してください。</t>
+内部のビジネス・ルールは、ステータス(およびクラス)間で発生する可能性のある適切な遷移を検出することに注意すること。</t>
   </si>
   <si>
     <t>required</t>
@@ -593,7 +593,7 @@
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-FHIR 文字列のサイズは 1MB を超えてはならないことに注意してください。</t>
+FHIR 文字列のサイズは 1MB を超えてはならないことに注意すること。</t>
   </si>
   <si>
     <t>Encounter.statusHistory.period</t>
@@ -612,7 +612,7 @@
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
 Period is not used for a duration (a measure of elapsed time). See [Duration](datatypes.html#Duration).
-これは期間ではない-これは時間の尺度（別のタイプ）ですが、時間の固定値で発生する期間です。 期間は時間の範囲を指定する。 使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、または範囲から1つの値が適用されるか（たとえば、「これら2回の間に患者に与える」）を指定する。 期間が必要な場合は、タイプをInterval | Durationとして指定する。</t>
+これは期間ではない-これは時間の尺度（別のタイプ）であり、時間の固定値で発生する期間である。 期間は時間の範囲を指定する。 使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、または範囲から1つの値が適用されるか（たとえば、「これら2回の間に患者に与える」）を指定する。 期間が必要な場合は、タイプをInterval | Durationとして指定する。</t>
   </si>
   <si>
     <t>Encounter.class</t>
@@ -709,7 +709,7 @@
   </si>
   <si>
     <t>Since there are many ways to further classify encounters, this element is ..*.
-Encouterをさらに分類する方法はいろいろあるので、この要素は...*です。</t>
+Encouterをさらに分類する方法はいろいろあるので、この要素は...*である。</t>
   </si>
   <si>
     <t>example</t>
@@ -902,7 +902,7 @@
   </si>
   <si>
     <t>The participant type indicates how an individual participates in an encounter. It includes non-practitioner participants, and for practitioners this is to describe the action type in the context of this encounter (e.g. Admitting Dr, Attending Dr, Translator, Consulting Dr). This is different to the practitioner roles which are functional roles, derived from terms of employment, education, licensing, etc.
-参加者タイプは、個人がEncounterにどのように参加するかを示す。これには、開業医以外の参加者が含まれる。開業医の場合、これは、このEncounterのコンテキストでのアクションタイプを説明することです（例：入院医師、出席医師、翻訳者、コンサルティング医師）。これは、雇用、教育、ライセンスなどの条件から派生した機能的な役割である開業医の役割とは異なる。</t>
+参加者タイプは、個人がEncounterにどのように参加するかを示す。これには、開業医以外の参加者が含まれる。開業医の場合、これは、このEncounterのコンテキストでのアクションタイプを説明することである（例：入院医師、出席医師、翻訳者、コンサルティング医師）。これは、雇用、教育、ライセンスなどの条件から派生した機能的な役割である開業医の役割とは異なる。</t>
   </si>
   <si>
     <t>Role of participant in encounter.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -265,8 +265,8 @@
 外来受診、救急受診、入院、退院、対面診察、電話診察、など。</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -288,13 +288,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -307,16 +307,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -327,13 +327,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -346,19 +346,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -378,13 +378,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -404,13 +404,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>インラインリソースが含まれています / Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -430,33 +430,34 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Encounter.modifierExtension</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -505,7 +506,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>Current state of the encounter.</t>
+    <t>Encounterの現在の状態。 / Current state of the encounter.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
@@ -547,10 +548,10 @@
     <t>Encounter.statusHistory.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -559,7 +560,7 @@
     <t>Encounter.statusHistory.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -572,10 +573,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -636,7 +638,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>Classification of the encounter.</t>
+    <t>Encounterの分類。 / Classification of the encounter.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
@@ -715,7 +717,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>The type of encounter.</t>
+    <t>Encounterのタイプ。 / The type of encounter.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
@@ -744,7 +746,7 @@
 すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
   </si>
   <si>
-    <t>Broad categorization of the service that is to be provided.</t>
+    <t>提供されるサービスの広範な分類。 / Broad categorization of the service that is to be provided.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/service-type</t>
@@ -763,7 +765,7 @@
 このEncounterの緊急性を示す。</t>
   </si>
   <si>
-    <t>Indicates the urgency of the encounter.</t>
+    <t>Encounterの緊急性を示します。 / Indicates the urgency of the encounter.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActPriority</t>
@@ -905,7 +907,7 @@
 参加者タイプは、個人がEncounterにどのように参加するかを示す。これには、開業医以外の参加者が含まれる。開業医の場合、これは、このEncounterのコンテキストでのアクションタイプを説明することである（例：入院医師、出席医師、翻訳者、コンサルティング医師）。これは、雇用、教育、ライセンスなどの条件から派生した機能的な役割である開業医の役割とは異なる。</t>
   </si>
   <si>
-    <t>Role of participant in encounter.</t>
+    <t>Encounterの参加者の役割。 / Role of participant in encounter.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
@@ -1050,7 +1052,7 @@
 どれが主たる診断であったかを知る必要があるシステムでは、これらは標準のエクステンションであるprimaryDiagnosis（フラグではなくシーケンス値、1 = 主たる診断）でマークされる。</t>
   </si>
   <si>
-    <t>Reason why the encounter takes place.</t>
+    <t>Encounterが起こる理由。 / Reason why the encounter takes place.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
@@ -1145,7 +1147,7 @@
 この診断名がある受診機会において持っている役割（例えば、入院、請求、退院...）。</t>
   </si>
   <si>
-    <t>The type of diagnosis this condition represents.</t>
+    <t>この状態が表す診断のタイプ。 / The type of diagnosis this condition represents.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/diagnosis-role</t>
@@ -1267,7 +1269,7 @@
 すべての用語の使用がこの一般的なパターンに適合するわけではない。いくつかのケースでは、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係、および前後の調整を管理するための独自の構造を提供することが望ましい。</t>
   </si>
   <si>
-    <t>From where the patient was admitted.</t>
+    <t>患者が入院した場所から。 / From where the patient was admitted.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-admit-source</t>
@@ -1289,7 +1291,7 @@
 この入院が再入院であるかどうかと、わかっている場合はその理由。</t>
   </si>
   <si>
-    <t>The reason for re-admission of this hospitalization encounter.</t>
+    <t>この入院遭遇の再入院の理由。 / The reason for re-admission of this hospitalization encounter.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v2-0092</t>
@@ -1316,7 +1318,7 @@
 患者の食事制限および／または好み・嗜好を追跡するために使用される。滞在中の患者の栄養ニーズの完全な説明については、EncounterにリンクしているnutritionOrderリソースを使用する必要がある。</t>
   </si>
   <si>
-    <t>Medical, cultural or ethical food preferences to help with catering requirements.</t>
+    <t>ケータリングの要件を支援する医療、文化、または倫理的な食品の好み。 / Medical, cultural or ethical food preferences to help with catering requirements.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-diet</t>
@@ -1338,7 +1340,7 @@
 特別待遇(VIP、役員)</t>
   </si>
   <si>
-    <t>Special courtesies.</t>
+    <t>特別な礼儀。 / Special courtesies.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy</t>
@@ -1360,7 +1362,7 @@
 特定の器具の提供など、今回の入院の出会いのために特別な要望があったもの</t>
   </si>
   <si>
-    <t>Special arrangements.</t>
+    <t>特別な手配。 / Special arrangements.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements</t>
@@ -1398,7 +1400,7 @@
 退院後の場所の区分や種類。</t>
   </si>
   <si>
-    <t>Discharge Disposition.</t>
+    <t>放電処分。 / Discharge Disposition.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition</t>
@@ -1462,7 +1464,7 @@
     <t>Encounter.location.status</t>
   </si>
   <si>
-    <t>planned | active | reserved | completed</t>
+    <t>計画|アクティブ|予約済み|完了しました / planned | active | reserved | completed</t>
   </si>
   <si>
     <t>The status of the participants' presence at the specified location during the period specified. If the participant is no longer at the location, then the period will have an end date/time.
@@ -1473,7 +1475,7 @@
 患者がその場所で活動しなくなった場合、期間終了日が入力され、ステータスが完了した状態に変更されることがある</t>
   </si>
   <si>
-    <t>The status of the location.</t>
+    <t>場所のステータス。 / The status of the location.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-location-status|4.0.1</t>
@@ -1498,7 +1500,7 @@
 階層には多くのレベルがあり、これは特定の使用シナリオに必要とされる特定のレベルのみをピックすることができる。</t>
   </si>
   <si>
-    <t>Physical form of the location.</t>
+    <t>場所の物理的な形。 / Physical form of the location.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
@@ -1904,7 +1906,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="74.65625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="112.74609375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="56.25390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -265,8 +265,8 @@
 外来受診、救急受診、入院、退院、対面診察、電話診察、など。</t>
   </si>
   <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -288,13 +288,13 @@
 </t>
   </si>
   <si>
-    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -307,16 +307,16 @@
 </t>
   </si>
   <si>
-    <t>リソースに関するメタデータ / Metadata about the resource</t>
-  </si>
-  <si>
-    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -327,13 +327,13 @@
 </t>
   </si>
   <si>
-    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -346,19 +346,19 @@
 </t>
   </si>
   <si>
-    <t>リソースコンテンツの言語 / Language of the resource content</t>
-  </si>
-  <si>
-    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>人間の言語。 / A human language.</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -378,13 +378,13 @@
 </t>
   </si>
   <si>
-    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -404,13 +404,13 @@
 </t>
   </si>
   <si>
-    <t>インラインリソースが含まれています / Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -430,34 +430,33 @@
 </t>
   </si>
   <si>
-    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Encounter.modifierExtension</t>
   </si>
   <si>
-    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -506,7 +505,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>Encounterの現在の状態。 / Current state of the encounter.</t>
+    <t>Current state of the encounter.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
@@ -548,10 +547,10 @@
     <t>Encounter.statusHistory.id</t>
   </si>
   <si>
-    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -560,7 +559,7 @@
     <t>Encounter.statusHistory.extension</t>
   </si>
   <si>
-    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -573,11 +572,10 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -638,7 +636,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>Encounterの分類。 / Classification of the encounter.</t>
+    <t>Classification of the encounter.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
@@ -717,7 +715,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>Encounterのタイプ。 / The type of encounter.</t>
+    <t>The type of encounter.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
@@ -746,7 +744,7 @@
 すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
   </si>
   <si>
-    <t>提供されるサービスの広範な分類。 / Broad categorization of the service that is to be provided.</t>
+    <t>Broad categorization of the service that is to be provided.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/service-type</t>
@@ -765,7 +763,7 @@
 このEncounterの緊急性を示す。</t>
   </si>
   <si>
-    <t>Encounterの緊急性を示します。 / Indicates the urgency of the encounter.</t>
+    <t>Indicates the urgency of the encounter.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActPriority</t>
@@ -907,7 +905,7 @@
 参加者タイプは、個人がEncounterにどのように参加するかを示す。これには、開業医以外の参加者が含まれる。開業医の場合、これは、このEncounterのコンテキストでのアクションタイプを説明することである（例：入院医師、出席医師、翻訳者、コンサルティング医師）。これは、雇用、教育、ライセンスなどの条件から派生した機能的な役割である開業医の役割とは異なる。</t>
   </si>
   <si>
-    <t>Encounterの参加者の役割。 / Role of participant in encounter.</t>
+    <t>Role of participant in encounter.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
@@ -1052,7 +1050,7 @@
 どれが主たる診断であったかを知る必要があるシステムでは、これらは標準のエクステンションであるprimaryDiagnosis（フラグではなくシーケンス値、1 = 主たる診断）でマークされる。</t>
   </si>
   <si>
-    <t>Encounterが起こる理由。 / Reason why the encounter takes place.</t>
+    <t>Reason why the encounter takes place.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
@@ -1147,7 +1145,7 @@
 この診断名がある受診機会において持っている役割（例えば、入院、請求、退院...）。</t>
   </si>
   <si>
-    <t>この状態が表す診断のタイプ。 / The type of diagnosis this condition represents.</t>
+    <t>The type of diagnosis this condition represents.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/diagnosis-role</t>
@@ -1269,7 +1267,7 @@
 すべての用語の使用がこの一般的なパターンに適合するわけではない。いくつかのケースでは、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係、および前後の調整を管理するための独自の構造を提供することが望ましい。</t>
   </si>
   <si>
-    <t>患者が入院した場所から。 / From where the patient was admitted.</t>
+    <t>From where the patient was admitted.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-admit-source</t>
@@ -1291,7 +1289,7 @@
 この入院が再入院であるかどうかと、わかっている場合はその理由。</t>
   </si>
   <si>
-    <t>この入院遭遇の再入院の理由。 / The reason for re-admission of this hospitalization encounter.</t>
+    <t>The reason for re-admission of this hospitalization encounter.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v2-0092</t>
@@ -1318,7 +1316,7 @@
 患者の食事制限および／または好み・嗜好を追跡するために使用される。滞在中の患者の栄養ニーズの完全な説明については、EncounterにリンクしているnutritionOrderリソースを使用する必要がある。</t>
   </si>
   <si>
-    <t>ケータリングの要件を支援する医療、文化、または倫理的な食品の好み。 / Medical, cultural or ethical food preferences to help with catering requirements.</t>
+    <t>Medical, cultural or ethical food preferences to help with catering requirements.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-diet</t>
@@ -1340,7 +1338,7 @@
 特別待遇(VIP、役員)</t>
   </si>
   <si>
-    <t>特別な礼儀。 / Special courtesies.</t>
+    <t>Special courtesies.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy</t>
@@ -1362,7 +1360,7 @@
 特定の器具の提供など、今回の入院の出会いのために特別な要望があったもの</t>
   </si>
   <si>
-    <t>特別な手配。 / Special arrangements.</t>
+    <t>Special arrangements.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements</t>
@@ -1400,7 +1398,7 @@
 退院後の場所の区分や種類。</t>
   </si>
   <si>
-    <t>放電処分。 / Discharge Disposition.</t>
+    <t>Discharge Disposition.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition</t>
@@ -1464,7 +1462,7 @@
     <t>Encounter.location.status</t>
   </si>
   <si>
-    <t>計画|アクティブ|予約済み|完了しました / planned | active | reserved | completed</t>
+    <t>planned | active | reserved | completed</t>
   </si>
   <si>
     <t>The status of the participants' presence at the specified location during the period specified. If the participant is no longer at the location, then the period will have an end date/time.
@@ -1475,7 +1473,7 @@
 患者がその場所で活動しなくなった場合、期間終了日が入力され、ステータスが完了した状態に変更されることがある</t>
   </si>
   <si>
-    <t>場所のステータス。 / The status of the location.</t>
+    <t>The status of the location.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-location-status|4.0.1</t>
@@ -1500,7 +1498,7 @@
 階層には多くのレベルがあり、これは特定の使用シナリオに必要とされる特定のレベルのみをピックすることができる。</t>
   </si>
   <si>
-    <t>場所の物理的な形。 / Physical form of the location.</t>
+    <t>Physical form of the location.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
@@ -1906,7 +1904,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="112.74609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="74.65625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="56.25390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -261,7 +261,7 @@
   <si>
     <t>An interaction between a patient and healthcare provider(s) for the purpose of providing healthcare service(s) or assessing the health status of a patient.
 医療サービスの提供または患者の健康状態の評価を目的とした、患者と医療提供者との間の相互作用。エンカウンターと表現される。
-【JP-CORE】
+【JP-Core仕様】
 外来受診、救急受診、入院、退院、対面診察、電話診察、など。</t>
   </si>
   <si>
@@ -530,11 +530,11 @@
 </t>
   </si>
   <si>
-    <t>List of past encounter statuses / 過去のEncouterのステータス一覧</t>
+    <t>List of past encounter statuses / 過去のEncounterのステータス一覧</t>
   </si>
   <si>
     <t>The status history permits the encounter resource to contain the status history without needing to read through the historical versions of the resource, or even have the server store them.
-ステータス履歴(status History)は、リソースの歴史的なバージョンを読み込んだり、サーバーに保存させたりすることなく、Encouterリソースがステータス履歴を含むことを可能にする。</t>
+ステータス履歴(status History)は、リソースの歴史的なバージョンを読み込んだり、サーバーに保存させたりすることなく、Encounterリソースがステータス履歴を含むことを可能にする。</t>
   </si>
   <si>
     <t>The current status is always found in the current version of the resource, not the status history.
@@ -622,11 +622,11 @@
 </t>
   </si>
   <si>
-    <t>Classification of patient encounter / 患者とのEncouterの分類</t>
+    <t>Classification of patient encounter / 患者とのEncounterの分類</t>
   </si>
   <si>
     <t>Concepts representing classification of patient encounter such as ambulatory (outpatient), inpatient, emergency, home health or others due to local variations.
-外来（外来）、入院、救急、在宅医療、その他の地域差による患者Encouterの分類を表す概念。</t>
+外来（外来）、入院、救急、在宅医療、その他の地域差による患者Encounterの分類を表す概念。</t>
   </si>
   <si>
     <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.
@@ -654,11 +654,11 @@
     <t>Encounter.classHistory</t>
   </si>
   <si>
-    <t>List of past encounter classes / 過去のEncouter classのリスト</t>
+    <t>List of past encounter classes / 過去のEncounter classのリスト</t>
   </si>
   <si>
     <t>The class history permits the tracking of the encounters transitions without needing to go  through the resource history.  This would be used for a case where an admission starts of as an emergency encounter, then transitions into an inpatient scenario. Doing this and not restarting a new encounter ensures that any lab/diagnostic results can more easily follow the patient and not require re-processing and not get lost or cancelled during a kind of discharge from emergency to inpatient.
-クラスの履歴は、リソースの履歴を経由することなく、Encouterの遷移を追跡することを可能にする。これは、入院患者が緊急時にEncouterした後、入院患者のシナリオに移行する場合に使用される。このようにして、新しいEncouterを再開しないようにすることで、検査/診断結果がより簡単に患者を追跡することができ、再処理を必要とせず、救急から入院への退院の際に紛失したりキャンセルされたりすることがないことを保証する。</t>
+クラスの履歴は、リソースの履歴を経由することなく、Encounterの遷移を追跡することを可能にする。これは、入院患者が緊急時にEncounterした後、入院患者のシナリオに移行する場合に使用される。このようにして、新しいEncounterを再開しないようにすることで、検査/診断結果がより簡単に患者を追跡することができ、再処理を必要とせず、救急から入院への退院の際に紛失したりキャンセルされたりすることがないことを保証する。</t>
   </si>
   <si>
     <t>Encounter.classHistory.id</t>
@@ -701,15 +701,15 @@
 </t>
   </si>
   <si>
-    <t>Specific type of encounter / Encouterの具体的なタイプ</t>
+    <t>Specific type of encounter / Encounterの具体的なタイプ</t>
   </si>
   <si>
     <t>Specific type of encounter (e.g. e-mail consultation, surgical day-care, skilled nursing, rehabilitation).
-具体的なEncouterの種類（メール相談、外科デイケア、熟練看護、リハビリテーションなど）</t>
+具体的なEncounterの種類（メール相談、外科デイケア、熟練看護、リハビリテーションなど）</t>
   </si>
   <si>
     <t>Since there are many ways to further classify encounters, this element is ..*.
-Encouterをさらに分類する方法はいろいろあるので、この要素は...*である。</t>
+Encounterをさらに分類する方法はいろいろあるので、この要素は...*である。</t>
   </si>
   <si>
     <t>example</t>
@@ -826,7 +826,7 @@
 特定のEncounterをケアの特定のエピソードの一部として分類する必要がある場合は、このフィールドを使用する必要がある。この関連付けにより、政府の報告、問題追跡、一般的な問題を介した関連付けなど、特定の目的のために関連するエンカウンターをグループ化することが容易になる。これらは通常、ケアのエピソードの後に​​作成され、ケアのエピソードを編集して別のエンカウンターを追加するのではなく、エントリ時にグループ化されるため、関連付けはエンカウンターに記録される（ケアのエピソードは数年にわたる場合がある）。</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
@@ -1203,7 +1203,7 @@
  The duration recorded in the period of this encounter covers the entire scope of this hospitalization record.
 Encounterは、入院患者の滞在の記録だけではない。外来患者、地域の診療所、高齢者施設などのコンテクストも含まれる。
-このEncouterの期間に記録された時間区間は、この入院記録の全範囲をカバーしている。</t>
+このEncounterの期間に記録された時間区間は、この入院記録の全範囲をカバーしている。</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=ENC, moodCode=EVN]</t>
@@ -1245,7 +1245,7 @@
 患者が入院する前に来院した場所/組織</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は実際のFHIRリソースへの参照でなければならず、解決可能でなければならない。解決は URL からの検索、またはリソースタイプによって、絶対参照を正規の URL として扱い、ローカルのレジストリ/リポジトリで検索することで行うことができる。</t>
   </si>
   <si>
@@ -1421,7 +1421,7 @@
   </si>
   <si>
     <t>Virtual encounters can be recorded in the Encounter by specifying a location reference to a location of type "kind" such as "client's home" and an encounter.class = "virtual".
-仮想Encouterは、"client's home "のような "kind "型の場所を参照し、encounter.class = "virtual "を指定することで、Encounterに記録することができる。</t>
+仮想Encounterは、"client's home "のような "kind "型の場所を参照し、encounter.class = "virtual "を指定することで、Encounterに記録することができる。</t>
   </si>
   <si>
     <t>.participation[typeCode=LOC]</t>
@@ -1485,7 +1485,7 @@
     <t>Encounter.location.physicalType</t>
   </si>
   <si>
-    <t>The physical type of the location (usually the level in the location hierachy - bed room ward etc.) / 場所の物理的なタイプ（通常は場所の階層のレベル - ベッド・病室・病棟など）</t>
+    <t>The physical type of the location (usually the level in the location hierarchy - bed room ward etc.) / 場所の物理的なタイプ（通常は場所の階層のレベル - ベッド・病室・病棟など）</t>
   </si>
   <si>
     <t>This will be used to specify the required levels (bed/ward/room/etc.) desired to be recorded to simplify either messaging or query.
@@ -1493,8 +1493,8 @@
   </si>
   <si>
     <t>This information is de-normalized from the Location resource to support the easier understanding of the encounter resource and processing in messaging or query.
-There may be many levels in the hierachy, and this may only pic specific levels that are required for a specific usage scenario.
-この情報は、メッセージングやクエリでのEncouterリソースの理解や処理を容易にするために、Locationリソースから非正規化されている。
+There may be many levels in the hierarchy, and this may only pic specific levels that are required for a specific usage scenario.
+この情報は、メッセージングやクエリでのEncounterリソースの理解や処理を容易にするために、Locationリソースから非正規化されている。
 階層には多くのレベルがあり、これは特定の使用シナリオに必要とされる特定のレベルのみをピックすることができる。</t>
   </si>
   <si>
@@ -1527,11 +1527,11 @@
 </t>
   </si>
   <si>
-    <t>The organization (facility) responsible for this encounter / このEncouterに責任を持つ組織（施設）</t>
-  </si>
-  <si>
-    <t>The organization that is primarily responsible for this Encounter's services. This MAY be the same as the organization on the Patient record, however it could be different, such as if the actor performing the services was from an external organization (which may be billed seperately) for an external consultation.  Refer to the example bundle showing an abbreviated set of Encounters for a colonoscopy.
-このEncouterのサービスに主に責任を持つ組織。これは、患者記録上の組織と同じであってもよいが、例えば、サービスを実行しているアクターが外部組織のものである場合（外部コンサルテーションのために別個に請求される場合がある）など、異なる可能性がある。 大腸内視鏡検査のためのEncouterの省略されたセットを示すバンドル例を参照のこと。</t>
+    <t>The organization (facility) responsible for this encounter / このEncounterに責任を持つ組織（施設）</t>
+  </si>
+  <si>
+    <t>The organization that is primarily responsible for this Encounter's services. This MAY be the same as the organization on the Patient record, however it could be different, such as if the actor performing the services was from an external organization (which may be billed separately) for an external consultation.  Refer to the example bundle showing an abbreviated set of Encounters for a colonoscopy.
+このEncounterのサービスに主に責任を持つ組織。これは、患者記録上の組織と同じであってもよいが、例えば、サービスを実行しているアクターが外部組織のものである場合（外部コンサルテーションのために別個に請求される場合がある）など、異なる可能性がある。 大腸内視鏡検査のためのEncounterの省略されたセットを示すバンドル例を参照のこと。</t>
   </si>
   <si>
     <t>.particiaption[typeCode=PFM].role</t>
@@ -1547,11 +1547,11 @@
 </t>
   </si>
   <si>
-    <t>Another Encounter this encounter is part of / このEncouterが属するもう一つのEncouter</t>
+    <t>Another Encounter this encounter is part of / このEncounterが属するもう一つのEncounter</t>
   </si>
   <si>
     <t>Another Encounter of which this encounter is a part of (administratively or in time).
-このEncouterが（管理的に、あるいは時間的に）一部となっているもう一つのEncouter。</t>
+このEncounterが（管理的に、あるいは時間的に）一部となっているもう一つのEncounter。</t>
   </si>
   <si>
     <t>This is also used for associating a child's encounter back to the mother's encounter.
--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="474">
   <si>
     <t>Property</t>
   </si>
@@ -261,8 +261,7 @@
   <si>
     <t>An interaction between a patient and healthcare provider(s) for the purpose of providing healthcare service(s) or assessing the health status of a patient.
 医療サービスの提供または患者の健康状態の評価を目的とした、患者と医療提供者との間の相互作用。エンカウンターと表現される。
-【JP-Core仕様】
-外来受診、救急受診、入院、退院、対面診察、電話診察、など。</t>
+【JP-Core仕様】外来受診、救急受診、入院、退院、対面診察、電話診察、など。</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -586,10 +585,6 @@
   </si>
   <si>
     <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled + / 予定｜到着｜トリアージ｜進行中｜保留中｜終了｜キャンセル+.</t>
-  </si>
-  <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.
-予定｜到着｜トリアージ｜進行中｜保留中｜終了｜キャンセル+.</t>
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
@@ -3733,10 +3728,10 @@
         <v>181</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3815,7 +3810,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3838,16 +3833,16 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3897,7 +3892,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>86</v>
@@ -3926,7 +3921,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3949,16 +3944,16 @@
         <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3984,14 +3979,14 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="X19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="X19" t="s" s="2">
+      <c r="Y19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y19" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="Z19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4008,7 +4003,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>86</v>
@@ -4026,18 +4021,18 @@
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>199</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4063,10 +4058,10 @@
         <v>163</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4117,7 +4112,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4146,7 +4141,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4255,7 +4250,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4366,7 +4361,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4479,7 +4474,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4502,16 +4497,16 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4537,14 +4532,14 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="X24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4561,7 +4556,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>86</v>
@@ -4590,7 +4585,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4613,16 +4608,16 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="M25" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4672,7 +4667,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>86</v>
@@ -4701,7 +4696,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4724,16 +4719,16 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4759,14 +4754,14 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="X26" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="X26" t="s" s="2">
+      <c r="Y26" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
       </c>
@@ -4783,7 +4778,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4798,21 +4793,21 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4835,16 +4830,16 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4870,14 +4865,14 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>229</v>
-      </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
       </c>
@@ -4894,7 +4889,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4909,7 +4904,7 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>167</v>
@@ -4918,12 +4913,12 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4946,16 +4941,16 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>233</v>
-      </c>
       <c r="M28" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4981,14 +4976,14 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5005,7 +5000,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5023,22 +5018,22 @@
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5057,16 +5052,16 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5116,7 +5111,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5131,21 +5126,21 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>248</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5168,16 +5163,16 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5227,7 +5222,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5242,25 +5237,25 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>167</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>256</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5279,16 +5274,16 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="M31" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5338,7 +5333,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5353,10 +5348,10 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>79</v>
@@ -5367,7 +5362,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5393,10 +5388,10 @@
         <v>163</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5447,7 +5442,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5462,21 +5457,21 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5585,7 +5580,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5696,7 +5691,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5809,7 +5804,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5832,16 +5827,16 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5867,14 +5862,14 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>278</v>
-      </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
       </c>
@@ -5891,7 +5886,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5906,21 +5901,21 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>281</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5943,13 +5938,13 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6000,7 +5995,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6018,18 +6013,18 @@
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>286</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6052,13 +6047,13 @@
         <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6109,7 +6104,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6124,21 +6119,21 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6161,16 +6156,16 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>298</v>
-      </c>
       <c r="M39" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6220,7 +6215,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6235,21 +6230,21 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>300</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6272,16 +6267,16 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6331,7 +6326,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6346,21 +6341,21 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>308</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6383,16 +6378,16 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6442,7 +6437,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6457,25 +6452,25 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>315</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6494,16 +6489,16 @@
         <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6532,11 +6527,11 @@
         <v>110</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6553,7 +6548,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6568,25 +6563,25 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AK42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>326</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6605,16 +6600,16 @@
         <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="M43" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6664,7 +6659,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6679,21 +6674,21 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>326</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6719,10 +6714,10 @@
         <v>163</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6773,7 +6768,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6791,7 +6786,7 @@
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
@@ -6802,7 +6797,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6911,7 +6906,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7022,7 +7017,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7135,11 +7130,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7158,16 +7153,16 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7217,7 +7212,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>86</v>
@@ -7232,21 +7227,21 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>346</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7269,13 +7264,13 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7305,11 +7300,11 @@
         <v>110</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="Y49" t="s" s="2">
-        <v>351</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7326,7 +7321,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7355,7 +7350,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7378,13 +7373,13 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7435,7 +7430,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7453,7 +7448,7 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
@@ -7464,7 +7459,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7487,16 +7482,16 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7546,7 +7541,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7564,7 +7559,7 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
@@ -7575,7 +7570,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7601,13 +7596,13 @@
         <v>163</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7657,7 +7652,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7675,7 +7670,7 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>79</v>
@@ -7686,7 +7681,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7795,7 +7790,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7906,7 +7901,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8019,7 +8014,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8045,10 +8040,10 @@
         <v>144</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8099,7 +8094,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8123,12 +8118,12 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8151,16 +8146,16 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8210,7 +8205,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8228,7 +8223,7 @@
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>79</v>
@@ -8239,7 +8234,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8262,16 +8257,16 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8300,11 +8295,11 @@
         <v>110</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="Y58" t="s" s="2">
-        <v>386</v>
-      </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8321,7 +8316,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8339,18 +8334,18 @@
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>388</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8373,16 +8368,16 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="M59" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8408,14 +8403,14 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>393</v>
-      </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8432,7 +8427,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8456,12 +8451,12 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8484,19 +8479,19 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8521,14 +8516,14 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
       </c>
@@ -8545,7 +8540,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8563,18 +8558,18 @@
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>403</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8597,16 +8592,16 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L61" t="s" s="2">
-        <v>406</v>
-      </c>
       <c r="M61" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8635,11 +8630,11 @@
         <v>110</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
       </c>
@@ -8656,7 +8651,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8674,18 +8669,18 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>410</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8708,16 +8703,16 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>413</v>
-      </c>
       <c r="M62" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8746,11 +8741,11 @@
         <v>110</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="Y62" t="s" s="2">
-        <v>415</v>
-      </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
       </c>
@@ -8767,7 +8762,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8785,18 +8780,18 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>417</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8819,16 +8814,16 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>420</v>
-      </c>
       <c r="M63" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8878,7 +8873,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -8896,18 +8891,18 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>422</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8930,16 +8925,16 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L64" t="s" s="2">
-        <v>425</v>
-      </c>
       <c r="M64" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8965,14 +8960,14 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Y64" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="Y64" t="s" s="2">
-        <v>427</v>
-      </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
       </c>
@@ -8989,7 +8984,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9007,18 +9002,18 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>429</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9044,13 +9039,13 @@
         <v>163</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9100,7 +9095,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9118,7 +9113,7 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>79</v>
@@ -9129,7 +9124,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9238,7 +9233,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9349,7 +9344,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9462,7 +9457,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9485,16 +9480,16 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="M69" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9544,7 +9539,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>86</v>
@@ -9559,21 +9554,21 @@
         <v>98</v>
       </c>
       <c r="AJ69" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AK69" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AL69" t="s" s="2">
+      <c r="AM69" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>444</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9599,13 +9594,13 @@
         <v>106</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9634,11 +9629,11 @@
         <v>155</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="Y70" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="Y70" t="s" s="2">
-        <v>450</v>
-      </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
       </c>
@@ -9655,7 +9650,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -9673,7 +9668,7 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>79</v>
@@ -9684,7 +9679,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9707,16 +9702,16 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9742,14 +9737,14 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="Y71" t="s" s="2">
-        <v>457</v>
-      </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
       </c>
@@ -9766,7 +9761,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9795,7 +9790,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9818,16 +9813,16 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9877,7 +9872,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9895,7 +9890,7 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>79</v>
@@ -9906,7 +9901,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9929,16 +9924,16 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L73" t="s" s="2">
-        <v>465</v>
-      </c>
       <c r="M73" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -9988,7 +9983,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10003,21 +9998,21 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>467</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10040,16 +10035,16 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10099,7 +10094,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10114,10 +10109,10 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -261,7 +261,7 @@
   <si>
     <t>An interaction between a patient and healthcare provider(s) for the purpose of providing healthcare service(s) or assessing the health status of a patient.
 医療サービスの提供または患者の健康状態の評価を目的とした、患者と医療提供者との間の相互作用。エンカウンターと表現される。
-【JP-Core仕様】外来受診、救急受診、入院、退院、対面診察、電話診察、など。</t>
+【JP Core仕様】外来受診、救急受診、入院、退院、対面診察、電話診察、など。</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="475">
   <si>
     <t>Property</t>
   </si>
@@ -283,267 +283,271 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Encounter.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Encounter.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Encounter.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Encounter.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Encounter.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Encounter.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Encounter.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifier(s) by which this encounter is known / このEncounterが知られている識別子（複数可）</t>
+  </si>
+  <si>
+    <t>Identifier(s) by which this encounter is known.
+このEncounterが知られている識別子（複数可）。</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>Encounter.status</t>
+  </si>
+  <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled + / 予定｜到着｜トリアージ｜進行中｜保留中｜終了｜キャンセル+</t>
+  </si>
+  <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.
+予定｜到着｜トリアージ｜進行中｜保留中｜終了｜キャンセル+.</t>
+  </si>
+  <si>
+    <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).
+内部のビジネス・ルールは、ステータス(およびクラス)間で発生する可能性のある適切な遷移を検出することに注意すること。</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Current state of the encounter.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>No clear equivalent in HL7 v2; active/finished could be inferred from PV1-44, PV1-45, PV2-24; inactive could be inferred from PV2-16</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>List of past encounter statuses / 過去のEncounterのステータス一覧</t>
+  </si>
+  <si>
+    <t>The status history permits the encounter resource to contain the status history without needing to read through the historical versions of the resource, or even have the server store them.
+ステータス履歴(status History)は、リソースの歴史的なバージョンを読み込んだり、サーバーに保存させたりすることなく、Encounterリソースがステータス履歴を含むことを可能にする。</t>
+  </si>
+  <si>
+    <t>The current status is always found in the current version of the resource, not the status history.
+現在のステータスは、ステータスの履歴ではなく、常にリソースの現在のバージョンにある。</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Encounter.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Encounter.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Encounter.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Encounter.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Encounter.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Encounter.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Encounter.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifier(s) by which this encounter is known / このEncounterが知られている識別子（複数可）</t>
-  </si>
-  <si>
-    <t>Identifier(s) by which this encounter is known.
-このEncounterが知られている識別子（複数可）。</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>Encounter.status</t>
-  </si>
-  <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled + / 予定｜到着｜トリアージ｜進行中｜保留中｜終了｜キャンセル+</t>
-  </si>
-  <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.
-予定｜到着｜トリアージ｜進行中｜保留中｜終了｜キャンセル+.</t>
-  </si>
-  <si>
-    <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).
-内部のビジネス・ルールは、ステータス(およびクラス)間で発生する可能性のある適切な遷移を検出することに注意すること。</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Current state of the encounter.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>No clear equivalent in HL7 v2; active/finished could be inferred from PV1-44, PV1-45, PV2-24; inactive could be inferred from PV2-16</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>List of past encounter statuses / 過去のEncounterのステータス一覧</t>
-  </si>
-  <si>
-    <t>The status history permits the encounter resource to contain the status history without needing to read through the historical versions of the resource, or even have the server store them.
-ステータス履歴(status History)は、リソースの歴史的なバージョンを読み込んだり、サーバーに保存させたりすることなく、Encounterリソースがステータス履歴を含むことを可能にする。</t>
-  </si>
-  <si>
-    <t>The current status is always found in the current version of the resource, not the status history.
-現在のステータスは、ステータスの履歴ではなく、常にリソースの現在のバージョンにある。</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3389,13 +3393,13 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3446,7 +3450,7 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3475,7 +3479,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3504,7 +3508,7 @@
         <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>135</v>
@@ -3557,7 +3561,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3586,11 +3590,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3612,10 +3616,10 @@
         <v>132</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>135</v>
@@ -3670,7 +3674,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3699,7 +3703,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3725,13 +3729,13 @@
         <v>106</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>153</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3781,7 +3785,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>86</v>
@@ -3810,7 +3814,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3833,16 +3837,16 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3892,7 +3896,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>86</v>
@@ -3921,7 +3925,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3944,16 +3948,16 @@
         <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3979,13 +3983,13 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>79</v>
@@ -4003,7 +4007,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>86</v>
@@ -4021,18 +4025,18 @@
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4058,10 +4062,10 @@
         <v>163</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4112,7 +4116,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4141,7 +4145,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4164,13 +4168,13 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4221,7 +4225,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4250,7 +4254,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4279,7 +4283,7 @@
         <v>133</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>135</v>
@@ -4332,7 +4336,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4361,11 +4365,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4387,10 +4391,10 @@
         <v>132</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>135</v>
@@ -4445,7 +4449,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4474,7 +4478,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4497,16 +4501,16 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4532,13 +4536,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -4556,7 +4560,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>86</v>
@@ -4585,7 +4589,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4608,16 +4612,16 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4667,7 +4671,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>86</v>
@@ -4696,7 +4700,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4719,16 +4723,16 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4754,13 +4758,13 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -4778,7 +4782,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4793,21 +4797,21 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4830,16 +4834,16 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4865,13 +4869,13 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
@@ -4889,7 +4893,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4904,7 +4908,7 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>167</v>
@@ -4913,12 +4917,12 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4941,16 +4945,16 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4976,13 +4980,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5000,7 +5004,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5018,22 +5022,22 @@
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5052,16 +5056,16 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5111,7 +5115,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5126,21 +5130,21 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5163,16 +5167,16 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5222,7 +5226,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5237,25 +5241,25 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>167</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5274,16 +5278,16 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5333,7 +5337,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5348,10 +5352,10 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>79</v>
@@ -5362,7 +5366,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5388,10 +5392,10 @@
         <v>163</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5442,7 +5446,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5457,21 +5461,21 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5494,13 +5498,13 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5551,7 +5555,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5580,7 +5584,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5609,7 +5613,7 @@
         <v>133</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>135</v>
@@ -5662,7 +5666,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5691,11 +5695,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5717,10 +5721,10 @@
         <v>132</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>135</v>
@@ -5775,7 +5779,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5804,7 +5808,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5827,16 +5831,16 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5862,13 +5866,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -5886,7 +5890,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5901,21 +5905,21 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5938,13 +5942,13 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5995,7 +5999,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6013,18 +6017,18 @@
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6047,13 +6051,13 @@
         <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6104,7 +6108,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6119,21 +6123,21 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6156,16 +6160,16 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6215,7 +6219,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6230,21 +6234,21 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6267,16 +6271,16 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6326,7 +6330,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6341,21 +6345,21 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6378,16 +6382,16 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6437,7 +6441,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6452,25 +6456,25 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6489,16 +6493,16 @@
         <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6527,10 +6531,10 @@
         <v>110</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -6548,7 +6552,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6563,25 +6567,25 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6600,16 +6604,16 @@
         <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6659,7 +6663,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6674,21 +6678,21 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6714,10 +6718,10 @@
         <v>163</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6768,7 +6772,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6786,7 +6790,7 @@
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
@@ -6797,7 +6801,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6820,13 +6824,13 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6877,7 +6881,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6906,7 +6910,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6935,7 +6939,7 @@
         <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>135</v>
@@ -6988,7 +6992,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7017,11 +7021,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7043,10 +7047,10 @@
         <v>132</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>135</v>
@@ -7101,7 +7105,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7130,11 +7134,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7153,16 +7157,16 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7212,7 +7216,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>86</v>
@@ -7227,21 +7231,21 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7264,13 +7268,13 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7300,10 +7304,10 @@
         <v>110</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -7321,7 +7325,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7350,7 +7354,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7373,13 +7377,13 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7430,7 +7434,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7448,7 +7452,7 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
@@ -7459,7 +7463,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7482,16 +7486,16 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7541,7 +7545,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7559,7 +7563,7 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
@@ -7570,7 +7574,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7596,13 +7600,13 @@
         <v>163</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7652,7 +7656,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7670,7 +7674,7 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>79</v>
@@ -7681,7 +7685,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7704,13 +7708,13 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7761,7 +7765,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7790,7 +7794,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7819,7 +7823,7 @@
         <v>133</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>135</v>
@@ -7872,7 +7876,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7901,11 +7905,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7927,10 +7931,10 @@
         <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>135</v>
@@ -7985,7 +7989,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8014,7 +8018,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8040,10 +8044,10 @@
         <v>144</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8094,7 +8098,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8118,12 +8122,12 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8146,16 +8150,16 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8205,7 +8209,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8223,7 +8227,7 @@
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>79</v>
@@ -8234,7 +8238,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8257,16 +8261,16 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8295,10 +8299,10 @@
         <v>110</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8316,7 +8320,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8334,18 +8338,18 @@
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8368,16 +8372,16 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8403,13 +8407,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -8427,7 +8431,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8451,12 +8455,12 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8479,19 +8483,19 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8516,13 +8520,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -8540,7 +8544,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8558,18 +8562,18 @@
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8592,16 +8596,16 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8630,10 +8634,10 @@
         <v>110</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -8651,7 +8655,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8669,18 +8673,18 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8703,16 +8707,16 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8741,10 +8745,10 @@
         <v>110</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -8762,7 +8766,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8780,18 +8784,18 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8814,16 +8818,16 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8873,7 +8877,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -8891,18 +8895,18 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8925,16 +8929,16 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8960,13 +8964,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -8984,7 +8988,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9002,18 +9006,18 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9039,13 +9043,13 @@
         <v>163</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9095,7 +9099,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9113,7 +9117,7 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>79</v>
@@ -9124,7 +9128,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9147,13 +9151,13 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9204,7 +9208,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9233,7 +9237,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9262,7 +9266,7 @@
         <v>133</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>135</v>
@@ -9315,7 +9319,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9344,11 +9348,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9370,10 +9374,10 @@
         <v>132</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>135</v>
@@ -9428,7 +9432,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9457,7 +9461,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9480,16 +9484,16 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9539,7 +9543,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>86</v>
@@ -9554,21 +9558,21 @@
         <v>98</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9594,13 +9598,13 @@
         <v>106</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9629,10 +9633,10 @@
         <v>155</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -9650,7 +9654,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -9668,7 +9672,7 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>79</v>
@@ -9679,7 +9683,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9702,16 +9706,16 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9737,13 +9741,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -9761,7 +9765,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9790,7 +9794,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9813,16 +9817,16 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9872,7 +9876,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9890,7 +9894,7 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>79</v>
@@ -9901,7 +9905,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9924,16 +9928,16 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -9983,7 +9987,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -9998,21 +10002,21 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10035,16 +10039,16 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10094,7 +10098,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10109,10 +10113,10 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="482">
   <si>
     <t>Property</t>
   </si>
@@ -421,33 +421,51 @@
     <t>Encounter.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>associatedEncounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {encounter-associatedEncounter}
+</t>
+  </si>
+  <si>
+    <t>関連するEncounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Encounter.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Encounter.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -455,6 +473,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -560,6 +581,9 @@
   </si>
   <si>
     <t>Encounter.statusHistory.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1871,7 +1895,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM74"/>
+  <dimension ref="A1:AM75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1881,7 +1905,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="45.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.2265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2819,7 +2843,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2838,17 +2862,15 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>79</v>
@@ -2885,16 +2907,14 @@
         <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>136</v>
@@ -2915,7 +2935,7 @@
         <v>79</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>79</v>
@@ -2926,43 +2946,41 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>79</v>
       </c>
@@ -3010,7 +3028,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -3019,7 +3037,7 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>137</v>
@@ -3028,7 +3046,7 @@
         <v>79</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>79</v>
@@ -3039,11 +3057,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3056,22 +3074,26 @@
         <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3119,7 +3141,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3131,24 +3153,24 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3156,32 +3178,30 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>79</v>
@@ -3206,13 +3226,13 @@
         <v>79</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>79</v>
@@ -3230,13 +3250,13 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>79</v>
@@ -3245,21 +3265,21 @@
         <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3267,31 +3287,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3317,13 +3337,13 @@
         <v>79</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>79</v>
@@ -3341,13 +3361,13 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>79</v>
@@ -3356,16 +3376,16 @@
         <v>98</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="14">
@@ -3381,7 +3401,7 @@
         <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>79</v>
@@ -3401,7 +3421,9 @@
       <c r="L14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>79</v>
@@ -3450,25 +3472,25 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>79</v>
@@ -3479,18 +3501,18 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>79</v>
@@ -3502,17 +3524,15 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>79</v>
@@ -3561,25 +3581,25 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>79</v>
@@ -3590,11 +3610,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3607,26 +3627,24 @@
         <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>79</v>
       </c>
@@ -3674,7 +3692,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3692,7 +3710,7 @@
         <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>79</v>
@@ -3703,41 +3721,43 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3761,13 +3781,13 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>79</v>
@@ -3785,25 +3805,25 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>79</v>
@@ -3814,7 +3834,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3837,16 +3857,16 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3872,13 +3892,13 @@
         <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>79</v>
@@ -3896,7 +3916,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>86</v>
@@ -3914,7 +3934,7 @@
         <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>79</v>
@@ -3925,7 +3945,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3945,19 +3965,19 @@
         <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3983,13 +4003,13 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>79</v>
@@ -4007,7 +4027,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>86</v>
@@ -4025,18 +4045,18 @@
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4044,10 +4064,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
@@ -4056,18 +4076,20 @@
         <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -4092,13 +4114,13 @@
         <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>79</v>
@@ -4116,13 +4138,13 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
@@ -4134,18 +4156,18 @@
         <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4156,7 +4178,7 @@
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
@@ -4171,10 +4193,10 @@
         <v>169</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4225,25 +4247,25 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>79</v>
@@ -4254,18 +4276,18 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
@@ -4277,17 +4299,15 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4336,25 +4356,25 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>79</v>
@@ -4365,11 +4385,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4382,26 +4402,24 @@
         <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4449,7 +4467,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4467,7 +4485,7 @@
         <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>79</v>
@@ -4478,41 +4496,43 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4536,13 +4556,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -4560,25 +4580,25 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>79</v>
@@ -4589,7 +4609,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4612,16 +4632,16 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4647,13 +4667,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -4671,7 +4691,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>86</v>
@@ -4689,7 +4709,7 @@
         <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>79</v>
@@ -4700,7 +4720,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4708,10 +4728,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -4720,19 +4740,19 @@
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4758,13 +4778,13 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -4782,13 +4802,13 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -4797,21 +4817,21 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4822,7 +4842,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
@@ -4834,16 +4854,16 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4869,13 +4889,13 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
@@ -4893,13 +4913,13 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
@@ -4908,13 +4928,13 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>230</v>
@@ -4942,10 +4962,10 @@
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>232</v>
@@ -4954,7 +4974,7 @@
         <v>233</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4980,13 +5000,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5019,25 +5039,25 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5053,19 +5073,19 @@
         <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5091,13 +5111,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5115,7 +5135,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5130,32 +5150,32 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>248</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
@@ -5167,16 +5187,16 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5226,13 +5246,13 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
@@ -5241,25 +5261,25 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AK30" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>256</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5275,19 +5295,19 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5337,7 +5357,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5352,16 +5372,16 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="32">
@@ -5370,7 +5390,7 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5386,18 +5406,20 @@
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>163</v>
+        <v>266</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5461,21 +5483,21 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>269</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5486,7 +5508,7 @@
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
@@ -5495,16 +5517,16 @@
         <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>169</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>170</v>
+        <v>272</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>171</v>
+        <v>273</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5555,47 +5577,47 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>172</v>
+        <v>271</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>79</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
@@ -5607,17 +5629,15 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -5666,25 +5686,25 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>79</v>
@@ -5695,11 +5715,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5712,26 +5732,24 @@
         <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
       </c>
@@ -5779,7 +5797,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5797,7 +5815,7 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>79</v>
@@ -5808,11 +5826,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5825,24 +5843,26 @@
         <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>274</v>
+        <v>185</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>275</v>
+        <v>186</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
@@ -5866,13 +5886,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -5890,7 +5910,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>273</v>
+        <v>187</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5902,24 +5922,24 @@
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>279</v>
+        <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>280</v>
+        <v>129</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5930,7 +5950,7 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>79</v>
@@ -5939,18 +5959,20 @@
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -5975,13 +5997,13 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>79</v>
+        <v>284</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -5999,13 +6021,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6014,21 +6036,21 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6048,16 +6070,16 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>288</v>
+        <v>192</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6108,7 +6130,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6123,21 +6145,21 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>292</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6148,7 +6170,7 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6160,17 +6182,15 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>253</v>
-      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6219,13 +6239,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6234,21 +6254,21 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>299</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6259,7 +6279,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>79</v>
@@ -6268,19 +6288,19 @@
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>185</v>
+        <v>303</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6330,13 +6350,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6345,21 +6365,21 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>306</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>308</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6382,16 +6402,16 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6441,7 +6461,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6456,13 +6476,13 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>315</v>
@@ -6474,14 +6494,14 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>317</v>
+        <v>79</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6490,10 +6510,10 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>214</v>
+        <v>317</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>318</v>
@@ -6528,13 +6548,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -6558,7 +6578,7 @@
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -6567,25 +6587,25 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6604,16 +6624,16 @@
         <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>328</v>
+        <v>221</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6639,13 +6659,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>79</v>
+        <v>328</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>329</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -6663,7 +6683,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6678,25 +6698,25 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6715,15 +6735,17 @@
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>163</v>
+        <v>335</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -6772,7 +6794,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6787,21 +6809,21 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>333</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6812,7 +6834,7 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -6821,16 +6843,16 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>169</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>170</v>
+        <v>339</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>171</v>
+        <v>340</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6881,25 +6903,25 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>167</v>
+        <v>341</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>79</v>
@@ -6910,18 +6932,18 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -6933,17 +6955,15 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -6992,25 +7012,25 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>79</v>
@@ -7021,11 +7041,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7038,26 +7058,24 @@
         <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7105,7 +7123,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7123,7 +7141,7 @@
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>79</v>
@@ -7134,41 +7152,43 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>339</v>
+        <v>184</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>340</v>
+        <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>341</v>
+        <v>185</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>342</v>
+        <v>186</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7216,44 +7236,44 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>338</v>
+        <v>187</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>345</v>
+        <v>129</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>86</v>
@@ -7265,10 +7285,10 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>214</v>
+        <v>347</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>348</v>
@@ -7276,7 +7296,9 @@
       <c r="L49" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M49" s="2"/>
+      <c r="M49" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7301,13 +7323,13 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -7325,10 +7347,10 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>86</v>
@@ -7340,21 +7362,21 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>167</v>
+        <v>352</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7377,13 +7399,13 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>353</v>
+        <v>221</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7410,13 +7432,13 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -7434,7 +7456,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7452,7 +7474,7 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>356</v>
+        <v>173</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
@@ -7463,7 +7485,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7474,7 +7496,7 @@
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>79</v>
@@ -7486,17 +7508,15 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -7545,13 +7565,13 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
@@ -7563,7 +7583,7 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
@@ -7574,7 +7594,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7585,7 +7605,7 @@
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>79</v>
@@ -7597,16 +7617,16 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7656,13 +7676,13 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>79</v>
@@ -7674,7 +7694,7 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>79</v>
@@ -7685,7 +7705,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7711,12 +7731,14 @@
         <v>169</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>170</v>
+        <v>371</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -7765,7 +7787,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>172</v>
+        <v>370</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7777,13 +7799,13 @@
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>167</v>
+        <v>374</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>79</v>
@@ -7794,18 +7816,18 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>79</v>
@@ -7817,17 +7839,15 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -7876,25 +7896,25 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
@@ -7905,11 +7925,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7922,26 +7942,24 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
@@ -7989,7 +8007,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8007,7 +8025,7 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>79</v>
@@ -8018,39 +8036,43 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>372</v>
+        <v>185</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8098,36 +8120,36 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>371</v>
+        <v>187</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8150,17 +8172,15 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>376</v>
+        <v>150</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8209,7 +8229,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8227,18 +8247,18 @@
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>380</v>
+        <v>154</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8261,16 +8281,16 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>214</v>
+        <v>383</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8296,13 +8316,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8320,7 +8340,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8344,12 +8364,12 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8372,16 +8392,16 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8407,7 +8427,7 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>218</v>
+        <v>110</v>
       </c>
       <c r="X59" t="s" s="2">
         <v>392</v>
@@ -8431,7 +8451,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8449,18 +8469,18 @@
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>167</v>
+        <v>394</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8471,7 +8491,7 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -8483,20 +8503,18 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -8520,14 +8538,14 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
       </c>
@@ -8544,13 +8562,13 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
@@ -8562,18 +8580,18 @@
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>402</v>
+        <v>173</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8596,18 +8614,20 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -8631,7 +8651,7 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="X61" t="s" s="2">
         <v>407</v>
@@ -8655,7 +8675,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8707,7 +8727,7 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>412</v>
@@ -8716,7 +8736,7 @@
         <v>413</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8806,7 +8826,7 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -8818,7 +8838,7 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>376</v>
+        <v>221</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>419</v>
@@ -8827,7 +8847,7 @@
         <v>420</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8853,13 +8873,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -8883,7 +8903,7 @@
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
@@ -8895,18 +8915,18 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8929,16 +8949,16 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>214</v>
+        <v>383</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8964,13 +8984,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -8988,7 +9008,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9028,7 +9048,7 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>79</v>
@@ -9040,7 +9060,7 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>431</v>
@@ -9049,7 +9069,7 @@
         <v>432</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9075,13 +9095,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9105,7 +9125,7 @@
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
@@ -9117,18 +9137,18 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9139,7 +9159,7 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9154,12 +9174,14 @@
         <v>169</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>170</v>
+        <v>438</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9208,25 +9230,25 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>172</v>
+        <v>437</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>167</v>
+        <v>441</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>79</v>
@@ -9237,18 +9259,18 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -9260,17 +9282,15 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9319,25 +9339,25 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>79</v>
@@ -9348,11 +9368,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9365,26 +9385,24 @@
         <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -9432,7 +9450,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9450,7 +9468,7 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>79</v>
@@ -9461,41 +9479,43 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>439</v>
+        <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>440</v>
+        <v>185</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>441</v>
+        <v>186</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -9543,31 +9563,31 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>438</v>
+        <v>187</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>292</v>
+        <v>129</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70">
@@ -9580,7 +9600,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>86</v>
@@ -9595,16 +9615,16 @@
         <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>106</v>
+        <v>446</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>448</v>
+        <v>386</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9630,13 +9650,13 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -9657,7 +9677,7 @@
         <v>445</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>86</v>
@@ -9669,16 +9689,16 @@
         <v>98</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>79</v>
+        <v>449</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="71">
@@ -9706,7 +9726,7 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>453</v>
@@ -9741,7 +9761,7 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="X71" t="s" s="2">
         <v>456</v>
@@ -9783,7 +9803,7 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>79</v>
@@ -9794,7 +9814,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9817,16 +9837,16 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9852,13 +9872,13 @@
         <v>79</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>79</v>
@@ -9876,7 +9896,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9894,7 +9914,7 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>79</v>
@@ -9905,7 +9925,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9928,16 +9948,16 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>463</v>
+        <v>192</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>253</v>
+        <v>468</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -9987,7 +10007,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10002,21 +10022,21 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>466</v>
+        <v>292</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>467</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10039,16 +10059,16 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>472</v>
+        <v>260</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10098,7 +10118,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10113,15 +10133,126 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="AK74" t="s" s="2">
+      <c r="AL74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AL74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM74" t="s" s="2">
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -260,7 +260,7 @@
   </si>
   <si>
     <t>An interaction between a patient and healthcare provider(s) for the purpose of providing healthcare service(s) or assessing the health status of a patient.
-医療サービスの提供または患者の健康状態の評価を目的とした、患者と医療提供者との間の相互作用。エンカウンターと表現される。
+医療サービスの提供または患者の健康状態の評価を目的とした、患者と医療提供者との間の相互作用。Encounterと表現される。
 【JP Core仕様】外来受診、救急受診、入院、退院、対面診察、電話診察、など。</t>
   </si>
   <si>
@@ -554,7 +554,7 @@
   </si>
   <si>
     <t>The status history permits the encounter resource to contain the status history without needing to read through the historical versions of the resource, or even have the server store them.
-ステータス履歴(status History)は、リソースの歴史的なバージョンを読み込んだり、サーバーに保存させたりすることなく、Encounterリソースがステータス履歴を含むことを可能にする。</t>
+ステータス履歴(status History)は、リソースの歴史的なバージョンを読み込んだり、サーバに保存させたりすることなく、Encounterリソースがステータス履歴を含むことを可能にする。</t>
   </si>
   <si>
     <t>The current status is always found in the current version of the resource, not the status history.
@@ -764,7 +764,7 @@
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
+すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
   </si>
   <si>
     <t>Broad categorization of the service that is to be provided.</t>
@@ -846,7 +846,7 @@
   </si>
   <si>
     <t>Where a specific encounter should be classified as a part of a specific episode(s) of care this field should be used. This association can facilitate grouping of related encounters together for a specific purpose, such as government reporting, issue tracking, association via a common problem.  The association is recorded on the encounter as these are typically created after the episode of care and grouped on entry rather than editing the episode of care to append another encounter to it (the episode of care could span years).
-特定のEncounterをケアの特定のエピソードの一部として分類する必要がある場合は、このフィールドを使用する必要がある。この関連付けにより、政府の報告、問題追跡、一般的な問題を介した関連付けなど、特定の目的のために関連するエンカウンターをグループ化することが容易になる。これらは通常、ケアのエピソードの後に​​作成され、ケアのエピソードを編集して別のエンカウンターを追加するのではなく、エントリ時にグループ化されるため、関連付けはエンカウンターに記録される（ケアのエピソードは数年にわたる場合がある）。</t>
+特定のEncounterをケアの特定のエピソードの一部として分類する必要がある場合は、このフィールドを使用する必要がある。この関連付けにより、政府の報告、問題追跡、一般的な問題を介した関連付けなど、特定の目的のために関連するEncounterをグループ化することが容易になる。これらは通常、ケアのエピソードの後に​​作成され、ケアのエピソードを編集して別のEncounterを追加するのではなく、エントリ時にグループ化されるため、関連付けはEncounterに記録される（ケアのエピソードは数年にわたる場合がある）。</t>
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
@@ -917,11 +917,11 @@
     <t>Encounter.participant.type</t>
   </si>
   <si>
-    <t>Role of participant in encounter / このエンカウンターにおける参加者の役割</t>
+    <t>Role of participant in encounter / このEncounterにおける参加者の役割</t>
   </si>
   <si>
     <t>Role of participant in encounter.
-このエンカウンターにおける参加者の役割。</t>
+このEncounterにおける参加者の役割。</t>
   </si>
   <si>
     <t>The participant type indicates how an individual participates in an encounter. It includes non-practitioner participants, and for practitioners this is to describe the action type in the context of this encounter (e.g. Admitting Dr, Attending Dr, Translator, Consulting Dr). This is different to the practitioner roles which are functional roles, derived from terms of employment, education, licensing, etc.
@@ -1042,7 +1042,7 @@
   </si>
   <si>
     <t>Quantity of time the encounter lasted. This excludes the time during leaves of absence.
-このエンカウンターが続いた時間。これは休職中の時間を除外する。</t>
+このEncounterが続いた時間。これは休職中の時間を除外する。</t>
   </si>
   <si>
     <t>May differ from the time the Encounter.period lasted because of leave of absence.
@@ -1098,11 +1098,11 @@
 </t>
   </si>
   <si>
-    <t>Reason the encounter takes place (reference)　エンカウンターがあった理由</t>
+    <t>Reason the encounter takes place (reference)　Encounterがあった理由</t>
   </si>
   <si>
     <t>Reason the encounter takes place, expressed as a code. For admissions, this can be used for a coded admission diagnosis.
-コードとして表現されたエンカウンターが起こった理由。入院の場合、これはコード化されたコード化された入院時診断に使用できる。</t>
+コードとして表現されたEncounterが起こった理由。入院の場合、これはコード化されたコード化された入院時診断に使用できる。</t>
   </si>
   <si>
     <t>Encounter.diagnosis</t>
@@ -1376,7 +1376,7 @@
     <t>Encounter.hospitalization.specialArrangement</t>
   </si>
   <si>
-    <t>Wheelchair, translator, stretcher, etc. / 車椅子、トランスレーター、ストレッチャーなど</t>
+    <t>Wheelchair, translator, stretcher, etc. / 車椅子、トランスレータ、ストレッチャなど</t>
   </si>
   <si>
     <t>Any special requests that have been made for this hospitalization encounter, such as the provision of specific equipment or other things.

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -626,7 +626,7 @@
 </t>
   </si>
   <si>
-    <t>The time that the episode was in the specified status / そのエピソードが指定された状態になっていた時間。</t>
+    <t>The time that the episode was in the specified status / そのエピソードが指定された状態になっていた時間</t>
   </si>
   <si>
     <t>The time that the episode was in the specified status.
@@ -779,7 +779,7 @@
     <t>Encounter.priority</t>
   </si>
   <si>
-    <t>Indicates the urgency of the encounter / このEncounterの緊急性を示す。</t>
+    <t>Indicates the urgency of the encounter / このEncounterの緊急性を示す</t>
   </si>
   <si>
     <t>Indicates the urgency of the encounter.
@@ -1305,7 +1305,7 @@
     <t>Encounter.hospitalization.reAdmission</t>
   </si>
   <si>
-    <t>The type of hospital re-admission that has occurred (if any). If the value is absent, then this is not identified as a readmission / 発生した病院の再入院のタイプ（もしあれば）。値がない場合、これは再入院として識別されない。</t>
+    <t>The type of hospital re-admission that has occurred (if any). If the value is absent, then this is not identified as a readmission / 発生した病院の再入院のタイプ（もしあれば）、値がない場合これは再入院として識別されない</t>
   </si>
   <si>
     <t>Whether this hospitalization is a readmission and why if known.
@@ -1414,7 +1414,7 @@
     <t>Encounter.hospitalization.dischargeDisposition</t>
   </si>
   <si>
-    <t>Category or kind of location after discharge / 退院後の場所の区分や種類。</t>
+    <t>Category or kind of location after discharge / 退院後の場所の区分や種類</t>
   </si>
   <si>
     <t>Category or kind of location after discharge.
@@ -1914,7 +1914,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="167.61328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="165.4140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -634,7 +634,7 @@
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](datatypes.html#Duration).
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).
 これは期間ではない-これは時間の尺度（別のタイプ）であり、時間の固定値で発生する期間である。 期間は時間の範囲を指定する。 使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、または範囲から1つの値が適用されるか（たとえば、「これら2回の間に患者に与える」）を指定する。 期間が必要な場合は、タイプをInterval | Durationとして指定する。</t>
   </si>
   <si>
@@ -1538,9 +1538,9 @@
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](datatypes.html#Duration).
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).
 期間は時間の範囲を指定する。 使用のコンテキストは、範囲全体が適用されるかどうかを指定する (例: "患者はこの時間範囲の病院の入院患者でした" )。または、範囲から1つの値が適用される（例：「この2回の間に患者に与える」）。
-期間は、期間(経過時間の尺度)には使用されない。Duration](datatypes.html#Duration)を参照のこと。</t>
+期間は、期間(経過時間の尺度)には使用されない。Duration](http://hl7.org/fhir/R4/datatypes.html#Duration)を参照のこと。</t>
   </si>
   <si>
     <t>Encounter.serviceProvider</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -489,7 +489,7 @@
 </t>
   </si>
   <si>
-    <t>Identifier(s) by which this encounter is known / このEncounterが知られている識別子（複数可）</t>
+    <t>Identifier(s) by which this encounter is known / このEncounterが知られている識別子（複数可）【詳細参照】</t>
   </si>
   <si>
     <t>Identifier(s) by which this encounter is known.
@@ -511,7 +511,7 @@
     <t>Encounter.status</t>
   </si>
   <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled + / 予定｜到着｜トリアージ｜進行中｜保留中｜終了｜キャンセル+</t>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled + / 予定｜到着｜トリアージ｜進行中｜保留中｜終了｜キャンセル+【詳細参照】</t>
   </si>
   <si>
     <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.
@@ -550,7 +550,7 @@
 </t>
   </si>
   <si>
-    <t>List of past encounter statuses / 過去のEncounterのステータス一覧</t>
+    <t>List of past encounter statuses / 過去のEncounterのステータス一覧【詳細参照】</t>
   </si>
   <si>
     <t>The status history permits the encounter resource to contain the status history without needing to read through the historical versions of the resource, or even have the server store them.
@@ -645,7 +645,7 @@
 </t>
   </si>
   <si>
-    <t>Classification of patient encounter / 患者とのEncounterの分類</t>
+    <t>Classification of patient encounter / 患者とのEncounterの分類【詳細参照】</t>
   </si>
   <si>
     <t>Concepts representing classification of patient encounter such as ambulatory (outpatient), inpatient, emergency, home health or others due to local variations.
@@ -677,7 +677,7 @@
     <t>Encounter.classHistory</t>
   </si>
   <si>
-    <t>List of past encounter classes / 過去のEncounter classのリスト</t>
+    <t>List of past encounter classes / 過去のEncounter classのリスト【詳細参照】</t>
   </si>
   <si>
     <t>The class history permits the tracking of the encounters transitions without needing to go  through the resource history.  This would be used for a case where an admission starts of as an emergency encounter, then transitions into an inpatient scenario. Doing this and not restarting a new encounter ensures that any lab/diagnostic results can more easily follow the patient and not require re-processing and not get lost or cancelled during a kind of discharge from emergency to inpatient.
@@ -724,7 +724,7 @@
 </t>
   </si>
   <si>
-    <t>Specific type of encounter / Encounterの具体的なタイプ</t>
+    <t>Specific type of encounter / Encounterの具体的なタイプ【詳細参照】</t>
   </si>
   <si>
     <t>Specific type of encounter (e.g. e-mail consultation, surgical day-care, skilled nursing, rehabilitation).
@@ -756,7 +756,7 @@
     <t>Encounter.serviceType</t>
   </si>
   <si>
-    <t>Specific type of service / 具体的なサービスの種類</t>
+    <t>Specific type of service / 具体的なサービスの種類【詳細参照】</t>
   </si>
   <si>
     <t>Broad categorization of the service that is to be provided (e.g. cardiology).
@@ -779,7 +779,7 @@
     <t>Encounter.priority</t>
   </si>
   <si>
-    <t>Indicates the urgency of the encounter / このEncounterの緊急性を示す</t>
+    <t>Indicates the urgency of the encounter / このEncounterの緊急性を示す【詳細参照】</t>
   </si>
   <si>
     <t>Indicates the urgency of the encounter.
@@ -812,7 +812,7 @@
 </t>
   </si>
   <si>
-    <t>The patient or group present at the encounter / このEncounterに立ち会う患者またはグループ</t>
+    <t>The patient or group present at the encounter / このEncounterに立ち会う患者またはグループ【詳細参照】</t>
   </si>
   <si>
     <t>The patient or group present at the encounter.
@@ -842,7 +842,7 @@
 </t>
   </si>
   <si>
-    <t>Episode(s) of care that this encounter should be recorded against / このEncounterが記録されるべきケアのエピソード</t>
+    <t>Episode(s) of care that this encounter should be recorded against / このEncounterが記録されるべきケアのエピソード【詳細参照】</t>
   </si>
   <si>
     <t>Where a specific encounter should be classified as a part of a specific episode(s) of care this field should be used. This association can facilitate grouping of related encounters together for a specific purpose, such as government reporting, issue tracking, association via a common problem.  The association is recorded on the encounter as these are typically created after the episode of care and grouped on entry rather than editing the episode of care to append another encounter to it (the episode of care could span years).
@@ -873,7 +873,7 @@
 </t>
   </si>
   <si>
-    <t>The ServiceRequest that initiated this encounter / このEncounterを開始したServiceRequest</t>
+    <t>The ServiceRequest that initiated this encounter / このEncounterを開始したServiceRequest【詳細参照】</t>
   </si>
   <si>
     <t>The request this encounter satisfies (e.g. incoming referral or procedure request).
@@ -889,7 +889,7 @@
     <t>Encounter.participant</t>
   </si>
   <si>
-    <t>List of participants involved in the encounter / このEncounterに関わった参加者一覧</t>
+    <t>List of participants involved in the encounter / このEncounterに関わった参加者一覧【詳細参照】</t>
   </si>
   <si>
     <t>The list of people responsible for providing the service.
@@ -992,7 +992,7 @@
 </t>
   </si>
   <si>
-    <t>The appointment that scheduled this encounter / このEncounterをスケジュールした予定</t>
+    <t>The appointment that scheduled this encounter / このEncounterをスケジュールした予定【詳細参照】</t>
   </si>
   <si>
     <t>The appointment that scheduled this encounter.
@@ -1008,7 +1008,7 @@
     <t>Encounter.period</t>
   </si>
   <si>
-    <t>The start and end time of the encounter / このEncounterの開始時間と終了時間</t>
+    <t>The start and end time of the encounter / このEncounterの開始時間と終了時間【詳細参照】</t>
   </si>
   <si>
     <t>The start and end time of the encounter.
@@ -1038,7 +1038,7 @@
 </t>
   </si>
   <si>
-    <t>Quantity of time the encounter lasted (less time absent) / Encounterが続いた時間の量（欠席時間が少ない）</t>
+    <t>Quantity of time the encounter lasted (less time absent) / Encounterが続いた時間の量（欠席時間が少ない）【詳細参照】</t>
   </si>
   <si>
     <t>Quantity of time the encounter lasted. This excludes the time during leaves of absence.
@@ -1062,7 +1062,7 @@
 Admission diagnosis</t>
   </si>
   <si>
-    <t>Coded reason the encounter takes place / Encounterの発生をコード化された理由の情報</t>
+    <t>Coded reason the encounter takes place / Encounterの発生をコード化された理由の情報【詳細参照】</t>
   </si>
   <si>
     <t>Reason the encounter takes place, expressed as a code. For admissions, this can be used for a coded admission diagnosis.
@@ -1098,7 +1098,7 @@
 </t>
   </si>
   <si>
-    <t>Reason the encounter takes place (reference)　Encounterがあった理由</t>
+    <t>Reason the encounter takes place (reference)　Encounterがあった理由【詳細参照】</t>
   </si>
   <si>
     <t>Reason the encounter takes place, expressed as a code. For admissions, this can be used for a coded admission diagnosis.
@@ -1108,7 +1108,7 @@
     <t>Encounter.diagnosis</t>
   </si>
   <si>
-    <t>The list of diagnosis relevant to this encounter / このEncounterに関連する診断名のリスト</t>
+    <t>The list of diagnosis relevant to this encounter / このEncounterに関連する診断名のリスト【詳細参照】</t>
   </si>
   <si>
     <t>The list of diagnosis relevant to this encounter.
@@ -1198,7 +1198,7 @@
 </t>
   </si>
   <si>
-    <t>The set of accounts that may be used for billing for this Encounter / あるEncounterの請求に使用される会計セット</t>
+    <t>The set of accounts that may be used for billing for this Encounter / あるEncounterの請求に使用される会計セット【詳細参照】</t>
   </si>
   <si>
     <t>The set of accounts that may be used for billing for this Encounter.
@@ -1215,7 +1215,7 @@
     <t>Encounter.hospitalization</t>
   </si>
   <si>
-    <t>Details about the admission to a healthcare service/医療機関への入院に関する詳細</t>
+    <t>Details about the admission to a healthcare service/医療機関への入院に関する詳細【詳細参照】</t>
   </si>
   <si>
     <t>Details about the admission to a healthcare service.
@@ -1436,7 +1436,7 @@
     <t>Encounter.location</t>
   </si>
   <si>
-    <t>List of locations where the patient has been / 患者がいたことのある場所の一覧</t>
+    <t>List of locations where the patient has been / 患者がいたことのある場所の一覧【詳細参照】</t>
   </si>
   <si>
     <t>List of locations where  the patient has been during this encounter.
@@ -1550,7 +1550,7 @@
 </t>
   </si>
   <si>
-    <t>The organization (facility) responsible for this encounter / このEncounterに責任を持つ組織（施設）</t>
+    <t>The organization (facility) responsible for this encounter / このEncounterに責任を持つ組織（施設）【詳細参照】</t>
   </si>
   <si>
     <t>The organization that is primarily responsible for this Encounter's services. This MAY be the same as the organization on the Patient record, however it could be different, such as if the actor performing the services was from an external organization (which may be billed separately) for an external consultation.  Refer to the example bundle showing an abbreviated set of Encounters for a colonoscopy.
@@ -1570,7 +1570,7 @@
 </t>
   </si>
   <si>
-    <t>Another Encounter this encounter is part of / このEncounterが属するもう一つのEncounter</t>
+    <t>Another Encounter this encounter is part of / このEncounterが属するもう一つのEncounter【詳細参照】</t>
   </si>
   <si>
     <t>Another Encounter of which this encounter is a part of (administratively or in time).

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -262,10 +265,6 @@
     <t>An interaction between a patient and healthcare provider(s) for the purpose of providing healthcare service(s) or assessing the health status of a patient.
 医療サービスの提供または患者の健康状態の評価を目的とした、患者と医療提供者との間の相互作用。Encounterと表現される。
 【JP Core仕様】外来受診、救急受診、入院、退院、対面診察、電話診察、など。</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1837,55 +1836,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1947,218 +1946,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="R2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>83</v>
@@ -2167,10 +2166,10 @@
         <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -2179,20 +2178,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>87</v>
@@ -2211,77 +2210,77 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -2290,20 +2289,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>87</v>
@@ -2320,77 +2319,77 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
@@ -2399,17 +2398,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>87</v>
@@ -2431,77 +2430,77 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -2510,23 +2509,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>106</v>
@@ -2542,26 +2541,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>110</v>
@@ -2573,46 +2572,46 @@
         <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>113</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -2625,19 +2624,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>116</v>
@@ -2653,77 +2652,77 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>121</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -2736,19 +2735,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>124</v>
@@ -2764,77 +2763,77 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -2843,23 +2842,23 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>131</v>
@@ -2873,45 +2872,45 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>134</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>135</v>
@@ -2920,28 +2919,28 @@
         <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -2952,23 +2951,23 @@
         <v>138</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>139</v>
@@ -2982,59 +2981,59 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>141</v>
@@ -3043,16 +3042,16 @@
         <v>137</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -3065,19 +3064,19 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>87</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>131</v>
@@ -3095,77 +3094,77 @@
         <v>147</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>148</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -3174,20 +3173,20 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>87</v>
@@ -3204,62 +3203,62 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>149</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>98</v>
@@ -3283,7 +3282,7 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3293,7 +3292,7 @@
         <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>87</v>
@@ -3315,26 +3314,26 @@
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W13" t="s" s="2">
         <v>161</v>
@@ -3346,19 +3345,19 @@
         <v>163</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>157</v>
@@ -3370,7 +3369,7 @@
         <v>86</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>98</v>
@@ -3394,23 +3393,23 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>169</v>
@@ -3426,77 +3425,77 @@
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>168</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
@@ -3505,23 +3504,23 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>175</v>
@@ -3535,77 +3534,77 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>178</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>173</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
@@ -3618,19 +3617,19 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>131</v>
@@ -3646,77 +3645,77 @@
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>182</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>173</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -3729,13 +3728,13 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>87</v>
@@ -3759,77 +3758,77 @@
         <v>147</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>187</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -3838,7 +3837,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3848,13 +3847,13 @@
         <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>106</v>
@@ -3870,26 +3869,26 @@
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W18" t="s" s="2">
         <v>161</v>
@@ -3901,19 +3900,19 @@
         <v>163</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>188</v>
@@ -3925,22 +3924,22 @@
         <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>173</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
@@ -3949,7 +3948,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3959,13 +3958,13 @@
         <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>192</v>
@@ -3981,50 +3980,50 @@
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>191</v>
@@ -4036,22 +4035,22 @@
         <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>173</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
@@ -4060,7 +4059,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4070,10 +4069,10 @@
         <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>87</v>
@@ -4092,26 +4091,26 @@
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W20" t="s" s="2">
         <v>201</v>
@@ -4123,19 +4122,19 @@
         <v>203</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>196</v>
@@ -4147,13 +4146,13 @@
         <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>204</v>
@@ -4171,23 +4170,23 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>169</v>
@@ -4201,77 +4200,77 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>207</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>173</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
@@ -4280,23 +4279,23 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>175</v>
@@ -4310,77 +4309,77 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>178</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>173</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
@@ -4393,19 +4392,19 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>131</v>
@@ -4421,77 +4420,77 @@
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>182</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>173</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
@@ -4504,13 +4503,13 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>87</v>
@@ -4534,77 +4533,77 @@
         <v>147</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>187</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
@@ -4613,7 +4612,7 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4623,13 +4622,13 @@
         <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>197</v>
@@ -4645,26 +4644,26 @@
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
         <v>201</v>
@@ -4676,19 +4675,19 @@
         <v>203</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>213</v>
@@ -4700,22 +4699,22 @@
         <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>173</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
@@ -4724,7 +4723,7 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4734,13 +4733,13 @@
         <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>192</v>
@@ -4756,50 +4755,50 @@
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>217</v>
@@ -4811,22 +4810,22 @@
         <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>173</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
@@ -4835,20 +4834,20 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>87</v>
@@ -4867,26 +4866,26 @@
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W27" t="s" s="2">
         <v>225</v>
@@ -4898,31 +4897,31 @@
         <v>227</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>220</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>98</v>
@@ -4946,20 +4945,20 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>87</v>
@@ -4978,26 +4977,26 @@
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W28" t="s" s="2">
         <v>225</v>
@@ -5009,31 +5008,31 @@
         <v>236</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>231</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>98</v>
@@ -5045,7 +5044,7 @@
         <v>173</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>237</v>
@@ -5057,23 +5056,23 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>221</v>
@@ -5089,26 +5088,26 @@
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
         <v>225</v>
@@ -5120,37 +5119,37 @@
         <v>242</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>238</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>243</v>
@@ -5172,16 +5171,16 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>87</v>
@@ -5200,62 +5199,62 @@
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>246</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>98</v>
@@ -5279,20 +5278,20 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>87</v>
@@ -5311,62 +5310,62 @@
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>256</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>98</v>
@@ -5394,19 +5393,19 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>266</v>
@@ -5422,62 +5421,62 @@
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>264</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>98</v>
@@ -5489,10 +5488,10 @@
         <v>270</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
@@ -5501,20 +5500,20 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>87</v>
@@ -5531,62 +5530,62 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>271</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>98</v>
@@ -5598,7 +5597,7 @@
         <v>275</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>276</v>
@@ -5610,23 +5609,23 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>175</v>
@@ -5640,77 +5639,77 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>178</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>173</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
@@ -5723,19 +5722,19 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>131</v>
@@ -5751,77 +5750,77 @@
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>182</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>173</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
@@ -5834,13 +5833,13 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>87</v>
@@ -5864,77 +5863,77 @@
         <v>147</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>187</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
@@ -5943,20 +5942,20 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>87</v>
@@ -5975,26 +5974,26 @@
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W37" t="s" s="2">
         <v>201</v>
@@ -6006,31 +6005,31 @@
         <v>285</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>280</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>98</v>
@@ -6042,7 +6041,7 @@
         <v>287</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>288</v>
@@ -6054,23 +6053,23 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>192</v>
@@ -6084,74 +6083,74 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>289</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>292</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>293</v>
@@ -6163,20 +6162,20 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>87</v>
@@ -6193,62 +6192,62 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>294</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>98</v>
@@ -6272,20 +6271,20 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>87</v>
@@ -6304,62 +6303,62 @@
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
         <v>302</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>98</v>
@@ -6371,7 +6370,7 @@
         <v>306</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>307</v>
@@ -6383,23 +6382,23 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>192</v>
@@ -6415,62 +6414,62 @@
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>308</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>98</v>
@@ -6494,23 +6493,23 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>317</v>
@@ -6526,62 +6525,62 @@
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>316</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>98</v>
@@ -6593,7 +6592,7 @@
         <v>321</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>322</v>
@@ -6609,16 +6608,16 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>87</v>
@@ -6637,26 +6636,26 @@
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
         <v>110</v>
@@ -6668,31 +6667,31 @@
         <v>329</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>323</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>98</v>
@@ -6720,16 +6719,16 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>87</v>
@@ -6748,62 +6747,62 @@
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>334</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>98</v>
@@ -6827,20 +6826,20 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>87</v>
@@ -6857,77 +6856,77 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>338</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>341</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46">
@@ -6936,23 +6935,23 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>175</v>
@@ -6966,77 +6965,77 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
         <v>178</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>173</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
@@ -7049,19 +7048,19 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>131</v>
@@ -7077,77 +7076,77 @@
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>182</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>173</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
@@ -7160,13 +7159,13 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>87</v>
@@ -7190,77 +7189,77 @@
         <v>147</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>187</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49">
@@ -7279,10 +7278,10 @@
         <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>87</v>
@@ -7301,50 +7300,50 @@
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>345</v>
@@ -7356,7 +7355,7 @@
         <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>98</v>
@@ -7380,23 +7379,23 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>221</v>
@@ -7410,26 +7409,26 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W50" t="s" s="2">
         <v>110</v>
@@ -7441,46 +7440,46 @@
         <v>358</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
         <v>354</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>173</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51">
@@ -7489,23 +7488,23 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>360</v>
@@ -7519,77 +7518,77 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>359</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>363</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52">
@@ -7598,23 +7597,23 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>365</v>
@@ -7630,77 +7629,77 @@
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
         <v>364</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>369</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
@@ -7709,23 +7708,23 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>169</v>
@@ -7741,77 +7740,77 @@
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>370</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>374</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54">
@@ -7820,23 +7819,23 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>175</v>
@@ -7850,77 +7849,77 @@
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>178</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>173</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55">
@@ -7933,19 +7932,19 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>131</v>
@@ -7961,77 +7960,77 @@
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
         <v>182</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>173</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
@@ -8044,13 +8043,13 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>87</v>
@@ -8074,77 +8073,77 @@
         <v>147</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>187</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
@@ -8153,23 +8152,23 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>150</v>
@@ -8183,74 +8182,74 @@
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
         <v>378</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>154</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>381</v>
@@ -8262,23 +8261,23 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>383</v>
@@ -8294,77 +8293,77 @@
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
         <v>382</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>387</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59">
@@ -8373,23 +8372,23 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>221</v>
@@ -8405,26 +8404,26 @@
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W59" t="s" s="2">
         <v>110</v>
@@ -8436,43 +8435,43 @@
         <v>393</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
         <v>388</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>394</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>395</v>
@@ -8484,23 +8483,23 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>221</v>
@@ -8516,26 +8515,26 @@
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R60" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W60" t="s" s="2">
         <v>225</v>
@@ -8547,43 +8546,43 @@
         <v>400</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>396</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>173</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>401</v>
@@ -8595,23 +8594,23 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>221</v>
@@ -8629,26 +8628,26 @@
         <v>406</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W61" t="s" s="2">
         <v>225</v>
@@ -8660,43 +8659,43 @@
         <v>408</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
         <v>402</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>409</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>410</v>
@@ -8708,23 +8707,23 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>221</v>
@@ -8740,26 +8739,26 @@
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W62" t="s" s="2">
         <v>110</v>
@@ -8771,43 +8770,43 @@
         <v>415</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
         <v>411</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>416</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>417</v>
@@ -8819,23 +8818,23 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>221</v>
@@ -8851,26 +8850,26 @@
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W63" t="s" s="2">
         <v>110</v>
@@ -8882,43 +8881,43 @@
         <v>422</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
         <v>418</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>423</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>424</v>
@@ -8930,23 +8929,23 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>383</v>
@@ -8962,74 +8961,74 @@
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>425</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>428</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>429</v>
@@ -9041,23 +9040,23 @@
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>221</v>
@@ -9073,26 +9072,26 @@
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W65" t="s" s="2">
         <v>225</v>
@@ -9104,43 +9103,43 @@
         <v>434</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
         <v>430</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>435</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>436</v>
@@ -9152,23 +9151,23 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>169</v>
@@ -9184,77 +9183,77 @@
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
         <v>437</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>441</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67">
@@ -9263,23 +9262,23 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>175</v>
@@ -9293,77 +9292,77 @@
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U67" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V67" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
         <v>178</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>173</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68">
@@ -9376,19 +9375,19 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>131</v>
@@ -9404,77 +9403,77 @@
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R68" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T68" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U68" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V68" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
         <v>182</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>173</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69">
@@ -9487,13 +9486,13 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>87</v>
@@ -9517,77 +9516,77 @@
         <v>147</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
         <v>187</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70">
@@ -9596,7 +9595,7 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9606,13 +9605,13 @@
         <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>446</v>
@@ -9628,50 +9627,50 @@
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R70" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U70" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V70" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
         <v>445</v>
@@ -9683,7 +9682,7 @@
         <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>98</v>
@@ -9707,23 +9706,23 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>106</v>
@@ -9739,26 +9738,26 @@
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R71" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U71" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V71" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W71" t="s" s="2">
         <v>161</v>
@@ -9770,46 +9769,46 @@
         <v>457</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
         <v>452</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>458</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72">
@@ -9818,23 +9817,23 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>221</v>
@@ -9850,26 +9849,26 @@
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R72" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T72" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U72" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V72" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W72" t="s" s="2">
         <v>225</v>
@@ -9881,46 +9880,46 @@
         <v>464</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
         <v>459</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73">
@@ -9929,23 +9928,23 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>192</v>
@@ -9961,77 +9960,77 @@
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
         <v>465</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>292</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
@@ -10040,23 +10039,23 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>470</v>
@@ -10072,62 +10071,62 @@
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R74" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T74" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U74" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V74" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
         <v>469</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>98</v>
@@ -10139,7 +10138,7 @@
         <v>473</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>474</v>
@@ -10151,23 +10150,23 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>476</v>
@@ -10183,62 +10182,62 @@
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R75" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U75" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V75" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
         <v>475</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>98</v>
@@ -10250,10 +10249,10 @@
         <v>481</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="485">
   <si>
     <t>Property</t>
   </si>
@@ -260,6 +260,10 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>An interaction during which services are provided to the patient / 患者にサービスが提供されている間の相互作用</t>
@@ -2100,13 +2104,13 @@
         <v>81</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2172,10 +2176,10 @@
         <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>81</v>
@@ -2186,10 +2190,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2200,7 +2204,7 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>81</v>
@@ -2209,19 +2213,19 @@
         <v>81</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2271,13 +2275,13 @@
         <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>81</v>
@@ -2300,10 +2304,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2314,7 +2318,7 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>81</v>
@@ -2323,16 +2327,16 @@
         <v>81</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2383,19 +2387,19 @@
         <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>81</v>
@@ -2412,10 +2416,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2426,28 +2430,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2497,19 +2501,19 @@
         <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>81</v>
@@ -2526,10 +2530,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2540,7 +2544,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>81</v>
@@ -2552,16 +2556,16 @@
         <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2587,13 +2591,13 @@
         <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>81</v>
@@ -2611,19 +2615,19 @@
         <v>81</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>81</v>
@@ -2640,21 +2644,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>81</v>
@@ -2666,16 +2670,16 @@
         <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2725,25 +2729,25 @@
         <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>81</v>
@@ -2754,14 +2758,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2780,16 +2784,16 @@
         <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2839,7 +2843,7 @@
         <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2857,7 +2861,7 @@
         <v>81</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>81</v>
@@ -2868,10 +2872,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2894,13 +2898,13 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2939,17 +2943,17 @@
         <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2961,7 +2965,7 @@
         <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>81</v>
@@ -2978,13 +2982,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>81</v>
@@ -2994,7 +2998,7 @@
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>81</v>
@@ -3006,13 +3010,13 @@
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3063,7 +3067,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3072,10 +3076,10 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>81</v>
@@ -3092,14 +3096,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3112,25 +3116,25 @@
         <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>81</v>
@@ -3179,7 +3183,7 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3191,13 +3195,13 @@
         <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>81</v>
@@ -3208,10 +3212,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3231,16 +3235,16 @@
         <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3291,7 +3295,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3303,27 +3307,27 @@
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3331,31 +3335,31 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3381,13 +3385,13 @@
         <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>81</v>
@@ -3405,39 +3409,39 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3460,16 +3464,16 @@
         <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3519,7 +3523,7 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3531,13 +3535,13 @@
         <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>81</v>
@@ -3548,10 +3552,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3562,7 +3566,7 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>81</v>
@@ -3574,13 +3578,13 @@
         <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3631,13 +3635,13 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>81</v>
@@ -3649,7 +3653,7 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>81</v>
@@ -3660,14 +3664,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3686,16 +3690,16 @@
         <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3745,7 +3749,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3757,13 +3761,13 @@
         <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>81</v>
@@ -3774,14 +3778,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3794,25 +3798,25 @@
         <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>81</v>
@@ -3861,7 +3865,7 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3873,13 +3877,13 @@
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>81</v>
@@ -3890,10 +3894,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3901,10 +3905,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>81</v>
@@ -3916,16 +3920,16 @@
         <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3951,13 +3955,13 @@
         <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>81</v>
@@ -3975,25 +3979,25 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>81</v>
@@ -4004,10 +4008,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4015,10 +4019,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>81</v>
@@ -4030,16 +4034,16 @@
         <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4089,25 +4093,25 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>81</v>
@@ -4118,10 +4122,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4129,10 +4133,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>81</v>
@@ -4141,19 +4145,19 @@
         <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4179,13 +4183,13 @@
         <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>81</v>
@@ -4203,39 +4207,39 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4258,13 +4262,13 @@
         <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4315,7 +4319,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4327,13 +4331,13 @@
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>81</v>
@@ -4344,10 +4348,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4358,7 +4362,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>81</v>
@@ -4370,13 +4374,13 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4427,13 +4431,13 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>81</v>
@@ -4445,7 +4449,7 @@
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>81</v>
@@ -4456,14 +4460,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4482,16 +4486,16 @@
         <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4541,7 +4545,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4553,13 +4557,13 @@
         <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>81</v>
@@ -4570,14 +4574,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4590,25 +4594,25 @@
         <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4657,7 +4661,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4669,13 +4673,13 @@
         <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>81</v>
@@ -4686,10 +4690,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4697,10 +4701,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>81</v>
@@ -4712,16 +4716,16 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4747,13 +4751,13 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
@@ -4771,25 +4775,25 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>81</v>
@@ -4800,10 +4804,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4811,10 +4815,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>81</v>
@@ -4826,16 +4830,16 @@
         <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4885,25 +4889,25 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>81</v>
@@ -4914,10 +4918,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4937,19 +4941,19 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4975,13 +4979,13 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -4999,7 +5003,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5011,27 +5015,27 @@
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5042,7 +5046,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>81</v>
@@ -5051,19 +5055,19 @@
         <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5089,13 +5093,13 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
@@ -5113,39 +5117,39 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5156,7 +5160,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>81</v>
@@ -5168,16 +5172,16 @@
         <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5203,13 +5207,13 @@
         <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>81</v>
@@ -5227,50 +5231,50 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
@@ -5279,19 +5283,19 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5341,39 +5345,39 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5393,19 +5397,19 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5455,7 +5459,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5467,31 +5471,31 @@
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5510,16 +5514,16 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5569,7 +5573,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5581,13 +5585,13 @@
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>81</v>
@@ -5598,10 +5602,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5621,16 +5625,16 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5681,7 +5685,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5693,27 +5697,27 @@
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5724,7 +5728,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
@@ -5736,13 +5740,13 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5793,13 +5797,13 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
@@ -5811,7 +5815,7 @@
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>81</v>
@@ -5822,14 +5826,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5848,16 +5852,16 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5907,7 +5911,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5919,13 +5923,13 @@
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>81</v>
@@ -5936,14 +5940,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5956,25 +5960,25 @@
         <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6023,7 +6027,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6035,13 +6039,13 @@
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>81</v>
@@ -6052,10 +6056,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6075,19 +6079,19 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6113,13 +6117,13 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -6137,7 +6141,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6149,27 +6153,27 @@
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6180,7 +6184,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>81</v>
@@ -6192,13 +6196,13 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6249,39 +6253,39 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6292,7 +6296,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
@@ -6301,16 +6305,16 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6361,39 +6365,39 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6413,19 +6417,19 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6475,7 +6479,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6487,27 +6491,27 @@
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6518,7 +6522,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>81</v>
@@ -6530,16 +6534,16 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6589,39 +6593,39 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6632,7 +6636,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
@@ -6644,16 +6648,16 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6703,43 +6707,43 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6755,19 +6759,19 @@
         <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6793,13 +6797,13 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -6817,7 +6821,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6829,31 +6833,31 @@
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6869,19 +6873,19 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6931,7 +6935,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6943,27 +6947,27 @@
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6983,16 +6987,16 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7043,7 +7047,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7055,13 +7059,13 @@
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>81</v>
@@ -7072,10 +7076,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7086,7 +7090,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>81</v>
@@ -7098,13 +7102,13 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7155,13 +7159,13 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
@@ -7173,7 +7177,7 @@
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
@@ -7184,14 +7188,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7210,16 +7214,16 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7269,7 +7273,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7281,13 +7285,13 @@
         <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>81</v>
@@ -7298,14 +7302,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7318,25 +7322,25 @@
         <v>81</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7385,7 +7389,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7397,13 +7401,13 @@
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>81</v>
@@ -7414,21 +7418,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>81</v>
@@ -7437,19 +7441,19 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7499,39 +7503,39 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7542,7 +7546,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
@@ -7554,13 +7558,13 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7587,13 +7591,13 @@
         <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>81</v>
@@ -7611,25 +7615,25 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>81</v>
@@ -7640,10 +7644,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7654,7 +7658,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>81</v>
@@ -7666,13 +7670,13 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7723,25 +7727,25 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>81</v>
@@ -7752,10 +7756,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7778,16 +7782,16 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7837,7 +7841,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7849,13 +7853,13 @@
         <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>81</v>
@@ -7866,10 +7870,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7880,7 +7884,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
@@ -7892,16 +7896,16 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7951,25 +7955,25 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>81</v>
@@ -7980,10 +7984,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7994,7 +7998,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>81</v>
@@ -8006,13 +8010,13 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8063,13 +8067,13 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>81</v>
@@ -8081,7 +8085,7 @@
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>81</v>
@@ -8092,14 +8096,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8118,16 +8122,16 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8177,7 +8181,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8189,13 +8193,13 @@
         <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
@@ -8206,14 +8210,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8226,25 +8230,25 @@
         <v>81</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8293,7 +8297,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8305,13 +8309,13 @@
         <v>81</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>81</v>
@@ -8322,10 +8326,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8336,7 +8340,7 @@
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>81</v>
@@ -8348,13 +8352,13 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8405,39 +8409,39 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8448,7 +8452,7 @@
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>81</v>
@@ -8460,16 +8464,16 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8519,25 +8523,25 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>81</v>
@@ -8548,10 +8552,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8562,7 +8566,7 @@
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>81</v>
@@ -8574,16 +8578,16 @@
         <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8609,13 +8613,13 @@
         <v>81</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>81</v>
@@ -8633,39 +8637,39 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8676,7 +8680,7 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>81</v>
@@ -8688,16 +8692,16 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8723,13 +8727,13 @@
         <v>81</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>81</v>
@@ -8747,39 +8751,39 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8802,19 +8806,19 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -8839,13 +8843,13 @@
         <v>81</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>81</v>
@@ -8863,7 +8867,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8875,27 +8879,27 @@
         <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8918,16 +8922,16 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8953,13 +8957,13 @@
         <v>81</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>81</v>
@@ -8977,7 +8981,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -8989,27 +8993,27 @@
         <v>81</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9032,16 +9036,16 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9067,13 +9071,13 @@
         <v>81</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>81</v>
@@ -9091,7 +9095,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9103,27 +9107,27 @@
         <v>81</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9134,7 +9138,7 @@
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>81</v>
@@ -9146,16 +9150,16 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9205,39 +9209,39 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9248,7 +9252,7 @@
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>81</v>
@@ -9260,16 +9264,16 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9295,13 +9299,13 @@
         <v>81</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>81</v>
@@ -9319,39 +9323,39 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9374,16 +9378,16 @@
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9433,7 +9437,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9445,13 +9449,13 @@
         <v>81</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>81</v>
@@ -9462,10 +9466,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9476,7 +9480,7 @@
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>81</v>
@@ -9488,13 +9492,13 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9545,13 +9549,13 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>81</v>
@@ -9563,7 +9567,7 @@
         <v>81</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>81</v>
@@ -9574,14 +9578,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9600,16 +9604,16 @@
         <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9659,7 +9663,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9671,13 +9675,13 @@
         <v>81</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>81</v>
@@ -9688,14 +9692,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9708,25 +9712,25 @@
         <v>81</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>81</v>
@@ -9775,7 +9779,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -9787,13 +9791,13 @@
         <v>81</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>81</v>
@@ -9804,10 +9808,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9815,10 +9819,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>81</v>
@@ -9830,16 +9834,16 @@
         <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9889,39 +9893,39 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9932,7 +9936,7 @@
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>81</v>
@@ -9944,16 +9948,16 @@
         <v>81</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9979,13 +9983,13 @@
         <v>81</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>81</v>
@@ -10003,25 +10007,25 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>81</v>
@@ -10032,10 +10036,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10046,7 +10050,7 @@
         <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>81</v>
@@ -10058,16 +10062,16 @@
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10093,13 +10097,13 @@
         <v>81</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>81</v>
@@ -10117,19 +10121,19 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>81</v>
@@ -10146,10 +10150,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10160,7 +10164,7 @@
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>81</v>
@@ -10172,16 +10176,16 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10231,25 +10235,25 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>81</v>
@@ -10260,10 +10264,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10274,7 +10278,7 @@
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>81</v>
@@ -10286,16 +10290,16 @@
         <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10345,39 +10349,39 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10388,7 +10392,7 @@
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>81</v>
@@ -10400,16 +10404,16 @@
         <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10459,25 +10463,25 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>81</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="484">
   <si>
     <t>Property</t>
   </si>
@@ -260,10 +260,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>An interaction during which services are provided to the patient / 患者にサービスが提供されている間の相互作用</t>
@@ -2104,13 +2100,13 @@
         <v>81</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2176,10 +2172,10 @@
         <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>81</v>
@@ -2190,10 +2186,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2204,28 +2200,28 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2275,13 +2271,13 @@
         <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>81</v>
@@ -2304,10 +2300,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2318,25 +2314,25 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2387,19 +2383,19 @@
         <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>81</v>
@@ -2416,10 +2412,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2430,28 +2426,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2501,19 +2497,19 @@
         <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>81</v>
@@ -2530,10 +2526,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2544,7 +2540,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>81</v>
@@ -2556,16 +2552,16 @@
         <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2591,43 +2587,43 @@
         <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>81</v>
@@ -2644,21 +2640,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>81</v>
@@ -2670,16 +2666,16 @@
         <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2729,25 +2725,25 @@
         <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>81</v>
@@ -2758,14 +2754,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2784,16 +2780,16 @@
         <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2843,7 +2839,7 @@
         <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2861,7 +2857,7 @@
         <v>81</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>81</v>
@@ -2872,10 +2868,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2898,13 +2894,13 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2943,17 +2939,17 @@
         <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2965,7 +2961,7 @@
         <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>81</v>
@@ -2982,13 +2978,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>81</v>
@@ -2998,7 +2994,7 @@
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>81</v>
@@ -3010,13 +3006,13 @@
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>143</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3067,7 +3063,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3076,10 +3072,10 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>81</v>
@@ -3096,14 +3092,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3116,25 +3112,25 @@
         <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>81</v>
@@ -3183,7 +3179,7 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3195,13 +3191,13 @@
         <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>81</v>
@@ -3212,10 +3208,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3235,16 +3231,16 @@
         <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3295,7 +3291,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3307,27 +3303,27 @@
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>159</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3335,31 +3331,31 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="J13" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K13" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3385,63 +3381,63 @@
         <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>170</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3464,16 +3460,16 @@
         <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3523,7 +3519,7 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3535,13 +3531,13 @@
         <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>81</v>
@@ -3552,10 +3548,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3566,7 +3562,7 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>81</v>
@@ -3578,13 +3574,13 @@
         <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3635,13 +3631,13 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>81</v>
@@ -3653,7 +3649,7 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>81</v>
@@ -3664,14 +3660,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3690,16 +3686,16 @@
         <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="N16" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3749,7 +3745,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3761,13 +3757,13 @@
         <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>81</v>
@@ -3778,14 +3774,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3798,25 +3794,25 @@
         <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="N17" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>81</v>
@@ -3865,7 +3861,7 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3877,13 +3873,13 @@
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>81</v>
@@ -3894,10 +3890,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3905,10 +3901,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>81</v>
@@ -3920,16 +3916,16 @@
         <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3955,14 +3951,14 @@
         <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y18" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="Z18" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="AA18" t="s" s="2">
         <v>81</v>
       </c>
@@ -3979,25 +3975,25 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>81</v>
@@ -4008,10 +4004,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4019,10 +4015,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>81</v>
@@ -4034,16 +4030,16 @@
         <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4093,25 +4089,25 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>81</v>
@@ -4122,10 +4118,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4133,31 +4129,31 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4183,63 +4179,63 @@
         <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Z20" t="s" s="2">
+      <c r="AA20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AA20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>209</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4262,13 +4258,13 @@
         <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4319,7 +4315,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4331,13 +4327,13 @@
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>81</v>
@@ -4348,10 +4344,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4362,7 +4358,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>81</v>
@@ -4374,13 +4370,13 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4431,13 +4427,13 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>81</v>
@@ -4449,7 +4445,7 @@
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>81</v>
@@ -4460,14 +4456,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4486,16 +4482,16 @@
         <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="N23" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4545,7 +4541,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4557,13 +4553,13 @@
         <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>81</v>
@@ -4574,14 +4570,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4594,25 +4590,25 @@
         <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="N24" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O24" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4661,7 +4657,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4673,13 +4669,13 @@
         <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>81</v>
@@ -4690,10 +4686,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4701,10 +4697,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>81</v>
@@ -4716,16 +4712,16 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4751,14 +4747,14 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
       </c>
@@ -4775,25 +4771,25 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>81</v>
@@ -4804,10 +4800,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4815,10 +4811,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>81</v>
@@ -4830,16 +4826,16 @@
         <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>222</v>
-      </c>
       <c r="N26" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4889,25 +4885,25 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>81</v>
@@ -4918,10 +4914,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4941,19 +4937,19 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4979,14 +4975,14 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>230</v>
-      </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5003,7 +4999,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5015,27 +5011,27 @@
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5046,28 +5042,28 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K28" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5093,63 +5089,63 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="Z28" t="s" s="2">
+      <c r="AA28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>240</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5160,7 +5156,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>81</v>
@@ -5172,16 +5168,16 @@
         <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>243</v>
-      </c>
       <c r="N29" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5207,95 +5203,95 @@
         <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="Z29" t="s" s="2">
+      <c r="AA29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AA29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>248</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K30" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5345,39 +5341,39 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>258</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5397,19 +5393,19 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5459,7 +5455,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5471,31 +5467,31 @@
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>266</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5514,16 +5510,16 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>271</v>
-      </c>
       <c r="N32" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5573,7 +5569,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5585,13 +5581,13 @@
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>81</v>
@@ -5602,10 +5598,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5625,16 +5621,16 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5685,7 +5681,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5697,27 +5693,27 @@
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>279</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5728,7 +5724,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
@@ -5740,13 +5736,13 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5797,13 +5793,13 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
@@ -5815,7 +5811,7 @@
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>81</v>
@@ -5826,14 +5822,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5852,16 +5848,16 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="N35" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5911,7 +5907,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5923,13 +5919,13 @@
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>81</v>
@@ -5940,14 +5936,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5960,25 +5956,25 @@
         <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="N36" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O36" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6027,7 +6023,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6039,13 +6035,13 @@
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>81</v>
@@ -6056,10 +6052,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6079,19 +6075,19 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6117,14 +6113,14 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6141,7 +6137,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6153,27 +6149,27 @@
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>291</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6184,7 +6180,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>81</v>
@@ -6196,13 +6192,13 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6253,39 +6249,39 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>296</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6296,25 +6292,25 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J39" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K39" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6365,39 +6361,39 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>304</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6417,19 +6413,19 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="N40" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6479,7 +6475,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6491,27 +6487,27 @@
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>310</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6522,7 +6518,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>81</v>
@@ -6534,16 +6530,16 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6593,39 +6589,39 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>318</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6636,7 +6632,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
@@ -6648,16 +6644,16 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6707,43 +6703,43 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>325</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6759,19 +6755,19 @@
         <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6797,14 +6793,14 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
       </c>
@@ -6821,7 +6817,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6833,31 +6829,31 @@
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>336</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6873,19 +6869,19 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="N44" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6935,7 +6931,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6947,27 +6943,27 @@
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>336</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6987,16 +6983,16 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7047,7 +7043,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7059,13 +7055,13 @@
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>81</v>
@@ -7076,10 +7072,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7090,7 +7086,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>81</v>
@@ -7102,13 +7098,13 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7159,13 +7155,13 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
@@ -7177,7 +7173,7 @@
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
@@ -7188,14 +7184,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7214,16 +7210,16 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="N47" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7273,7 +7269,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7285,13 +7281,13 @@
         <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>81</v>
@@ -7302,14 +7298,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7322,25 +7318,25 @@
         <v>81</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="N48" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O48" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7389,7 +7385,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7401,13 +7397,13 @@
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>81</v>
@@ -7418,42 +7414,42 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J49" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K49" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7503,39 +7499,39 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>356</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7546,7 +7542,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
@@ -7558,13 +7554,13 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7591,14 +7587,14 @@
         <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>361</v>
-      </c>
       <c r="AA50" t="s" s="2">
         <v>81</v>
       </c>
@@ -7615,25 +7611,25 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>81</v>
@@ -7644,10 +7640,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7658,7 +7654,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>81</v>
@@ -7670,13 +7666,13 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7727,25 +7723,25 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>81</v>
@@ -7756,10 +7752,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7782,16 +7778,16 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7841,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7853,13 +7849,13 @@
         <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>81</v>
@@ -7870,10 +7866,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7884,7 +7880,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
@@ -7896,16 +7892,16 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7955,25 +7951,25 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>81</v>
@@ -7984,10 +7980,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7998,7 +7994,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>81</v>
@@ -8010,13 +8006,13 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8067,13 +8063,13 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>81</v>
@@ -8085,7 +8081,7 @@
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>81</v>
@@ -8096,14 +8092,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8122,16 +8118,16 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="N55" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8181,7 +8177,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8193,13 +8189,13 @@
         <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
@@ -8210,14 +8206,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8230,25 +8226,25 @@
         <v>81</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M56" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="N56" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O56" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8297,7 +8293,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8309,13 +8305,13 @@
         <v>81</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>81</v>
@@ -8326,10 +8322,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8340,7 +8336,7 @@
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>81</v>
@@ -8352,13 +8348,13 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8409,39 +8405,39 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8452,7 +8448,7 @@
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>81</v>
@@ -8464,16 +8460,16 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8523,25 +8519,25 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>81</v>
@@ -8552,10 +8548,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8566,7 +8562,7 @@
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>81</v>
@@ -8578,16 +8574,16 @@
         <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8613,63 +8609,63 @@
         <v>81</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Z59" t="s" s="2">
+      <c r="AA59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AA59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>398</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8680,7 +8676,7 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>81</v>
@@ -8692,16 +8688,16 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M60" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="N60" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8727,63 +8723,63 @@
         <v>81</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="Z60" t="s" s="2">
+      <c r="AA60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>404</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8806,19 +8802,19 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -8843,14 +8839,14 @@
         <v>81</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>411</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>81</v>
       </c>
@@ -8867,7 +8863,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8879,27 +8875,27 @@
         <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>413</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8922,16 +8918,16 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>416</v>
-      </c>
       <c r="N62" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8957,14 +8953,14 @@
         <v>81</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y62" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="Z62" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>418</v>
-      </c>
       <c r="AA62" t="s" s="2">
         <v>81</v>
       </c>
@@ -8981,7 +8977,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -8993,27 +8989,27 @@
         <v>81</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>420</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9036,16 +9032,16 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M63" t="s" s="2">
-        <v>423</v>
-      </c>
       <c r="N63" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9071,14 +9067,14 @@
         <v>81</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y63" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Z63" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>425</v>
-      </c>
       <c r="AA63" t="s" s="2">
         <v>81</v>
       </c>
@@ -9095,7 +9091,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9107,27 +9103,27 @@
         <v>81</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>427</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9138,7 +9134,7 @@
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>81</v>
@@ -9150,16 +9146,16 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="M64" t="s" s="2">
-        <v>430</v>
-      </c>
       <c r="N64" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9209,39 +9205,39 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>432</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9252,7 +9248,7 @@
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>81</v>
@@ -9264,16 +9260,16 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>435</v>
-      </c>
       <c r="N65" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9299,63 +9295,63 @@
         <v>81</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Y65" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Z65" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="Z65" t="s" s="2">
+      <c r="AA65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="AA65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL65" t="s" s="2">
+      <c r="AM65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>439</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9378,16 +9374,16 @@
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9437,7 +9433,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9449,13 +9445,13 @@
         <v>81</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>81</v>
@@ -9466,10 +9462,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9480,7 +9476,7 @@
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>81</v>
@@ -9492,13 +9488,13 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9549,13 +9545,13 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>81</v>
@@ -9567,7 +9563,7 @@
         <v>81</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>81</v>
@@ -9578,14 +9574,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9604,16 +9600,16 @@
         <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="N68" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9663,7 +9659,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9675,13 +9671,13 @@
         <v>81</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>81</v>
@@ -9692,14 +9688,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9712,25 +9708,25 @@
         <v>81</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="N69" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O69" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>81</v>
@@ -9779,7 +9775,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -9791,13 +9787,13 @@
         <v>81</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>81</v>
@@ -9808,10 +9804,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9819,10 +9815,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>81</v>
@@ -9834,16 +9830,16 @@
         <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M70" t="s" s="2">
-        <v>451</v>
-      </c>
       <c r="N70" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9893,39 +9889,39 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AL70" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>454</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9936,7 +9932,7 @@
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>81</v>
@@ -9948,16 +9944,16 @@
         <v>81</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9983,49 +9979,49 @@
         <v>81</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y71" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="Z71" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="Z71" t="s" s="2">
+      <c r="AA71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>81</v>
@@ -10036,10 +10032,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10050,7 +10046,7 @@
         <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>81</v>
@@ -10062,16 +10058,16 @@
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10097,14 +10093,14 @@
         <v>81</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Y72" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="Z72" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>467</v>
-      </c>
       <c r="AA72" t="s" s="2">
         <v>81</v>
       </c>
@@ -10121,19 +10117,19 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>81</v>
@@ -10150,10 +10146,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10164,7 +10160,7 @@
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>81</v>
@@ -10176,16 +10172,16 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10235,25 +10231,25 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>81</v>
@@ -10264,10 +10260,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10278,7 +10274,7 @@
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>81</v>
@@ -10290,16 +10286,16 @@
         <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="M74" t="s" s="2">
-        <v>475</v>
-      </c>
       <c r="N74" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10349,39 +10345,39 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>477</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10392,7 +10388,7 @@
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>81</v>
@@ -10404,16 +10400,16 @@
         <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10463,25 +10459,25 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>81</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -1082,7 +1082,7 @@
 どれが主たる診断であったかを知る必要があるシステムでは、これらは標準のエクステンションであるprimaryDiagnosis（フラグではなくシーケンス値、1 = 主たる診断）でマークされる。</t>
   </si>
   <si>
-    <t>Reason why the encounter takes place.</t>
+    <t>受診歴が発生した理由コード Reason why the encounter takes place.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
@@ -6797,7 +6797,7 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="Y43" t="s" s="2">
         <v>331</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="486">
   <si>
     <t>Property</t>
   </si>
@@ -293,13 +293,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID</t>
+  </si>
+  <si>
+    <t>「リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。」</t>
+  </si>
+  <si>
+    <t>「リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。」</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -312,16 +312,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>「リソースに関するメタデータ」</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これはインフラストラクチャによって維持されるコンテンツです。 コンテンツの変更は、リソースのバージョン変更と常に関連しているわけではありません。</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -332,13 +332,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールセット</t>
+  </si>
+  <si>
+    <t>「リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。」</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することで、取引先の限られた集団にしか内容を理解させることができず、長期的にはデータの有用性が制限されます。しかしながら、現存するヘルスエコシステムは高度に分断化しており、一般的に計算可能な形式でデータを定義、収集、交換する準備が整っていません。できる限り、実装者および/または仕様ライターはこの要素の使用を避けるべきです。使用する場合、URLは、そのナラティブとともに他のプロファイル、値セットなどを含む実装ガイドを定義する参照となります。</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -351,19 +351,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+  </si>
+  <si>
+    <t>「リソースが書かれている基本言語。」</t>
+  </si>
+  <si>
+    <t>言語はインデックスとアクセシビリティをサポートするために提供されます（通常、テキスト読み上げなどのサービスは言語タグを使用します）。物語のHTML言語タグは、物語に適用されます。リソース上の言語タグは、リソース内のデータから生成される他のプレゼンテーションの言語を指定するために使用できます。すべてのコンテンツが基本言語である必要はありません。Resource.languageは自動的に物語に適用されたと想定してはいけません。言語が指定されている場合、HTMLのdiv要素にも指定する必要があります（xml：langとhtml lang属性の関係に関する情報はHTML5の規則を参照）。</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>「人間の言語。」(Ningen no gengo.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -383,13 +383,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>「人間の解釈のためのリソースのテキスト要約」</t>
+  </si>
+  <si>
+    <t>「リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。」</t>
+  </si>
+  <si>
+    <t>含まれるリソースには説明がありません。含まれないリソースには説明が必要です。場合によっては、リソースが少量のデータしか含まず、テキストだけで表現されることがあります（minOccurs = 1要素がすべて満たされている限り）。これは、情報が「テキストの塊」としてキャプチャされるレガシーシステムからのデータや、テキストが生またはナレーションされて符号化された情報が後で追加される場合に必要な場合があります。</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -409,13 +409,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+  </si>
+  <si>
+    <t>「これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。」</t>
+  </si>
+  <si>
+    <t>「コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。」</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -447,8 +447,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Encounter.extension:associatedEncounter</t>
@@ -468,6 +468,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Encounter.modifierExtension</t>
   </si>
   <si>
@@ -475,14 +479,13 @@
 user content</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>無視できない拡張機能 (Mushi dekinai kakuchou kinou)</t>
+  </si>
+  <si>
+    <t>「リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。」</t>
+  </si>
+  <si>
+    <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -534,7 +537,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>Current state of the encounter.</t>
+    <t>「出会いの現状。」(Deai no genjou.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
@@ -580,10 +583,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>エレメント相互参照のためのユニークID</t>
+  </si>
+  <si>
+    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -592,10 +595,10 @@
     <t>Encounter.statusHistory.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>実装によって定義される追加コンテンツ</t>
+  </si>
+  <si>
+    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -608,11 +611,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+    <t>「認識されなくても無視できない拡張機能」(Ninshiki sarenakutemo mushi dekinai kakuchou kinou)</t>
+  </si>
+  <si>
+    <t>「基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
+修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。」</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -668,7 +671,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>Classification of the encounter.</t>
+    <t>出会いの分類。 (Deai no bunrui.)</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
@@ -747,7 +750,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>The type of encounter.</t>
+    <t>出会いのタイプ。 (Deai no taipu.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
@@ -776,7 +779,7 @@
 すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
   </si>
   <si>
-    <t>Broad categorization of the service that is to be provided.</t>
+    <t>提供されるサービスの広範な分類。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/service-type</t>
@@ -795,7 +798,7 @@
 このEncounterの緊急性を示す。</t>
   </si>
   <si>
-    <t>Indicates the urgency of the encounter.</t>
+    <t>出会いの緊急性を示します。</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActPriority</t>
@@ -937,7 +940,7 @@
 参加者タイプは、個人がEncounterにどのように参加するかを示す。これには、開業医以外の参加者が含まれる。開業医の場合、これは、このEncounterのコンテキストでのアクションタイプを説明することである（例：入院医師、出席医師、翻訳者、コンサルティング医師）。これは、雇用、教育、ライセンスなどの条件から派生した機能的な役割である開業医の役割とは異なる。</t>
   </si>
   <si>
-    <t>Role of participant in encounter.</t>
+    <t>出会いにおける参加者の役割。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
@@ -1082,7 +1085,7 @@
 どれが主たる診断であったかを知る必要があるシステムでは、これらは標準のエクステンションであるprimaryDiagnosis（フラグではなくシーケンス値、1 = 主たる診断）でマークされる。</t>
   </si>
   <si>
-    <t>受診歴が発生した理由コード Reason why the encounter takes place.</t>
+    <t>出会いが起こる理由。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
@@ -1177,7 +1180,7 @@
 この診断名がある受診機会において持っている役割（例えば、入院、請求、退院...）。</t>
   </si>
   <si>
-    <t>The type of diagnosis this condition represents.</t>
+    <t>この状態が表す診断のタイプ。 (Kono jōtai ga arawasu shindan no taipu.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/diagnosis-role</t>
@@ -1299,7 +1302,7 @@
 すべての用語の使用がこの一般的なパターンに適合するわけではない。いくつかのケースでは、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係、および前後の調整を管理するための独自の構造を提供することが望ましい。</t>
   </si>
   <si>
-    <t>From where the patient was admitted.</t>
+    <t>患者が入院した場所はどこですか。 (Kanja ga nyūin shita basho wa doko desu ka?)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-admit-source</t>
@@ -1321,7 +1324,7 @@
 この入院が再入院であるかどうかと、わかっている場合はその理由。</t>
   </si>
   <si>
-    <t>The reason for re-admission of this hospitalization encounter.</t>
+    <t>この入院の再入院の理由。</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v2-0092</t>
@@ -1348,7 +1351,7 @@
 患者の食事制限および／または好み・嗜好を追跡するために使用される。滞在中の患者の栄養ニーズの完全な説明については、EncounterにリンクしているnutritionOrderリソースを使用する必要がある。</t>
   </si>
   <si>
-    <t>Medical, cultural or ethical food preferences to help with catering requirements.</t>
+    <t>「食品の好みを考慮して、医療、文化、倫理的観点から、提供要件に対応することができます。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-diet</t>
@@ -1370,7 +1373,7 @@
 特別待遇(VIP、役員)</t>
   </si>
   <si>
-    <t>Special courtesies.</t>
+    <t>特別なおもてなし。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy</t>
@@ -1392,7 +1395,7 @@
 特定の器具の提供など、今回の入院の出会いのために特別な要望があったもの</t>
   </si>
   <si>
-    <t>Special arrangements.</t>
+    <t>特別な手配。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements</t>
@@ -1430,7 +1433,7 @@
 退院後の場所の区分や種類。</t>
   </si>
   <si>
-    <t>Discharge Disposition.</t>
+    <t>退院時の配慮。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition</t>
@@ -1494,7 +1497,7 @@
     <t>Encounter.location.status</t>
   </si>
   <si>
-    <t>planned | active | reserved | completed</t>
+    <t>計画中 | アクティブな | 予約済みの | 完了しました。</t>
   </si>
   <si>
     <t>The status of the participants' presence at the specified location during the period specified. If the participant is no longer at the location, then the period will have an end date/time.
@@ -1505,7 +1508,7 @@
 患者がその場所で活動しなくなった場合、期間終了日が入力され、ステータスが完了した状態に変更されることがある</t>
   </si>
   <si>
-    <t>The status of the location.</t>
+    <t>場所の状態。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-location-status|4.0.1</t>
@@ -1530,7 +1533,7 @@
 階層には多くのレベルがあり、これは特定の使用シナリオに必要とされる特定のレベルのみをピックすることができる。</t>
   </si>
   <si>
-    <t>Physical form of the location.</t>
+    <t>場所の実体形態。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
@@ -1937,7 +1940,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.65625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.46484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="56.25390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -3079,7 +3082,7 @@
         <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>81</v>
@@ -3096,14 +3099,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3125,16 +3128,16 @@
         <v>133</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>81</v>
@@ -3183,7 +3186,7 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3212,10 +3215,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3238,13 +3241,13 @@
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3295,7 +3298,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3310,24 +3313,24 @@
         <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3353,13 +3356,13 @@
         <v>108</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3385,13 +3388,13 @@
         <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>81</v>
@@ -3409,7 +3412,7 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>88</v>
@@ -3424,24 +3427,24 @@
         <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3464,16 +3467,16 @@
         <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3523,7 +3526,7 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3541,7 +3544,7 @@
         <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>81</v>
@@ -3552,10 +3555,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3578,13 +3581,13 @@
         <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3635,7 +3638,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3653,7 +3656,7 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>81</v>
@@ -3664,14 +3667,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3693,13 +3696,13 @@
         <v>133</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3749,7 +3752,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3767,7 +3770,7 @@
         <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>81</v>
@@ -3778,14 +3781,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3807,16 +3810,16 @@
         <v>133</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>81</v>
@@ -3865,7 +3868,7 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3894,10 +3897,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3923,13 +3926,13 @@
         <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3955,13 +3958,13 @@
         <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>81</v>
@@ -3979,7 +3982,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>88</v>
@@ -3997,7 +4000,7 @@
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>81</v>
@@ -4008,10 +4011,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4034,16 +4037,16 @@
         <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4093,7 +4096,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>88</v>
@@ -4111,7 +4114,7 @@
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>81</v>
@@ -4122,10 +4125,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4148,16 +4151,16 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4183,13 +4186,13 @@
         <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>81</v>
@@ -4207,7 +4210,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>88</v>
@@ -4225,21 +4228,21 @@
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4262,13 +4265,13 @@
         <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4319,7 +4322,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4337,7 +4340,7 @@
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>81</v>
@@ -4348,10 +4351,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4374,13 +4377,13 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4431,7 +4434,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4449,7 +4452,7 @@
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>81</v>
@@ -4460,14 +4463,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4489,13 +4492,13 @@
         <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4545,7 +4548,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4563,7 +4566,7 @@
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>81</v>
@@ -4574,14 +4577,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4603,16 +4606,16 @@
         <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4661,7 +4664,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4690,10 +4693,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4716,16 +4719,16 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4751,13 +4754,13 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
@@ -4775,7 +4778,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>88</v>
@@ -4793,7 +4796,7 @@
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>81</v>
@@ -4804,10 +4807,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4830,16 +4833,16 @@
         <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4889,7 +4892,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>88</v>
@@ -4907,7 +4910,7 @@
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>81</v>
@@ -4918,10 +4921,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4944,16 +4947,16 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4979,13 +4982,13 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -5003,7 +5006,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5018,24 +5021,24 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5058,16 +5061,16 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5093,13 +5096,13 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
@@ -5117,7 +5120,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5132,24 +5135,24 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5172,16 +5175,16 @@
         <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5207,13 +5210,13 @@
         <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>81</v>
@@ -5231,7 +5234,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5249,25 +5252,25 @@
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5286,16 +5289,16 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5345,7 +5348,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5360,24 +5363,24 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5400,16 +5403,16 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5459,7 +5462,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5474,28 +5477,28 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5514,16 +5517,16 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5573,7 +5576,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5588,10 +5591,10 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>81</v>
@@ -5602,10 +5605,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5628,13 +5631,13 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5685,7 +5688,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5700,24 +5703,24 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5740,13 +5743,13 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5797,7 +5800,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5815,7 +5818,7 @@
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>81</v>
@@ -5826,14 +5829,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5855,13 +5858,13 @@
         <v>133</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5911,7 +5914,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5929,7 +5932,7 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>81</v>
@@ -5940,14 +5943,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5969,16 +5972,16 @@
         <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6027,7 +6030,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6056,10 +6059,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6082,16 +6085,16 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6117,13 +6120,13 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -6141,7 +6144,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6156,24 +6159,24 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6196,13 +6199,13 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6253,7 +6256,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6271,21 +6274,21 @@
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6308,13 +6311,13 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6365,7 +6368,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6380,24 +6383,24 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6420,16 +6423,16 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6479,7 +6482,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6494,24 +6497,24 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6534,16 +6537,16 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6593,7 +6596,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6608,24 +6611,24 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6648,16 +6651,16 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6707,7 +6710,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6722,28 +6725,28 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6762,16 +6765,16 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6797,13 +6800,13 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -6821,7 +6824,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6836,28 +6839,28 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6876,16 +6879,16 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6935,7 +6938,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6950,24 +6953,24 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6990,13 +6993,13 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7047,7 +7050,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7065,7 +7068,7 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>81</v>
@@ -7076,10 +7079,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7102,13 +7105,13 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7159,7 +7162,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7177,7 +7180,7 @@
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
@@ -7188,14 +7191,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7217,13 +7220,13 @@
         <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7273,7 +7276,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7291,7 +7294,7 @@
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>81</v>
@@ -7302,14 +7305,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7331,16 +7334,16 @@
         <v>133</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7389,7 +7392,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7418,14 +7421,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7444,16 +7447,16 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7503,7 +7506,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>88</v>
@@ -7518,24 +7521,24 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7558,13 +7561,13 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7594,10 +7597,10 @@
         <v>112</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>81</v>
@@ -7615,7 +7618,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7633,7 +7636,7 @@
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>81</v>
@@ -7644,10 +7647,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7670,13 +7673,13 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7727,7 +7730,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7745,7 +7748,7 @@
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>81</v>
@@ -7756,10 +7759,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7782,16 +7785,16 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7841,7 +7844,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7859,7 +7862,7 @@
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>81</v>
@@ -7870,10 +7873,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7896,16 +7899,16 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7955,7 +7958,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7973,7 +7976,7 @@
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>81</v>
@@ -7984,10 +7987,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8010,13 +8013,13 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8067,7 +8070,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8085,7 +8088,7 @@
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>81</v>
@@ -8096,14 +8099,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8125,13 +8128,13 @@
         <v>133</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8181,7 +8184,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8199,7 +8202,7 @@
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
@@ -8210,14 +8213,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8239,16 +8242,16 @@
         <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8297,7 +8300,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8326,10 +8329,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8352,13 +8355,13 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8409,7 +8412,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8427,21 +8430,21 @@
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8464,16 +8467,16 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8523,7 +8526,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8541,7 +8544,7 @@
         <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>81</v>
@@ -8552,10 +8555,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8578,16 +8581,16 @@
         <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8616,10 +8619,10 @@
         <v>112</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>81</v>
@@ -8637,7 +8640,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8655,21 +8658,21 @@
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8692,16 +8695,16 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8727,13 +8730,13 @@
         <v>81</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>81</v>
@@ -8751,7 +8754,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8769,21 +8772,21 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8806,19 +8809,19 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -8843,13 +8846,13 @@
         <v>81</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>81</v>
@@ -8867,7 +8870,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8885,21 +8888,21 @@
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8922,16 +8925,16 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8960,10 +8963,10 @@
         <v>112</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>81</v>
@@ -8981,7 +8984,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -8999,21 +9002,21 @@
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9036,16 +9039,16 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9074,10 +9077,10 @@
         <v>112</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>81</v>
@@ -9095,7 +9098,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9113,21 +9116,21 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9150,16 +9153,16 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9209,7 +9212,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9227,21 +9230,21 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9264,16 +9267,16 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9299,13 +9302,13 @@
         <v>81</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>81</v>
@@ -9323,7 +9326,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9341,21 +9344,21 @@
         <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9378,16 +9381,16 @@
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9437,7 +9440,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9455,7 +9458,7 @@
         <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>81</v>
@@ -9466,10 +9469,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9492,13 +9495,13 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9549,7 +9552,7 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9567,7 +9570,7 @@
         <v>81</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>81</v>
@@ -9578,14 +9581,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9607,13 +9610,13 @@
         <v>133</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9663,7 +9666,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9681,7 +9684,7 @@
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>81</v>
@@ -9692,14 +9695,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9721,16 +9724,16 @@
         <v>133</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>81</v>
@@ -9779,7 +9782,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -9808,10 +9811,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9834,16 +9837,16 @@
         <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9893,7 +9896,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>88</v>
@@ -9908,24 +9911,24 @@
         <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9951,13 +9954,13 @@
         <v>108</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9983,13 +9986,13 @@
         <v>81</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>81</v>
@@ -10007,7 +10010,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10025,7 +10028,7 @@
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>81</v>
@@ -10036,10 +10039,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10062,16 +10065,16 @@
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10097,13 +10100,13 @@
         <v>81</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>81</v>
@@ -10121,7 +10124,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10150,10 +10153,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10176,16 +10179,16 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10235,7 +10238,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10253,7 +10256,7 @@
         <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>81</v>
@@ -10264,10 +10267,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10290,16 +10293,16 @@
         <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10349,7 +10352,7 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10364,24 +10367,24 @@
         <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10404,16 +10407,16 @@
         <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10463,7 +10466,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10478,10 +10481,10 @@
         <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>81</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="447">
   <si>
     <t>Property</t>
   </si>
@@ -152,6 +152,10 @@
     <t>An interaction between a patient and healthcare provider(s) for the purpose of providing healthcare service(s) or assessing the health status of a patient.
 医療サービスの提供または患者の健康状態の評価を目的とした、患者と医療提供者との間の相互作用。Encounterと表現される。
 【JP Core仕様】外来受診、救急受診、入院、退院、対面診察、電話診察、など。</t>
+  </si>
+  <si>
+    <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
+dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:「もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。」 {contained.meta.security.empty()}dom-6:「資源は堅牢な管理のために物語を持つべきである。」 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1933,13 +1937,13 @@
         <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>41</v>
@@ -1950,10 +1954,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1964,7 +1968,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>41</v>
@@ -1973,19 +1977,19 @@
         <v>41</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2035,13 +2039,13 @@
         <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>41</v>
@@ -2064,10 +2068,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2078,7 +2082,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>41</v>
@@ -2087,16 +2091,16 @@
         <v>41</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2147,19 +2151,19 @@
         <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>41</v>
@@ -2176,10 +2180,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2190,28 +2194,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2261,19 +2265,19 @@
         <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>41</v>
@@ -2290,10 +2294,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2304,7 +2308,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>41</v>
@@ -2316,16 +2320,16 @@
         <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2351,13 +2355,13 @@
         <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>41</v>
@@ -2375,19 +2379,19 @@
         <v>41</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>41</v>
@@ -2404,21 +2408,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>41</v>
@@ -2430,16 +2434,16 @@
         <v>41</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2489,25 +2493,25 @@
         <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>41</v>
@@ -2518,14 +2522,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2544,16 +2548,16 @@
         <v>41</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2603,7 +2607,7 @@
         <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2621,7 +2625,7 @@
         <v>41</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>41</v>
@@ -2632,10 +2636,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2658,13 +2662,13 @@
         <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2703,17 +2707,17 @@
         <v>41</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2725,7 +2729,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>41</v>
@@ -2742,13 +2746,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>41</v>
@@ -2758,7 +2762,7 @@
         <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>41</v>
@@ -2770,13 +2774,13 @@
         <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2827,7 +2831,7 @@
         <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2836,10 +2840,10 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>41</v>
@@ -2856,14 +2860,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2876,25 +2880,25 @@
         <v>41</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>41</v>
@@ -2943,7 +2947,7 @@
         <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2955,13 +2959,13 @@
         <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>41</v>
@@ -2972,10 +2976,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2995,16 +2999,16 @@
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3055,7 +3059,7 @@
         <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -3067,27 +3071,27 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3095,31 +3099,31 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3145,13 +3149,13 @@
         <v>41</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>41</v>
@@ -3169,39 +3173,39 @@
         <v>41</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3224,16 +3228,16 @@
         <v>41</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3283,7 +3287,7 @@
         <v>41</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3295,13 +3299,13 @@
         <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>41</v>
@@ -3312,10 +3316,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3326,7 +3330,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>41</v>
@@ -3338,13 +3342,13 @@
         <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3395,13 +3399,13 @@
         <v>41</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>41</v>
@@ -3413,7 +3417,7 @@
         <v>41</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>41</v>
@@ -3424,14 +3428,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3450,16 +3454,16 @@
         <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3509,7 +3513,7 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3521,13 +3525,13 @@
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>41</v>
@@ -3538,14 +3542,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3558,25 +3562,25 @@
         <v>41</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>41</v>
@@ -3625,7 +3629,7 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3637,13 +3641,13 @@
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>41</v>
@@ -3654,10 +3658,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3665,10 +3669,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>41</v>
@@ -3680,16 +3684,16 @@
         <v>41</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3715,13 +3719,13 @@
         <v>41</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>41</v>
@@ -3739,25 +3743,25 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>41</v>
@@ -3768,10 +3772,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3779,10 +3783,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>41</v>
@@ -3794,16 +3798,16 @@
         <v>41</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3853,25 +3857,25 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>41</v>
@@ -3882,10 +3886,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3893,10 +3897,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>41</v>
@@ -3905,19 +3909,19 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3943,13 +3947,13 @@
         <v>41</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>41</v>
@@ -3967,39 +3971,39 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4022,13 +4026,13 @@
         <v>41</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4079,7 +4083,7 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4091,13 +4095,13 @@
         <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>41</v>
@@ -4108,10 +4112,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4122,7 +4126,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>41</v>
@@ -4134,13 +4138,13 @@
         <v>41</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4191,13 +4195,13 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>41</v>
@@ -4209,7 +4213,7 @@
         <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>41</v>
@@ -4220,14 +4224,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4246,16 +4250,16 @@
         <v>41</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4305,7 +4309,7 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4317,13 +4321,13 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>41</v>
@@ -4334,14 +4338,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4354,25 +4358,25 @@
         <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4421,7 +4425,7 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4433,13 +4437,13 @@
         <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>41</v>
@@ -4450,10 +4454,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4461,10 +4465,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>41</v>
@@ -4476,16 +4480,16 @@
         <v>41</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4511,13 +4515,13 @@
         <v>41</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>41</v>
@@ -4535,25 +4539,25 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>41</v>
@@ -4564,10 +4568,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4575,10 +4579,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>41</v>
@@ -4590,16 +4594,16 @@
         <v>41</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4649,25 +4653,25 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>41</v>
@@ -4678,10 +4682,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4701,19 +4705,19 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4739,13 +4743,13 @@
         <v>41</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>41</v>
@@ -4763,7 +4767,7 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4775,27 +4779,27 @@
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4806,7 +4810,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
@@ -4815,19 +4819,19 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4853,13 +4857,13 @@
         <v>41</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>41</v>
@@ -4877,39 +4881,39 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4920,7 +4924,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>41</v>
@@ -4932,16 +4936,16 @@
         <v>41</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4967,13 +4971,13 @@
         <v>41</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>41</v>
@@ -4991,50 +4995,50 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
@@ -5043,19 +5047,19 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5105,39 +5109,39 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5157,19 +5161,19 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5219,7 +5223,7 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5231,31 +5235,31 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5274,16 +5278,16 @@
         <v>41</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5333,7 +5337,7 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5345,13 +5349,13 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
@@ -5362,10 +5366,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5385,16 +5389,16 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5445,7 +5449,7 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5457,27 +5461,27 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5488,7 +5492,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
@@ -5500,13 +5504,13 @@
         <v>41</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5557,13 +5561,13 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>41</v>
@@ -5575,7 +5579,7 @@
         <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>41</v>
@@ -5586,14 +5590,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5612,16 +5616,16 @@
         <v>41</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5671,7 +5675,7 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5683,13 +5687,13 @@
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
@@ -5700,14 +5704,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5720,25 +5724,25 @@
         <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>41</v>
@@ -5787,7 +5791,7 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5799,13 +5803,13 @@
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>41</v>
@@ -5816,10 +5820,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5839,19 +5843,19 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5877,13 +5881,13 @@
         <v>41</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>41</v>
@@ -5901,7 +5905,7 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -5913,27 +5917,27 @@
         <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5944,7 +5948,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>41</v>
@@ -5956,13 +5960,13 @@
         <v>41</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6013,39 +6017,39 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6056,7 +6060,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>41</v>
@@ -6065,16 +6069,16 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6125,39 +6129,39 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6177,19 +6181,19 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6239,7 +6243,7 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -6251,27 +6255,27 @@
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6282,7 +6286,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>41</v>
@@ -6294,16 +6298,16 @@
         <v>41</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6353,39 +6357,39 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6396,7 +6400,7 @@
         <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>41</v>
@@ -6408,16 +6412,16 @@
         <v>41</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6467,43 +6471,43 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6519,19 +6523,19 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6557,13 +6561,13 @@
         <v>41</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>41</v>
@@ -6581,7 +6585,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6593,31 +6597,31 @@
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6633,19 +6637,19 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6695,7 +6699,7 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6707,27 +6711,27 @@
         <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6747,16 +6751,16 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6807,7 +6811,7 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -6819,13 +6823,13 @@
         <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>41</v>
@@ -6836,10 +6840,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6850,7 +6854,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>41</v>
@@ -6862,13 +6866,13 @@
         <v>41</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6919,13 +6923,13 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>41</v>
@@ -6937,7 +6941,7 @@
         <v>41</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>41</v>
@@ -6948,14 +6952,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6974,16 +6978,16 @@
         <v>41</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7033,7 +7037,7 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7045,13 +7049,13 @@
         <v>41</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>41</v>
@@ -7062,14 +7066,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7082,25 +7086,25 @@
         <v>41</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -7149,7 +7153,7 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -7161,13 +7165,13 @@
         <v>41</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>41</v>
@@ -7178,21 +7182,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>41</v>
@@ -7201,19 +7205,19 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7263,39 +7267,39 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7306,7 +7310,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>41</v>
@@ -7318,13 +7322,13 @@
         <v>41</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7351,13 +7355,13 @@
         <v>41</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>41</v>
@@ -7375,25 +7379,25 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>41</v>
@@ -7404,10 +7408,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7418,7 +7422,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>41</v>
@@ -7430,13 +7434,13 @@
         <v>41</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7487,25 +7491,25 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
@@ -7516,10 +7520,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7542,16 +7546,16 @@
         <v>41</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7601,7 +7605,7 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7613,13 +7617,13 @@
         <v>41</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
@@ -7630,10 +7634,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7644,7 +7648,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>41</v>
@@ -7656,16 +7660,16 @@
         <v>41</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7715,25 +7719,25 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>41</v>
@@ -7744,10 +7748,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7758,7 +7762,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>41</v>
@@ -7770,13 +7774,13 @@
         <v>41</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7827,13 +7831,13 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>41</v>
@@ -7845,7 +7849,7 @@
         <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>41</v>
@@ -7856,14 +7860,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7882,16 +7886,16 @@
         <v>41</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7941,7 +7945,7 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -7953,13 +7957,13 @@
         <v>41</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>41</v>
@@ -7970,14 +7974,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7990,25 +7994,25 @@
         <v>41</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>41</v>
@@ -8057,7 +8061,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8069,13 +8073,13 @@
         <v>41</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>41</v>
@@ -8086,10 +8090,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8100,7 +8104,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>41</v>
@@ -8112,13 +8116,13 @@
         <v>41</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8169,39 +8173,39 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8212,7 +8216,7 @@
         <v>39</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>41</v>
@@ -8224,16 +8228,16 @@
         <v>41</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8283,25 +8287,25 @@
         <v>41</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>41</v>
@@ -8312,10 +8316,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8326,7 +8330,7 @@
         <v>39</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>41</v>
@@ -8338,16 +8342,16 @@
         <v>41</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8373,13 +8377,13 @@
         <v>41</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>41</v>
@@ -8397,39 +8401,39 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8440,7 +8444,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>41</v>
@@ -8452,16 +8456,16 @@
         <v>41</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8487,13 +8491,13 @@
         <v>41</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>41</v>
@@ -8511,39 +8515,39 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8566,19 +8570,19 @@
         <v>41</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>41</v>
@@ -8603,13 +8607,13 @@
         <v>41</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>41</v>
@@ -8627,7 +8631,7 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -8639,27 +8643,27 @@
         <v>41</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8682,16 +8686,16 @@
         <v>41</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8717,13 +8721,13 @@
         <v>41</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>41</v>
@@ -8741,7 +8745,7 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -8753,27 +8757,27 @@
         <v>41</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8796,16 +8800,16 @@
         <v>41</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8831,13 +8835,13 @@
         <v>41</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>41</v>
@@ -8855,7 +8859,7 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -8867,27 +8871,27 @@
         <v>41</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8898,7 +8902,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>41</v>
@@ -8910,16 +8914,16 @@
         <v>41</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8969,39 +8973,39 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9012,7 +9016,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>41</v>
@@ -9024,16 +9028,16 @@
         <v>41</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9059,13 +9063,13 @@
         <v>41</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>41</v>
@@ -9083,39 +9087,39 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9138,16 +9142,16 @@
         <v>41</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9197,7 +9201,7 @@
         <v>41</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9209,13 +9213,13 @@
         <v>41</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>41</v>
@@ -9226,10 +9230,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9240,7 +9244,7 @@
         <v>39</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>41</v>
@@ -9252,13 +9256,13 @@
         <v>41</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9309,13 +9313,13 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>41</v>
@@ -9327,7 +9331,7 @@
         <v>41</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>41</v>
@@ -9338,14 +9342,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9364,16 +9368,16 @@
         <v>41</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9423,7 +9427,7 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -9435,13 +9439,13 @@
         <v>41</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>41</v>
@@ -9452,14 +9456,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9472,25 +9476,25 @@
         <v>41</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>41</v>
@@ -9539,7 +9543,7 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -9551,13 +9555,13 @@
         <v>41</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>41</v>
@@ -9568,10 +9572,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9579,10 +9583,10 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>41</v>
@@ -9594,16 +9598,16 @@
         <v>41</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9653,39 +9657,39 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9696,7 +9700,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>41</v>
@@ -9708,16 +9712,16 @@
         <v>41</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9743,13 +9747,13 @@
         <v>41</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>41</v>
@@ -9767,25 +9771,25 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>41</v>
@@ -9796,10 +9800,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9810,7 +9814,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>41</v>
@@ -9822,16 +9826,16 @@
         <v>41</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9857,13 +9861,13 @@
         <v>41</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>41</v>
@@ -9881,19 +9885,19 @@
         <v>41</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>41</v>
@@ -9910,10 +9914,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9924,7 +9928,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>41</v>
@@ -9936,16 +9940,16 @@
         <v>41</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9995,25 +9999,25 @@
         <v>41</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>41</v>
@@ -10024,10 +10028,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10038,7 +10042,7 @@
         <v>39</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>41</v>
@@ -10050,16 +10054,16 @@
         <v>41</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10109,39 +10113,39 @@
         <v>41</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10152,7 +10156,7 @@
         <v>39</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>41</v>
@@ -10164,16 +10168,16 @@
         <v>41</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10223,25 +10227,25 @@
         <v>41</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="438">
   <si>
     <t>Property</t>
   </si>
@@ -146,11 +146,10 @@
 </t>
   </si>
   <si>
-    <t>An interaction during which services are provided to the patient / 患者にサービスが提供されている間の相互作用</t>
-  </si>
-  <si>
-    <t>An interaction between a patient and healthcare provider(s) for the purpose of providing healthcare service(s) or assessing the health status of a patient.
-医療サービスの提供または患者の健康状態の評価を目的とした、患者と医療提供者との間の相互作用。Encounterと表現される。
+    <t>患者にサービスが提供されている間の相互作用</t>
+  </si>
+  <si>
+    <t>医療サービスの提供または患者の健康状態の評価を目的とした、患者と医療提供者との間の相互作用。Encounterと表現される。
 【JP Core仕様】外来受診、救急受診、入院、退院、対面診察、電話診察、など。</t>
   </si>
   <si>
@@ -385,11 +384,10 @@
 </t>
   </si>
   <si>
-    <t>Identifier(s) by which this encounter is known / このEncounterが知られている識別子（複数可）【詳細参照】</t>
-  </si>
-  <si>
-    <t>Identifier(s) by which this encounter is known.
-このEncounterが知られている識別子（複数可）。</t>
+    <t>このEncounterが知られている識別子（複数可）【詳細参照】</t>
+  </si>
+  <si>
+    <t>このEncounterが知られている識別子（複数可）。</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -414,14 +412,13 @@
 予定｜到着｜トリアージ｜進行中｜保留中｜終了｜キャンセル+.</t>
   </si>
   <si>
-    <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).
-内部のビジネス・ルールは、ステータス(およびクラス)間で発生する可能性のある適切な遷移を検出することに注意すること。</t>
+    <t>内部のビジネス・ルールは、ステータス(およびクラス)間で発生する可能性のある適切な遷移を検出することに注意すること。</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>「出会いの現状。」(Deai no genjou.)</t>
+    <t>「Encounter（診察、受診、入退院など）の現状。」(Deai no genjou.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
@@ -446,15 +443,13 @@
 </t>
   </si>
   <si>
-    <t>List of past encounter statuses / 過去のEncounterのステータス一覧【詳細参照】</t>
-  </si>
-  <si>
-    <t>The status history permits the encounter resource to contain the status history without needing to read through the historical versions of the resource, or even have the server store them.
-ステータス履歴(status History)は、リソースの歴史的なバージョンを読み込んだり、サーバに保存させたりすることなく、Encounterリソースがステータス履歴を含むことを可能にする。</t>
-  </si>
-  <si>
-    <t>The current status is always found in the current version of the resource, not the status history.
-現在のステータスは、ステータスの履歴ではなく、常にリソースの現在のバージョンにある。</t>
+    <t>過去のEncounterのステータス一覧【詳細参照】</t>
+  </si>
+  <si>
+    <t>ステータス履歴(status History)は、リソースの歴史的なバージョンを読み込んだり、サーバに保存させたりすることなく、Encounterリソースがステータス履歴を含むことを可能にする。</t>
+  </si>
+  <si>
+    <t>現在のステータスは、ステータスの履歴ではなく、常にリソースの現在のバージョンにある。</t>
   </si>
   <si>
     <t>n/a</t>
@@ -511,8 +506,7 @@
     <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled + / 予定｜到着｜トリアージ｜進行中｜保留中｜終了｜キャンセル+.</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-FHIR 文字列のサイズは 1MB を超えてはならないことに注意すること。</t>
+    <t>文字列のサイズは 1MB を超えてはならないことに注意すること。</t>
   </si>
   <si>
     <t>Encounter.statusHistory.period</t>
@@ -522,16 +516,13 @@
 </t>
   </si>
   <si>
-    <t>The time that the episode was in the specified status / そのエピソードが指定された状態になっていた時間</t>
-  </si>
-  <si>
-    <t>The time that the episode was in the specified status.
-そのエピソードが指定された状態になっていた時間。</t>
-  </si>
-  <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).
-これは期間ではない-これは時間の尺度（別のタイプ）であり、時間の固定値で発生する期間である。 期間は時間の範囲を指定する。 使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、または範囲から1つの値が適用されるか（たとえば、「これら2回の間に患者に与える」）を指定する。 期間が必要な場合は、タイプをInterval | Durationとして指定する。</t>
+    <t>そのエピソードが指定された状態になっていた時間</t>
+  </si>
+  <si>
+    <t>そのエピソードが指定された状態になっていた時間。</t>
+  </si>
+  <si>
+    <t>期間とは時間の範囲で指定される。範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、または範囲から1つの値が適用されるか（たとえば、「これら2回の間に患者に与える」）を指定する。 期間が必要な場合は、タイプをInterval | Durationとして指定する。</t>
   </si>
   <si>
     <t>Encounter.class</t>
@@ -541,21 +532,19 @@
 </t>
   </si>
   <si>
-    <t>Classification of patient encounter / 患者とのEncounterの分類【詳細参照】</t>
-  </si>
-  <si>
-    <t>Concepts representing classification of patient encounter such as ambulatory (outpatient), inpatient, emergency, home health or others due to local variations.
-外来（外来）、入院、救急、在宅医療、その他の地域差による患者Encounterの分類を表す概念。</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.
-コードは列挙やコードリストの中で非常にカジュアルに定義されることもあれば、SNOMED CTのような非常にフォーマルな定義まである。 - 詳細はHL7 v3コア・プリンシプルを参照すること。</t>
+    <t>患者とのEncounterの分類【詳細参照】</t>
+  </si>
+  <si>
+    <t>外来（外来）、入院、救急、在宅医療、その他の地域差による患者Encounterの分類を表す概念。</t>
+  </si>
+  <si>
+    <t>コードは列挙やコードリストの中で非常にカジュアルに定義されることもあれば、SNOMED CTのような非常にフォーマルな定義まである。 - 詳細はHL7 v3コア・プリンシプルを参照すること。</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>出会いの分類。 (Deai no bunrui.)</t>
+    <t>Encounter（診察、受診、入退院など）の分類。 (Deai no bunrui.)</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
@@ -573,11 +562,10 @@
     <t>Encounter.classHistory</t>
   </si>
   <si>
-    <t>List of past encounter classes / 過去のEncounter classのリスト【詳細参照】</t>
-  </si>
-  <si>
-    <t>The class history permits the tracking of the encounters transitions without needing to go  through the resource history.  This would be used for a case where an admission starts of as an emergency encounter, then transitions into an inpatient scenario. Doing this and not restarting a new encounter ensures that any lab/diagnostic results can more easily follow the patient and not require re-processing and not get lost or cancelled during a kind of discharge from emergency to inpatient.
-クラスの履歴は、リソースの履歴を経由することなく、Encounterの遷移を追跡することを可能にする。これは、入院患者が緊急時にEncounterした後、入院患者のシナリオに移行する場合に使用される。このようにして、新しいEncounterを再開しないようにすることで、検査/診断結果がより簡単に患者を追跡することができ、再処理を必要とせず、救急から入院への退院の際に紛失したりキャンセルされたりすることがないことを保証する。</t>
+    <t>過去のEncounter classのリスト【詳細参照】</t>
+  </si>
+  <si>
+    <t>クラスの履歴は、リソースの履歴を経由することなく、Encounterの遷移を追跡することを可能にする。これは、入院患者が緊急時にEncounterした後、入院患者のシナリオに移行する場合に使用される。このようにして、新しいEncounterを再開しないようにすることで、検査/診断結果がより簡単に患者を追跡することができ、再処理を必要とせず、救急から入院への退院の際に紛失したりキャンセルされたりすることがないことを保証する。</t>
   </si>
   <si>
     <t>Encounter.classHistory.id</t>
@@ -599,18 +587,16 @@
 入院｜外来｜外来｜救急＋。</t>
   </si>
   <si>
-    <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.
-コードは列挙やコードリストの中で非常にカジュアルに定義されることもあれば、SNOMED CTのような非常にフォーマルな定義まである- 詳細はHL7 v3コア・プリンシプルを参照すること。</t>
+    <t>コードは列挙やコードリストの中で非常にカジュアルに定義されることもあれば、SNOMED CTのような非常にフォーマルな定義まである- 詳細はHL7 v3コア・プリンシプルを参照すること。</t>
   </si>
   <si>
     <t>Encounter.classHistory.period</t>
   </si>
   <si>
-    <t>The time that the episode was in the specified class / 指定されたクラスにエピソードがあった時間</t>
-  </si>
-  <si>
-    <t>The time that the episode was in the specified class.
-指定されたクラスにエピソードがあった時間。</t>
+    <t>指定されたクラスにエピソードがあった時間</t>
+  </si>
+  <si>
+    <t>指定されたクラスにエピソードがあった時間。</t>
   </si>
   <si>
     <t>Encounter.type</t>
@@ -620,21 +606,19 @@
 </t>
   </si>
   <si>
-    <t>Specific type of encounter / Encounterの具体的なタイプ【詳細参照】</t>
-  </si>
-  <si>
-    <t>Specific type of encounter (e.g. e-mail consultation, surgical day-care, skilled nursing, rehabilitation).
-具体的なEncounterの種類（メール相談、外科デイケア、熟練看護、リハビリテーションなど）</t>
-  </si>
-  <si>
-    <t>Since there are many ways to further classify encounters, this element is ..*.
-Encounterをさらに分類する方法はいろいろあるので、この要素は...*である。</t>
+    <t>特定の種類のEncounter（診察、受診、入退院など） (tokutei no shurui no deai)</t>
+  </si>
+  <si>
+    <t>「特定のEncounter（診察、受診、入退院など）の種類（例：メール相談、手術日帰り、スキルド・ナーシング、リハビリテーション）」</t>
+  </si>
+  <si>
+    <t>「Encounter（診察、受診、入退院など）をさらに分類する方法が多数存在するため、この要素は0から複数の値をとる。」</t>
   </si>
   <si>
     <t>example</t>
   </si>
   <si>
-    <t>出会いのタイプ。 (Deai no taipu.)</t>
+    <t>Encounter（診察、受診、入退院など）のタイプ。 (Deai no taipu.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
@@ -652,15 +636,10 @@
     <t>Encounter.serviceType</t>
   </si>
   <si>
-    <t>Specific type of service / 具体的なサービスの種類【詳細参照】</t>
-  </si>
-  <si>
-    <t>Broad categorization of the service that is to be provided (e.g. cardiology).
-提供されるサービスの大まかな分類（心臓病など）。</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
+    <t>"特定のサービスの種類" (tokutei no saabisu no shurui)</t>
+  </si>
+  <si>
+    <t>提供されるサービスの広範な分類（例：心臓病学）</t>
   </si>
   <si>
     <t>提供されるサービスの広範な分類。</t>
@@ -675,14 +654,10 @@
     <t>Encounter.priority</t>
   </si>
   <si>
-    <t>Indicates the urgency of the encounter / このEncounterの緊急性を示す【詳細参照】</t>
-  </si>
-  <si>
-    <t>Indicates the urgency of the encounter.
-このEncounterの緊急性を示す。</t>
-  </si>
-  <si>
-    <t>出会いの緊急性を示します。</t>
+    <t>「Encounter（診察、受診、入退院など）の緊急性を示す」</t>
+  </si>
+  <si>
+    <t>Encounter（診察、受診、入退院など）の緊急性を示します。</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActPriority</t>
@@ -708,15 +683,13 @@
 </t>
   </si>
   <si>
-    <t>The patient or group present at the encounter / このEncounterに立ち会う患者またはグループ【詳細参照】</t>
-  </si>
-  <si>
-    <t>The patient or group present at the encounter.
-このEncounterに立ち会う患者またはグループ。</t>
-  </si>
-  <si>
-    <t>While the encounter is always about the patient, the patient might not actually be known in all contexts of use, and there may be a group of patients that could be anonymous (such as in a group therapy for Alcoholics Anonymous - where the recording of the encounter could be used for billing on the number of people/staff and not important to the context of the specific patients) or alternately in veterinary care a herd of sheep receiving treatment (where the animals are not individually tracked).
-このEncounterは常に患者に関するものであるが、患者は実際にはすべての使用状況で知られているわけではなく、匿名である可能性のある患者のグループが存在する可能性がある。（匿名のアルコール依存症の集団療法など-遭遇は、人数/スタッフの請求に使用でき、特定の患者の状況には重要ではない）</t>
+    <t>対面時に出席している患者またはグループ</t>
+  </si>
+  <si>
+    <t>"診察時に存在する患者またはグループ。" (Shinsatsu ji ni sonzai suru kanja mata wa gurūpu.)</t>
+  </si>
+  <si>
+    <t>エンカウンターは常に患者に関するものですが、すべての使用状況で患者が実際に知られていない場合があり、匿名である可能性があります（例えばアルコール依存症のグループセラピーの場合- エンカウンターの記録が人数/スタッフの請求に使用され、特定の患者の文脈に重要ではない場合、または獣医治療では、個々に追跡されていない群れの羊が治療を受ける場合があります）。</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -738,15 +711,10 @@
 </t>
   </si>
   <si>
-    <t>Episode(s) of care that this encounter should be recorded against / このEncounterが記録されるべきケアのエピソード【詳細参照】</t>
-  </si>
-  <si>
-    <t>Where a specific encounter should be classified as a part of a specific episode(s) of care this field should be used. This association can facilitate grouping of related encounters together for a specific purpose, such as government reporting, issue tracking, association via a common problem.  The association is recorded on the encounter as these are typically created after the episode of care and grouped on entry rather than editing the episode of care to append another encounter to it (the episode of care could span years).
-特定のEncounterをケアの特定のエピソードの一部として分類する必要がある場合は、このフィールドを使用する必要がある。この関連付けにより、政府の報告、問題追跡、一般的な問題を介した関連付けなど、特定の目的のために関連するEncounterをグループ化することが容易になる。これらは通常、ケアのエピソードの後に​​作成され、ケアのエピソードを編集して別のEncounterを追加するのではなく、エントリ時にグループ化されるため、関連付けはEncounterに記録される（ケアのエピソードは数年にわたる場合がある）。</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
+    <t>「この遭遇が記録されるべきケアのエピソード」</t>
+  </si>
+  <si>
+    <t>「特定のエピソードの一部として特定のエンカウンターを分類する必要がある場合、このフィールドを使用する必要があります。この関連は、政府報告、問題追跡、共通の課題に関連するエンカウンターを特定の目的のためにグループ化するのに役立ちます。これらの関連は、通常、エピソードの後に作成され、新しいエンカウンターを追加するためにエピソードを編集するのではなく、入力時にグループ化されます（エピソードは数年にわたって広がる可能性があります）。」</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -769,11 +737,10 @@
 </t>
   </si>
   <si>
-    <t>The ServiceRequest that initiated this encounter / このEncounterを開始したServiceRequest【詳細参照】</t>
-  </si>
-  <si>
-    <t>The request this encounter satisfies (e.g. incoming referral or procedure request).
-このEncounterが満たすリクエスト（例：入ってくる紹介または手続きリクエスト）。</t>
+    <t>このEncounter（診察、受診、入退院など）を開始したサービスリクエスト</t>
+  </si>
+  <si>
+    <t>このEncounter（診察、受診、入退院など）が満たす要請（例：紹介依頼や手続き要請）</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -785,11 +752,10 @@
     <t>Encounter.participant</t>
   </si>
   <si>
-    <t>List of participants involved in the encounter / このEncounterに関わった参加者一覧【詳細参照】</t>
-  </si>
-  <si>
-    <t>The list of people responsible for providing the service.
-サービスを提供する責任がある人々のリスト。</t>
+    <t>「遭遇に関わった参加者のリスト」 (Souguu ni kakawatta sankasha no risuto)</t>
+  </si>
+  <si>
+    <t>「サービスを提供する責任を持つ人々のリスト」</t>
   </si>
   <si>
     <t>Event.performer</t>
@@ -813,18 +779,13 @@
     <t>Encounter.participant.type</t>
   </si>
   <si>
-    <t>Role of participant in encounter / このEncounterにおける参加者の役割</t>
-  </si>
-  <si>
-    <t>Role of participant in encounter.
-このEncounterにおける参加者の役割。</t>
-  </si>
-  <si>
-    <t>The participant type indicates how an individual participates in an encounter. It includes non-practitioner participants, and for practitioners this is to describe the action type in the context of this encounter (e.g. Admitting Dr, Attending Dr, Translator, Consulting Dr). This is different to the practitioner roles which are functional roles, derived from terms of employment, education, licensing, etc.
-参加者タイプは、個人がEncounterにどのように参加するかを示す。これには、開業医以外の参加者が含まれる。開業医の場合、これは、このEncounterのコンテキストでのアクションタイプを説明することである（例：入院医師、出席医師、翻訳者、コンサルティング医師）。これは、雇用、教育、ライセンスなどの条件から派生した機能的な役割である開業医の役割とは異なる。</t>
-  </si>
-  <si>
-    <t>出会いにおける参加者の役割。</t>
+    <t>「Encounter（診察、受診、入退院など）における参加者の役割」</t>
+  </si>
+  <si>
+    <t>Encounter（診察、受診、入退院など）における参加者の役割。</t>
+  </si>
+  <si>
+    <t>参加者タイプは、個人がどのようにエンカウントに参加するかを示します。それには、非開業者の参加者が含まれ、開業者にとってはこのエンカウントの文脈でアクションタイプを説明することが含まれます（例：入院医師、診療医師、翻訳者、相談医師）。これは、雇用、教育、免許などの用語から派生した機能的な役割である開業者の役割とは異なります。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
@@ -842,11 +803,10 @@
     <t>Encounter.participant.period</t>
   </si>
   <si>
-    <t>Period of time during the encounter that the participant participated / この参加者が参加したEncounterの中での期間</t>
-  </si>
-  <si>
-    <t>The period of time that the specified participant participated in the encounter. These can overlap or be sub-sets of the overall encounter's period.
-指定された参加者がEncounterに参加した期間。これらは重複することも、Encounter全体の期間のサブセットになることもある。</t>
+    <t>参加者が参加したエンカウンターの期間</t>
+  </si>
+  <si>
+    <t>指定された参加者が出席した期間。これらは重複することがあり、全体的なエンカウント期間のサブセットになることもあります。</t>
   </si>
   <si>
     <t>.time</t>
@@ -862,11 +822,10 @@
 </t>
   </si>
   <si>
-    <t>Persons involved in the encounter other than the patient / 患者以外のこのEncounterに関わった人</t>
-  </si>
-  <si>
-    <t>Persons involved in the encounter other than the patient.
-患者以外のこのEncounterに関わった人。</t>
+    <t>「患者以外に関与する人」</t>
+  </si>
+  <si>
+    <t>「患者以外にEncounter（診察、受診、入退院など）に関わった人々。」(Kanja igai ni deai ni kakawatta hitobito.)</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -888,11 +847,10 @@
 </t>
   </si>
   <si>
-    <t>The appointment that scheduled this encounter / このEncounterをスケジュールした予定【詳細参照】</t>
-  </si>
-  <si>
-    <t>The appointment that scheduled this encounter.
-このEncounterをスケジュールした予定。</t>
+    <t>「このEncounter（診察、受診、入退院など）を予定した予約」(Kono deai o yotei shita yoyaku)</t>
+  </si>
+  <si>
+    <t>「このEncounter（診察、受診、入退院など）を予定した約束。」</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=FLFS].target[classCode=ENC, moodCode=APT]</t>
@@ -904,15 +862,13 @@
     <t>Encounter.period</t>
   </si>
   <si>
-    <t>The start and end time of the encounter / このEncounterの開始時間と終了時間【詳細参照】</t>
-  </si>
-  <si>
-    <t>The start and end time of the encounter.
-このEncounterの開始時間と終了時間。</t>
-  </si>
-  <si>
-    <t>If not (yet) known, the end of the Period may be omitted.
-（まだ）わからない場合は、期間の終了を省略できる。</t>
+    <t>Encounter（診察、受診、入退院など）の始まりと終わりの時間</t>
+  </si>
+  <si>
+    <t>Encounter（診察、受診、入退院など）の開始時刻と終了時刻。</t>
+  </si>
+  <si>
+    <t>「もし、まだ知られていなければ、期間の終わりは省略できます。」</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -934,15 +890,13 @@
 </t>
   </si>
   <si>
-    <t>Quantity of time the encounter lasted (less time absent) / Encounterが続いた時間の量（欠席時間が少ない）【詳細参照】</t>
-  </si>
-  <si>
-    <t>Quantity of time the encounter lasted. This excludes the time during leaves of absence.
-このEncounterが続いた時間。これは休職中の時間を除外する。</t>
-  </si>
-  <si>
-    <t>May differ from the time the Encounter.period lasted because of leave of absence.
-休職のため、Encounter.periodが続いた時間とは異なる場合がある。</t>
+    <t>Encounter（診察、受診、入退院など）が続いた時間（不在時間を差し引いた時間）</t>
+  </si>
+  <si>
+    <t>接触が続いた時間の量です。休暇中の時間は除かれます。</t>
+  </si>
+  <si>
+    <t>「休暇により、エンカウンター期間の時間が異なる場合があります。」</t>
   </si>
   <si>
     <t>.lengthOfStayQuantity</t>
@@ -958,18 +912,16 @@
 Admission diagnosis</t>
   </si>
   <si>
-    <t>Coded reason the encounter takes place / Encounterの発生をコード化された理由の情報【詳細参照】</t>
-  </si>
-  <si>
-    <t>Reason the encounter takes place, expressed as a code. For admissions, this can be used for a coded admission diagnosis.
-受診理由をコードで表現したもの。入院の場合はコード化された入院診断名に使用することができる。</t>
-  </si>
-  <si>
-    <t>For systems that need to know which was the primary diagnosis, these will be marked with the standard extension primaryDiagnosis (which is a sequence value rather than a flag, 1 = primary diagnosis).
-どれが主たる診断であったかを知る必要があるシステムでは、これらは標準のエクステンションであるprimaryDiagnosis（フラグではなくシーケンス値、1 = 主たる診断）でマークされる。</t>
-  </si>
-  <si>
-    <t>出会いが起こる理由。</t>
+    <t>「エンカウントが生じる理由がコード化されている」</t>
+  </si>
+  <si>
+    <t>Encounter（診察、受診、入退院など）が起こる理由をコードとして表現します。入院に関しては、コード化された入院診断に使用できます。</t>
+  </si>
+  <si>
+    <t>主要な診断を知る必要があるシステムには、標準拡張子primaryDiagnosis（フラグではなく、シーケンス値である1 = 主要な診断）でマークされます。</t>
+  </si>
+  <si>
+    <t>Encounter（診察、受診、入退院など）が起こる理由。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
@@ -994,21 +946,16 @@
 </t>
   </si>
   <si>
-    <t>Reason the encounter takes place (reference)　Encounterがあった理由【詳細参照】</t>
-  </si>
-  <si>
-    <t>Reason the encounter takes place, expressed as a code. For admissions, this can be used for a coded admission diagnosis.
-コードとして表現されたEncounterが起こった理由。入院の場合、これはコード化されたコード化された入院時診断に使用できる。</t>
+    <t>Encounter（診察、受診、入退院など）が生じた理由（参照）(Deai ga shoujita riyuu (sanshou))</t>
   </si>
   <si>
     <t>Encounter.diagnosis</t>
   </si>
   <si>
-    <t>The list of diagnosis relevant to this encounter / このEncounterに関連する診断名のリスト【詳細参照】</t>
-  </si>
-  <si>
-    <t>The list of diagnosis relevant to this encounter.
-このEncounterに関連する診断名のリスト</t>
+    <t>この診察に関連する診断のリスト</t>
+  </si>
+  <si>
+    <t>「この対面に関連する診断リスト。」</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=RSON]</t>
@@ -1034,15 +981,10 @@
 </t>
   </si>
   <si>
-    <t>The diagnosis or procedure relevant to the encounter / Encounterに関連する診断または処置</t>
-  </si>
-  <si>
-    <t>Reason the encounter takes place, as specified using information from another resource. For admissions, this is the admission diagnosis. The indication will typically be a Condition (with other resources referenced in the evidence.detail), or a Procedure.
-受診理由（他のリソースからの情報を使用して指定されたもの）。入院の場合、これは入院診断名である。表現方法は通常、状態（evidence.detailで参照されている他のリソースを使用）、または処置である。</t>
-  </si>
-  <si>
-    <t>For systems that need to know which was the primary diagnosis, these will be marked with the standard extension primaryDiagnosis (which is a sequence value rather than a flag, 1 = primary diagnosis).
-どちらが一次診断であったかを知る必要があるシステムでは、これらは標準のエクステンションであるprimaryDiagnosis（フラグではなくシーケンス値、1 = 一次診断）でマークされる。</t>
+    <t>「エンカウンターに関連する診断または処置」</t>
+  </si>
+  <si>
+    <t>「エンカウンターが発生する理由は、他のリソースからの情報を使用して指定されます。入院の場合、これは入院診断です。指標は通常、状態（evidence.detailで参照される他のリソースで）またはプロシジャー（処置等）です。」</t>
   </si>
   <si>
     <t>Event.reasonReference</t>
@@ -1057,11 +999,10 @@
     <t>Encounter.diagnosis.use</t>
   </si>
   <si>
-    <t>Role that this diagnosis has within the encounter (e.g. admission, billing, discharge …) / この診断名がある受診機会において持っている役割（例えば、入院、請求、退院...）</t>
-  </si>
-  <si>
-    <t>Role that this diagnosis has within the encounter (e.g. admission, billing, discharge …).
-この診断名がある受診機会において持っている役割（例えば、入院、請求、退院...）。</t>
+    <t>この診断に対する役割（入院、請求、退院など）</t>
+  </si>
+  <si>
+    <t>この診断がEncounter（診察、受診、入退院など）の中で果たす役割（入院、請求、退院など）</t>
   </si>
   <si>
     <t>この状態が表す診断のタイプ。 (Kono jōtai ga arawasu shindan no taipu.)</t>
@@ -1077,11 +1018,10 @@
 </t>
   </si>
   <si>
-    <t>Ranking of the diagnosis (for each role type) / 診断名の順位（役割別）</t>
-  </si>
-  <si>
-    <t>Ranking of the diagnosis (for each role type).
-診断名の順位（役割別）</t>
+    <t>役割ごとの診断ランキング</t>
+  </si>
+  <si>
+    <t>「各役割タイプの診断ランキング」</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=RSON].priority</t>
@@ -1094,15 +1034,13 @@
 </t>
   </si>
   <si>
-    <t>The set of accounts that may be used for billing for this Encounter / あるEncounterの請求に使用される会計セット【詳細参照】</t>
-  </si>
-  <si>
-    <t>The set of accounts that may be used for billing for this Encounter.
-あるEncounterの請求に使用される会計セット。</t>
-  </si>
-  <si>
-    <t>The billing system may choose to allocate billable items associated with the Encounter to different referenced Accounts based on internal business rules.
-請求システムは、内部ルールに基づいて、ある受診機会に関連付けられた請求可能な項目を異なる参照先の会計に割り当てることができる。</t>
+    <t>このエンカウンターの請求に使用できるアカウントのセット</t>
+  </si>
+  <si>
+    <t>このエンカウンターの請求に使用できるアカウントのセット。</t>
+  </si>
+  <si>
+    <t>請求システムは内部のビジネスルールに基づいて、Encounter（診察、受診、入退院など）に関連する請求可能なアイテムを複数の参照されたアカウントに割り当てることができます。</t>
   </si>
   <si>
     <t>.pertains.A_Account</t>
@@ -1111,18 +1049,14 @@
     <t>Encounter.hospitalization</t>
   </si>
   <si>
-    <t>Details about the admission to a healthcare service/医療機関への入院に関する詳細【詳細参照】</t>
-  </si>
-  <si>
-    <t>Details about the admission to a healthcare service.
-医療機関への入院に関する詳細</t>
-  </si>
-  <si>
-    <t>An Encounter may cover more than just the inpatient stay. Contexts such as outpatients, community clinics, and aged care facilities are also included.--The duration recorded in the period of this encounter covers the entire scope of this hospitalization record.
-Encounterは、入院患者の滞在の記録だけではない。外来患者、地域の診療所、高齢者施設などのコンテクストも含まれる。
-このEncounterの期間に記録された時間区間は、この入院記録の全範囲をカバーしている。</t>
+    <t>「医療サービスの入院に関する詳細」</t>
+  </si>
+  <si>
+    <t>「医療サービスへの入院に関する詳細。」</t>
+  </si>
+  <si>
+    <t>「エンカウンター」は入院期間だけでなく、外来診療、地域クリニック、高齢者施設などの文脈も含まれる場合があります。+この「エンカウンター」の期間に記録される期間は、この入院記録の全範囲をカバーしています。</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=ENC, moodCode=EVN]</t>
@@ -1140,11 +1074,10 @@
     <t>Encounter.hospitalization.preAdmissionIdentifier</t>
   </si>
   <si>
-    <t>Pre-admission identifier/入院前識別子</t>
-  </si>
-  <si>
-    <t>Pre-admission identifier.
-入院前識別子</t>
+    <t>事前入院識別子 (Jizen nyugaku shikibetsushi)</t>
+  </si>
+  <si>
+    <t>「入院前の識別子」(Nyūgaku mae no shikibetsu-shi)</t>
   </si>
   <si>
     <t>PV1-5</t>
@@ -1157,15 +1090,10 @@
 </t>
   </si>
   <si>
-    <t>The location/organization from which the patient came before admission/患者が入院する前に来院した場所/組織</t>
-  </si>
-  <si>
-    <t>The location/organization from which the patient came before admission.
-患者が入院する前に来院した場所/組織</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は実際のFHIRリソースへの参照でなければならず、解決可能でなければならない。解決は URL からの検索、またはリソースタイプによって、絶対参照を正規の URL として扱い、ローカルのレジストリ/リポジトリで検索することで行うことができる。</t>
+    <t>「入院前に患者がいた場所／組織」(nyūin zen ni kanja ga ita basho / soshiki)</t>
+  </si>
+  <si>
+    <t>「患者が入院する前に、どこの場所/組織から来たか。」</t>
   </si>
   <si>
     <t>.participation[typeCode=ORG].role</t>
@@ -1174,16 +1102,10 @@
     <t>Encounter.hospitalization.admitSource</t>
   </si>
   <si>
-    <t>From where patient was admitted (physician referral, transfer)/患者がどこから入院したか（医師の紹介、転院）</t>
-  </si>
-  <si>
-    <t>From where patient was admitted (physician referral, transfer).
-患者がどこから入院したか（医師の紹介、転院）
-例：他の病院からの転院、かかりつけ医からの紹介、この病院で産まれた、など</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべての用語の使用がこの一般的なパターンに適合するわけではない。いくつかのケースでは、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係、および前後の調整を管理するための独自の構造を提供することが望ましい。</t>
+    <t>「患者が入院した場所（医師の紹介、転院）」</t>
+  </si>
+  <si>
+    <t>「患者がどこから入院したのか（医師の紹介、転院）」</t>
   </si>
   <si>
     <t>患者が入院した場所はどこですか。 (Kanja ga nyūin shita basho wa doko desu ka?)</t>
@@ -1201,11 +1123,10 @@
     <t>Encounter.hospitalization.reAdmission</t>
   </si>
   <si>
-    <t>The type of hospital re-admission that has occurred (if any). If the value is absent, then this is not identified as a readmission / 発生した病院の再入院のタイプ（もしあれば）、値がない場合これは再入院として識別されない</t>
-  </si>
-  <si>
-    <t>Whether this hospitalization is a readmission and why if known.
-この入院が再入院であるかどうかと、わかっている場合はその理由。</t>
+    <t>発生した再入院のタイプ（あれば）。値がない場合は、再入院として識別されていないことを意味します。</t>
+  </si>
+  <si>
+    <t>「この入院が再入院かどうか、そしてその理由が分かっている場合はなぜか。」</t>
   </si>
   <si>
     <t>この入院の再入院の理由。</t>
@@ -1220,19 +1141,16 @@
     <t>Encounter.hospitalization.dietPreference</t>
   </si>
   <si>
-    <t>Diet preferences reported by the patient / 患者から報告された食事の好み</t>
-  </si>
-  <si>
-    <t>Diet preferences reported by the patient.
-患者から報告された食事の好み</t>
-  </si>
-  <si>
-    <t>For example, a patient may request both a dairy-free and nut-free diet preference (not mutually exclusive).
-例えば、患者は、乳製品を含まない食事とナッツ類を含まない食事の両方を希望することができる（相互に排他的ではない）。</t>
-  </si>
-  <si>
-    <t>Used to track patient's diet restrictions and/or preference. For a complete description of the nutrition needs of a patient during their stay, one should use the nutritionOrder resource which links to Encounter.
-患者の食事制限および／または好み・嗜好を追跡するために使用される。滞在中の患者の栄養ニーズの完全な説明については、EncounterにリンクしているnutritionOrderリソースを使用する必要がある。</t>
+    <t>患者が報告した食事の好み</t>
+  </si>
+  <si>
+    <t>患者が報告した食事の好み。</t>
+  </si>
+  <si>
+    <t>例えば、患者が乳製品フリーとナッツフリーの食事を希望することがあります（相反する要素ではありません）。</t>
+  </si>
+  <si>
+    <t>Used to track patient's diet restrictions and/or preference. For a complete description of the nutrition needs of a patient during their stay, one should use the nutritionOrder resource which links to Encounter.</t>
   </si>
   <si>
     <t>「食品の好みを考慮して、医療、文化、倫理的観点から、提供要件に対応することができます。」</t>
@@ -1250,11 +1168,10 @@
     <t>Encounter.hospitalization.specialCourtesy</t>
   </si>
   <si>
-    <t>Special courtesies (VIP, board member) / 特別待遇(VIP、役員)</t>
-  </si>
-  <si>
-    <t>Special courtesies (VIP, board member).
-特別待遇(VIP、役員)</t>
+    <t>特別な配慮（VIP、取締役）</t>
+  </si>
+  <si>
+    <t>特別なおもてなし（VIP、取締役）</t>
   </si>
   <si>
     <t>特別なおもてなし。</t>
@@ -1272,11 +1189,10 @@
     <t>Encounter.hospitalization.specialArrangement</t>
   </si>
   <si>
-    <t>Wheelchair, translator, stretcher, etc. / 車椅子、トランスレータ、ストレッチャなど</t>
-  </si>
-  <si>
-    <t>Any special requests that have been made for this hospitalization encounter, such as the provision of specific equipment or other things.
-特定の器具の提供など、今回の入院の出会いのために特別な要望があったもの</t>
+    <t>車椅子、翻訳者、ストレッチャー、など。</t>
+  </si>
+  <si>
+    <t>「この入院の機会に行われた特別な要求、特定の装置などの提供などがある場合は。」</t>
   </si>
   <si>
     <t>特別な手配。</t>
@@ -1294,11 +1210,10 @@
     <t>Encounter.hospitalization.destination</t>
   </si>
   <si>
-    <t>Location/organization to which the patient is discharged / 患者が退院する場所・機関</t>
-  </si>
-  <si>
-    <t>Location/organization to which the patient is discharged.
-患者が退院する場所・機関</t>
+    <t>患者が退院する場所/施設</t>
+  </si>
+  <si>
+    <t>患者が退院する場所/組織。 (Kanja ga taiin suru basho/soshiki.)</t>
   </si>
   <si>
     <t>.participation[typeCode=DST]</t>
@@ -1310,11 +1225,10 @@
     <t>Encounter.hospitalization.dischargeDisposition</t>
   </si>
   <si>
-    <t>Category or kind of location after discharge / 退院後の場所の区分や種類</t>
-  </si>
-  <si>
-    <t>Category or kind of location after discharge.
-退院後の場所の区分や種類。</t>
+    <t>「退院後の場所のカテゴリーまたは種類」</t>
+  </si>
+  <si>
+    <t>退院後の場所のカテゴリーまたは種類。</t>
   </si>
   <si>
     <t>退院時の配慮。</t>
@@ -1332,15 +1246,13 @@
     <t>Encounter.location</t>
   </si>
   <si>
-    <t>List of locations where the patient has been / 患者がいたことのある場所の一覧【詳細参照】</t>
-  </si>
-  <si>
-    <t>List of locations where  the patient has been during this encounter.
-このEncounterの間に患者がいたことのある場所のリスト</t>
-  </si>
-  <si>
-    <t>Virtual encounters can be recorded in the Encounter by specifying a location reference to a location of type "kind" such as "client's home" and an encounter.class = "virtual".
-仮想Encounterは、"client's home "のような "kind "型の場所を参照し、encounter.class = "virtual "を指定することで、Encounterに記録することができる。</t>
+    <t>患者が行った場所のリスト</t>
+  </si>
+  <si>
+    <t>「この接触中に患者が滞在した場所のリスト」</t>
+  </si>
+  <si>
+    <t>「エンカウント」には、場所の種類である「クライアントの自宅」のような場所の参照を明示することで、バーチャルなエンカウントを記録できます。また、エンカウントクラスは「バーチャル」である必要があります。」</t>
   </si>
   <si>
     <t>.participation[typeCode=LOC]</t>
@@ -1362,11 +1274,10 @@
 </t>
   </si>
   <si>
-    <t>Location the encounter takes place / Encounterの場所</t>
-  </si>
-  <si>
-    <t>The location where the encounter takes place.
-Encounterの舞台となる場所。</t>
+    <t>Encounter（診察、受診、入退院など）の場所 (Deai no basho)</t>
+  </si>
+  <si>
+    <t>Encounter（診察、受診、入退院など）が起こる場所。</t>
   </si>
   <si>
     <t>Event.location</t>
@@ -1384,12 +1295,10 @@
     <t>計画中 | アクティブな | 予約済みの | 完了しました。</t>
   </si>
   <si>
-    <t>The status of the participants' presence at the specified location during the period specified. If the participant is no longer at the location, then the period will have an end date/time.
-指定された期間中の指定された場所での参加者の存在状況。参加者がその場所にいなくなった場合、その期間は終了日時を持つ。</t>
-  </si>
-  <si>
-    <t>When the patient is no longer active at a location, then the period end date is entered, and the status may be changed to completed.
-患者がその場所で活動しなくなった場合、期間終了日が入力され、ステータスが完了した状態に変更されることがある</t>
+    <t>指定された場所に参加者が期間中にいる状態。参加者が場所にいなくなった場合は、期間に終了日時が設定されます。</t>
+  </si>
+  <si>
+    <t>患者が場所でのアクティブな期間が終了したら、期間終了日が入力され、ステータスが完了に変更される場合があります。</t>
   </si>
   <si>
     <t>場所の状態。</t>
@@ -1404,17 +1313,14 @@
     <t>Encounter.location.physicalType</t>
   </si>
   <si>
-    <t>The physical type of the location (usually the level in the location hierarchy - bed room ward etc.) / 場所の物理的なタイプ（通常は場所の階層のレベル - ベッド・病室・病棟など）</t>
-  </si>
-  <si>
-    <t>This will be used to specify the required levels (bed/ward/room/etc.) desired to be recorded to simplify either messaging or query.
-これは、メッセージングまたはクエリのいずれかを簡素化するために記録したい必要なレベル（ベッド/ワード/ルーム/その他）を指定するために使用される。</t>
-  </si>
-  <si>
-    <t>This information is de-normalized from the Location resource to support the easier understanding of the encounter resource and processing in messaging or query.
-There may be many levels in the hierarchy, and this may only pic specific levels that are required for a specific usage scenario.
-この情報は、メッセージングやクエリでのEncounterリソースの理解や処理を容易にするために、Locationリソースから非正規化されている。
-階層には多くのレベルがあり、これは特定の使用シナリオに必要とされる特定のレベルのみをピックすることができる。</t>
+    <t>場所の物理的なタイプ（通常は場所の階層のレベル、ベッドルームワードなど）</t>
+  </si>
+  <si>
+    <t>「これは、メッセージングまたはクエリを簡素化するために記録が必要なレベル（ベッド/病室/部屋など）を特定するために使用されます。」</t>
+  </si>
+  <si>
+    <t>この情報は、エンカウンターリソースの理解とメッセージングまたはクエリの処理をサポートするために、ロケーションリソースからデノーマライズされています。
+階層には多くのレベルがあり、特定の使用シナリオに必要な特定のレベルのみをピックアップすることができます。</t>
   </si>
   <si>
     <t>場所の実体形態。</t>
@@ -1426,17 +1332,10 @@
     <t>Encounter.location.period</t>
   </si>
   <si>
-    <t>Time period during which the patient was present at the location / 患者がその場所にいた期間</t>
-  </si>
-  <si>
-    <t>Time period during which the patient was present at the location.
-その場所に患者がいた期間。</t>
-  </si>
-  <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).
-期間は時間の範囲を指定する。 使用のコンテキストは、範囲全体が適用されるかどうかを指定する (例: "患者はこの時間範囲の病院の入院患者でした" )。または、範囲から1つの値が適用される（例：「この2回の間に患者に与える」）。
-期間は、期間(経過時間の尺度)には使用されない。Duration](http://hl7.org/fhir/R4/datatypes.html#Duration)を参照のこと。</t>
+    <t>「患者が場所にいた期間」</t>
+  </si>
+  <si>
+    <t>"患者が場所にいた期間。"</t>
   </si>
   <si>
     <t>Encounter.serviceProvider</t>
@@ -1446,11 +1345,10 @@
 </t>
   </si>
   <si>
-    <t>The organization (facility) responsible for this encounter / このEncounterに責任を持つ組織（施設）【詳細参照】</t>
-  </si>
-  <si>
-    <t>The organization that is primarily responsible for this Encounter's services. This MAY be the same as the organization on the Patient record, however it could be different, such as if the actor performing the services was from an external organization (which may be billed separately) for an external consultation.  Refer to the example bundle showing an abbreviated set of Encounters for a colonoscopy.
-このEncounterのサービスに主に責任を持つ組織。これは、患者記録上の組織と同じであってもよいが、例えば、サービスを実行しているアクターが外部組織のものである場合（外部コンサルテーションのために別個に請求される場合がある）など、異なる可能性がある。 大腸内視鏡検査のためのEncounterの省略されたセットを示すバンドル例を参照のこと。</t>
+    <t>このEncounter（診察、受診、入退院など）に責任を持つ組織（施設）</t>
+  </si>
+  <si>
+    <t>このエンカウンターのサービスを主に担当する組織。これは患者の記録にある組織と同じかもしれませんが、外部組織からサービスを提供するアクターがいる場合など、別の組織である可能性もあります(別途請求される可能性があります)。大腸内視鏡検査の簡略化されたエンカウンターのバンドルを参照してください。</t>
   </si>
   <si>
     <t>.particiaption[typeCode=PFM].role</t>
@@ -1466,19 +1364,13 @@
 </t>
   </si>
   <si>
-    <t>Another Encounter this encounter is part of / このEncounterが属するもう一つのEncounter【詳細参照】</t>
-  </si>
-  <si>
-    <t>Another Encounter of which this encounter is a part of (administratively or in time).
-このEncounterが（管理的に、あるいは時間的に）一部となっているもう一つのEncounter。</t>
-  </si>
-  <si>
-    <t>This is also used for associating a child's encounter back to the mother's encounter.--Refer to the Notes section in the Patient resource for further details.
-子供の受診を母親の受診にさかのぼって連携するときにも使われる。
-（※出産時などを表していると思われる）
-詳細については、Patient ResourceのNotesセクションを参照のこと。</t>
+    <t>「もう一度のEncounter（診察、受診、入退院など）。このEncounter（診察、受診、入退院など）は一部である。」</t>
+  </si>
+  <si>
+    <t>このEncounter（診察、受診、入退院など）が一部である、別のEncounter（診察、受診、入退院など）（手続き的にも時間的にも）。</t>
+  </si>
+  <si>
+    <t>「これは、子供の経験を母親の経験に関連付けるためにも使用されます。詳細については、患者リソースのノートセクションを参照してください。」</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -4830,9 +4722,7 @@
       <c r="M27" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="N27" t="s" s="2">
-        <v>199</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>41</v>
@@ -4860,10 +4750,10 @@
         <v>190</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="Z27" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>41</v>
@@ -4905,15 +4795,15 @@
         <v>41</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4939,14 +4829,12 @@
         <v>186</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>199</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>41</v>
@@ -4974,10 +4862,10 @@
         <v>190</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>41</v>
@@ -4995,7 +4883,7 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -5013,25 +4901,25 @@
         <v>41</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5050,16 +4938,16 @@
         <v>50</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5109,7 +4997,7 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -5124,24 +5012,24 @@
         <v>61</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>220</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5164,17 +5052,15 @@
         <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>225</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>41</v>
@@ -5223,7 +5109,7 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5238,28 +5124,28 @@
         <v>61</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5278,17 +5164,15 @@
         <v>41</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>41</v>
@@ -5337,7 +5221,7 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5352,10 +5236,10 @@
         <v>61</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
@@ -5366,10 +5250,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5395,10 +5279,10 @@
         <v>134</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5449,7 +5333,7 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5464,24 +5348,24 @@
         <v>61</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5590,10 +5474,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5704,10 +5588,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5820,10 +5704,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5849,13 +5733,13 @@
         <v>186</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5884,10 +5768,10 @@
         <v>166</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>41</v>
@@ -5905,7 +5789,7 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -5920,24 +5804,24 @@
         <v>61</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5963,10 +5847,10 @@
         <v>157</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6017,7 +5901,7 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6035,21 +5919,21 @@
         <v>41</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6072,13 +5956,13 @@
         <v>50</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6129,7 +6013,7 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6144,24 +6028,24 @@
         <v>61</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6184,17 +6068,15 @@
         <v>50</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>41</v>
@@ -6243,7 +6125,7 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -6258,24 +6140,24 @@
         <v>61</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6301,13 +6183,13 @@
         <v>157</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6357,7 +6239,7 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6372,24 +6254,24 @@
         <v>61</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6412,16 +6294,16 @@
         <v>41</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6471,7 +6353,7 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6486,28 +6368,28 @@
         <v>61</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6529,13 +6411,13 @@
         <v>186</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6564,10 +6446,10 @@
         <v>73</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>41</v>
@@ -6585,7 +6467,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6600,28 +6482,28 @@
         <v>61</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6640,16 +6522,16 @@
         <v>50</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6699,7 +6581,7 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6714,24 +6596,24 @@
         <v>61</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6757,10 +6639,10 @@
         <v>134</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6811,7 +6693,7 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -6829,7 +6711,7 @@
         <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>41</v>
@@ -6840,10 +6722,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6952,10 +6834,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7066,10 +6948,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7182,14 +7064,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7208,16 +7090,16 @@
         <v>50</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7267,7 +7149,7 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>49</v>
@@ -7282,24 +7164,24 @@
         <v>61</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7325,10 +7207,10 @@
         <v>186</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7358,10 +7240,10 @@
         <v>73</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>41</v>
@@ -7379,7 +7261,7 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7408,10 +7290,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7434,13 +7316,13 @@
         <v>41</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7491,7 +7373,7 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7509,7 +7391,7 @@
         <v>41</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
@@ -7520,10 +7402,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7546,16 +7428,16 @@
         <v>41</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7605,7 +7487,7 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7623,7 +7505,7 @@
         <v>41</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
@@ -7634,10 +7516,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7663,13 +7545,13 @@
         <v>134</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7719,7 +7601,7 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -7737,7 +7619,7 @@
         <v>41</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>41</v>
@@ -7748,10 +7630,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7860,10 +7742,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7974,10 +7856,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8090,10 +7972,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8119,10 +8001,10 @@
         <v>115</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8173,7 +8055,7 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8197,15 +8079,15 @@
         <v>41</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8228,17 +8110,15 @@
         <v>41</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>41</v>
@@ -8287,7 +8167,7 @@
         <v>41</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8305,7 +8185,7 @@
         <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>41</v>
@@ -8316,10 +8196,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8345,14 +8225,12 @@
         <v>186</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>41</v>
@@ -8380,10 +8258,10 @@
         <v>73</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>41</v>
@@ -8401,7 +8279,7 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8419,21 +8297,21 @@
         <v>41</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8459,14 +8337,12 @@
         <v>186</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>41</v>
@@ -8494,10 +8370,10 @@
         <v>190</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>41</v>
@@ -8515,7 +8391,7 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -8539,15 +8415,15 @@
         <v>41</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8573,16 +8449,16 @@
         <v>186</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>41</v>
@@ -8610,10 +8486,10 @@
         <v>190</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>41</v>
@@ -8631,7 +8507,7 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -8649,21 +8525,21 @@
         <v>41</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8689,14 +8565,12 @@
         <v>186</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>41</v>
@@ -8724,10 +8598,10 @@
         <v>73</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>41</v>
@@ -8745,7 +8619,7 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -8763,21 +8637,21 @@
         <v>41</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8803,14 +8677,12 @@
         <v>186</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>41</v>
@@ -8838,10 +8710,10 @@
         <v>73</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>41</v>
@@ -8859,7 +8731,7 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -8877,21 +8749,21 @@
         <v>41</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8914,17 +8786,15 @@
         <v>41</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>41</v>
@@ -8973,7 +8843,7 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -8991,21 +8861,21 @@
         <v>41</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9031,14 +8901,12 @@
         <v>186</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>41</v>
@@ -9066,10 +8934,10 @@
         <v>190</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>41</v>
@@ -9087,7 +8955,7 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9105,21 +8973,21 @@
         <v>41</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9145,13 +9013,13 @@
         <v>134</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9201,7 +9069,7 @@
         <v>41</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9219,7 +9087,7 @@
         <v>41</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>41</v>
@@ -9230,10 +9098,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9342,10 +9210,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9456,10 +9324,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9572,10 +9440,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9598,17 +9466,15 @@
         <v>41</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>41</v>
@@ -9657,7 +9523,7 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>49</v>
@@ -9672,24 +9538,24 @@
         <v>61</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9715,13 +9581,13 @@
         <v>69</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9750,10 +9616,10 @@
         <v>126</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>41</v>
@@ -9771,7 +9637,7 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -9789,7 +9655,7 @@
         <v>41</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>41</v>
@@ -9800,10 +9666,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9829,13 +9695,13 @@
         <v>186</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9864,10 +9730,10 @@
         <v>190</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>41</v>
@@ -9885,7 +9751,7 @@
         <v>41</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
@@ -9914,10 +9780,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9943,14 +9809,12 @@
         <v>157</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>41</v>
@@ -9999,7 +9863,7 @@
         <v>41</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
@@ -10017,7 +9881,7 @@
         <v>41</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>41</v>
@@ -10028,10 +9892,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10054,17 +9918,15 @@
         <v>41</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>41</v>
@@ -10113,7 +9975,7 @@
         <v>41</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10128,24 +9990,24 @@
         <v>61</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10168,16 +10030,16 @@
         <v>41</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10227,7 +10089,7 @@
         <v>41</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
@@ -10242,10 +10104,10 @@
         <v>61</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -154,7 +154,7 @@
   </si>
   <si>
     <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
-dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:「もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。」 {contained.meta.security.empty()}dom-6:「資源は堅牢な管理のために物語を持つべきである。」 {text.`div`.exists()}</t>
+dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -179,10 +179,10 @@
     <t>このアーティファクトの論理ID</t>
   </si>
   <si>
-    <t>「リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。」</t>
-  </si>
-  <si>
-    <t>「リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。」</t>
+    <t>リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -195,7 +195,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースに関するメタデータ」</t>
+    <t>リソースに関するメタデータ</t>
   </si>
   <si>
     <t>リソースに関するメタデータ。これはインフラストラクチャによって維持されるコンテンツです。 コンテンツの変更は、リソースのバージョン変更と常に関連しているわけではありません。</t>
@@ -218,7 +218,7 @@
     <t>このコンテンツが作成されたルールセット</t>
   </si>
   <si>
-    <t>「リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。」</t>
+    <t>リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。</t>
   </si>
   <si>
     <t>このルールセットを主張することで、取引先の限られた集団にしか内容を理解させることができず、長期的にはデータの有用性が制限されます。しかしながら、現存するヘルスエコシステムは高度に分断化しており、一般的に計算可能な形式でデータを定義、収集、交換する準備が整っていません。できる限り、実装者および/または仕様ライターはこの要素の使用を避けるべきです。使用する場合、URLは、そのナラティブとともに他のプロファイル、値セットなどを含む実装ガイドを定義する参照となります。</t>
@@ -237,7 +237,7 @@
     <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
   </si>
   <si>
-    <t>「リソースが書かれている基本言語。」</t>
+    <t>リソースが書かれている基本言語。</t>
   </si>
   <si>
     <t>言語はインデックスとアクセシビリティをサポートするために提供されます（通常、テキスト読み上げなどのサービスは言語タグを使用します）。物語のHTML言語タグは、物語に適用されます。リソース上の言語タグは、リソース内のデータから生成される他のプレゼンテーションの言語を指定するために使用できます。すべてのコンテンツが基本言語である必要はありません。Resource.languageは自動的に物語に適用されたと想定してはいけません。言語が指定されている場合、HTMLのdiv要素にも指定する必要があります（xml：langとhtml lang属性の関係に関する情報はHTML5の規則を参照）。</t>
@@ -266,10 +266,10 @@
 </t>
   </si>
   <si>
-    <t>「人間の解釈のためのリソースのテキスト要約」</t>
-  </si>
-  <si>
-    <t>「リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。」</t>
+    <t>人間の解釈のためのリソースのテキスト要約</t>
+  </si>
+  <si>
+    <t>リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。</t>
   </si>
   <si>
     <t>含まれるリソースには説明がありません。含まれないリソースには説明が必要です。場合によっては、リソースが少量のデータしか含まず、テキストだけで表現されることがあります（minOccurs = 1要素がすべて満たされている限り）。これは、情報が「テキストの塊」としてキャプチャされるレガシーシステムからのデータや、テキストが生またはナレーションされて符号化された情報が後で追加される場合に必要な場合があります。</t>
@@ -295,10 +295,10 @@
     <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
   </si>
   <si>
-    <t>「これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。」</t>
-  </si>
-  <si>
-    <t>「コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。」</t>
+    <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
+  </si>
+  <si>
+    <t>コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -331,7 +331,7 @@
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
+ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Encounter.extension:associatedEncounter</t>
@@ -365,7 +365,7 @@
     <t>無視できない拡張機能 (Mushi dekinai kakuchou kinou)</t>
   </si>
   <si>
-    <t>「リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。」</t>
+    <t>リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。</t>
   </si>
   <si>
     <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
@@ -477,7 +477,7 @@
     <t>実装によって定義される追加コンテンツ</t>
   </si>
   <si>
-    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
+    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -490,11 +490,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>「認識されなくても無視できない拡張機能」(Ninshiki sarenakutemo mushi dekinai kakuchou kinou)</t>
-  </si>
-  <si>
-    <t>「基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
-修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。」</t>
+    <t>認識されなくても無視できない拡張機能</t>
+  </si>
+  <si>
+    <t>基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
+修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -609,10 +609,10 @@
     <t>特定の種類のEncounter（診察、受診、入退院など） (tokutei no shurui no deai)</t>
   </si>
   <si>
-    <t>「特定のEncounter（診察、受診、入退院など）の種類（例：メール相談、手術日帰り、スキルド・ナーシング、リハビリテーション）」</t>
-  </si>
-  <si>
-    <t>「Encounter（診察、受診、入退院など）をさらに分類する方法が多数存在するため、この要素は0から複数の値をとる。」</t>
+    <t>特定のEncounter（診察、受診、入退院など）の種類（例：メール相談、手術日帰り、スキルド・ナーシング、リハビリテーション）</t>
+  </si>
+  <si>
+    <t>Encounter（診察、受診、入退院など）をさらに分類する方法が多数存在するため、この要素は0から複数の値をとる。</t>
   </si>
   <si>
     <t>example</t>
@@ -654,7 +654,7 @@
     <t>Encounter.priority</t>
   </si>
   <si>
-    <t>「Encounter（診察、受診、入退院など）の緊急性を示す」</t>
+    <t>Encounter（診察、受診、入退院など）の緊急性を示す</t>
   </si>
   <si>
     <t>Encounter（診察、受診、入退院など）の緊急性を示します。</t>
@@ -711,10 +711,10 @@
 </t>
   </si>
   <si>
-    <t>「この遭遇が記録されるべきケアのエピソード」</t>
-  </si>
-  <si>
-    <t>「特定のエピソードの一部として特定のエンカウンターを分類する必要がある場合、このフィールドを使用する必要があります。この関連は、政府報告、問題追跡、共通の課題に関連するエンカウンターを特定の目的のためにグループ化するのに役立ちます。これらの関連は、通常、エピソードの後に作成され、新しいエンカウンターを追加するためにエピソードを編集するのではなく、入力時にグループ化されます（エピソードは数年にわたって広がる可能性があります）。」</t>
+    <t>この遭遇が記録されるべきケアのエピソード</t>
+  </si>
+  <si>
+    <t>特定のエピソードの一部として特定のエンカウンターを分類する必要がある場合、このフィールドを使用する必要があります。この関連は、政府報告、問題追跡、共通の課題に関連するエンカウンターを特定の目的のためにグループ化するのに役立ちます。これらの関連は、通常、エピソードの後に作成され、新しいエンカウンターを追加するためにエピソードを編集するのではなく、入力時にグループ化されます（エピソードは数年にわたって広がる可能性があります）。</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -755,7 +755,7 @@
     <t>「遭遇に関わった参加者のリスト」 (Souguu ni kakawatta sankasha no risuto)</t>
   </si>
   <si>
-    <t>「サービスを提供する責任を持つ人々のリスト」</t>
+    <t>サービスを提供する責任を持つ人々のリスト</t>
   </si>
   <si>
     <t>Event.performer</t>
@@ -779,7 +779,7 @@
     <t>Encounter.participant.type</t>
   </si>
   <si>
-    <t>「Encounter（診察、受診、入退院など）における参加者の役割」</t>
+    <t>Encounter（診察、受診、入退院など）における参加者の役割</t>
   </si>
   <si>
     <t>Encounter（診察、受診、入退院など）における参加者の役割。</t>
@@ -822,7 +822,7 @@
 </t>
   </si>
   <si>
-    <t>「患者以外に関与する人」</t>
+    <t>患者以外に関与する人</t>
   </si>
   <si>
     <t>「患者以外にEncounter（診察、受診、入退院など）に関わった人々。」(Kanja igai ni deai ni kakawatta hitobito.)</t>
@@ -847,10 +847,10 @@
 </t>
   </si>
   <si>
-    <t>「このEncounter（診察、受診、入退院など）を予定した予約」(Kono deai o yotei shita yoyaku)</t>
-  </si>
-  <si>
-    <t>「このEncounter（診察、受診、入退院など）を予定した約束。」</t>
+    <t>このEncounter（診察、受診、入退院など）を予定した予約</t>
+  </si>
+  <si>
+    <t>このEncounter（診察、受診、入退院など）を予定した約束。</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=FLFS].target[classCode=ENC, moodCode=APT]</t>
@@ -868,7 +868,7 @@
     <t>Encounter（診察、受診、入退院など）の開始時刻と終了時刻。</t>
   </si>
   <si>
-    <t>「もし、まだ知られていなければ、期間の終わりは省略できます。」</t>
+    <t>もし、まだ知られていなければ、期間の終わりは省略できます。</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -896,7 +896,7 @@
     <t>接触が続いた時間の量です。休暇中の時間は除かれます。</t>
   </si>
   <si>
-    <t>「休暇により、エンカウンター期間の時間が異なる場合があります。」</t>
+    <t>休暇により、エンカウンター期間の時間が異なる場合があります。</t>
   </si>
   <si>
     <t>.lengthOfStayQuantity</t>
@@ -912,7 +912,7 @@
 Admission diagnosis</t>
   </si>
   <si>
-    <t>「エンカウントが生じる理由がコード化されている」</t>
+    <t>エンカウントが生じる理由がコード化されている</t>
   </si>
   <si>
     <t>Encounter（診察、受診、入退院など）が起こる理由をコードとして表現します。入院に関しては、コード化された入院診断に使用できます。</t>
@@ -955,7 +955,7 @@
     <t>この診察に関連する診断のリスト</t>
   </si>
   <si>
-    <t>「この対面に関連する診断リスト。」</t>
+    <t>この対面に関連する診断リスト。</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=RSON]</t>
@@ -981,10 +981,10 @@
 </t>
   </si>
   <si>
-    <t>「エンカウンターに関連する診断または処置」</t>
-  </si>
-  <si>
-    <t>「エンカウンターが発生する理由は、他のリソースからの情報を使用して指定されます。入院の場合、これは入院診断です。指標は通常、状態（evidence.detailで参照される他のリソースで）またはプロシジャー（処置等）です。」</t>
+    <t>エンカウンターに関連する診断または処置</t>
+  </si>
+  <si>
+    <t>エンカウンターが発生する理由は、他のリソースからの情報を使用して指定されます。入院の場合、これは入院診断です。指標は通常、状態（evidence.detailで参照される他のリソースで）またはプロシジャー（処置等）です。</t>
   </si>
   <si>
     <t>Event.reasonReference</t>
@@ -1021,7 +1021,7 @@
     <t>役割ごとの診断ランキング</t>
   </si>
   <si>
-    <t>「各役割タイプの診断ランキング」</t>
+    <t>各役割タイプの診断ランキング</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=RSON].priority</t>
@@ -1049,10 +1049,10 @@
     <t>Encounter.hospitalization</t>
   </si>
   <si>
-    <t>「医療サービスの入院に関する詳細」</t>
-  </si>
-  <si>
-    <t>「医療サービスへの入院に関する詳細。」</t>
+    <t>医療サービスの入院に関する詳細</t>
+  </si>
+  <si>
+    <t>医療サービスへの入院に関する詳細。</t>
   </si>
   <si>
     <t>「エンカウンター」は入院期間だけでなく、外来診療、地域クリニック、高齢者施設などの文脈も含まれる場合があります。@@ -1093,7 +1093,7 @@
     <t>「入院前に患者がいた場所／組織」(nyūin zen ni kanja ga ita basho / soshiki)</t>
   </si>
   <si>
-    <t>「患者が入院する前に、どこの場所/組織から来たか。」</t>
+    <t>患者が入院する前に、どこの場所/組織から来たか。</t>
   </si>
   <si>
     <t>.participation[typeCode=ORG].role</t>
@@ -1102,10 +1102,10 @@
     <t>Encounter.hospitalization.admitSource</t>
   </si>
   <si>
-    <t>「患者が入院した場所（医師の紹介、転院）」</t>
-  </si>
-  <si>
-    <t>「患者がどこから入院したのか（医師の紹介、転院）」</t>
+    <t>患者が入院した場所（医師の紹介、転院）</t>
+  </si>
+  <si>
+    <t>患者がどこから入院したのか（医師の紹介、転院）</t>
   </si>
   <si>
     <t>患者が入院した場所はどこですか。 (Kanja ga nyūin shita basho wa doko desu ka?)</t>
@@ -1126,7 +1126,7 @@
     <t>発生した再入院のタイプ（あれば）。値がない場合は、再入院として識別されていないことを意味します。</t>
   </si>
   <si>
-    <t>「この入院が再入院かどうか、そしてその理由が分かっている場合はなぜか。」</t>
+    <t>この入院が再入院かどうか、そしてその理由が分かっている場合はなぜか。</t>
   </si>
   <si>
     <t>この入院の再入院の理由。</t>
@@ -1153,7 +1153,7 @@
     <t>Used to track patient's diet restrictions and/or preference. For a complete description of the nutrition needs of a patient during their stay, one should use the nutritionOrder resource which links to Encounter.</t>
   </si>
   <si>
-    <t>「食品の好みを考慮して、医療、文化、倫理的観点から、提供要件に対応することができます。」</t>
+    <t>食品の好みを考慮して、医療、文化、倫理的観点から、提供要件に対応することができます。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-diet</t>
@@ -1192,7 +1192,7 @@
     <t>車椅子、翻訳者、ストレッチャー、など。</t>
   </si>
   <si>
-    <t>「この入院の機会に行われた特別な要求、特定の装置などの提供などがある場合は。」</t>
+    <t>この入院の機会に行われた特別な要求、特定の装置などの提供などがある場合は。</t>
   </si>
   <si>
     <t>特別な手配。</t>
@@ -1225,7 +1225,7 @@
     <t>Encounter.hospitalization.dischargeDisposition</t>
   </si>
   <si>
-    <t>「退院後の場所のカテゴリーまたは種類」</t>
+    <t>退院後の場所のカテゴリーまたは種類</t>
   </si>
   <si>
     <t>退院後の場所のカテゴリーまたは種類。</t>
@@ -1249,10 +1249,10 @@
     <t>患者が行った場所のリスト</t>
   </si>
   <si>
-    <t>「この接触中に患者が滞在した場所のリスト」</t>
-  </si>
-  <si>
-    <t>「エンカウント」には、場所の種類である「クライアントの自宅」のような場所の参照を明示することで、バーチャルなエンカウントを記録できます。また、エンカウントクラスは「バーチャル」である必要があります。」</t>
+    <t>この接触中に患者が滞在した場所のリスト</t>
+  </si>
+  <si>
+    <t>エンカウント」には、場所の種類である「クライアントの自宅」のような場所の参照を明示することで、バーチャルなエンカウントを記録できます。また、エンカウントクラスは「バーチャル」である必要があります。</t>
   </si>
   <si>
     <t>.participation[typeCode=LOC]</t>
@@ -1316,7 +1316,7 @@
     <t>場所の物理的なタイプ（通常は場所の階層のレベル、ベッドルームワードなど）</t>
   </si>
   <si>
-    <t>「これは、メッセージングまたはクエリを簡素化するために記録が必要なレベル（ベッド/病室/部屋など）を特定するために使用されます。」</t>
+    <t>これは、メッセージングまたはクエリを簡素化するために記録が必要なレベル（ベッド/病室/部屋など）を特定するために使用されます。</t>
   </si>
   <si>
     <t>この情報は、エンカウンターリソースの理解とメッセージングまたはクエリの処理をサポートするために、ロケーションリソースからデノーマライズされています。
@@ -1332,7 +1332,7 @@
     <t>Encounter.location.period</t>
   </si>
   <si>
-    <t>「患者が場所にいた期間」</t>
+    <t>患者が場所にいた期間</t>
   </si>
   <si>
     <t>"患者が場所にいた期間。"</t>
@@ -1364,13 +1364,13 @@
 </t>
   </si>
   <si>
-    <t>「もう一度のEncounter（診察、受診、入退院など）。このEncounter（診察、受診、入退院など）は一部である。」</t>
+    <t>もう一度のEncounter（診察、受診、入退院など）。このEncounter（診察、受診、入退院など）は一部である。</t>
   </si>
   <si>
     <t>このEncounter（診察、受診、入退院など）が一部である、別のEncounter（診察、受診、入退院など）（手続き的にも時間的にも）。</t>
   </si>
   <si>
-    <t>「これは、子供の経験を母親の経験に関連付けるためにも使用されます。詳細については、患者リソースのノートセクションを参照してください。」</t>
+    <t>これは、子供の経験を母親の経験に関連付けるためにも使用されます。詳細については、患者リソースのノートセクションを参照してください。</t>
   </si>
   <si>
     <t>Event.partOf</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -149,7 +149,7 @@
     <t>患者にサービスが提供されている間の相互作用</t>
   </si>
   <si>
-    <t>医療サービスの提供または患者の健康状態の評価を目的とした、患者と医療提供者との間の相互作用。Encounterと表現される。
+    <t>医療サービスの提供または患者の健康状態の評価を目的とした、患者と医療提供者との間の相互作用。Encounterと表現される。  
 【JP Core仕様】外来受診、救急受診、入院、退院、対面診察、電話診察、など。</t>
   </si>
   <si>
@@ -408,7 +408,7 @@
     <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled + / 予定｜到着｜トリアージ｜進行中｜保留中｜終了｜キャンセル+【詳細参照】</t>
   </si>
   <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.  
 予定｜到着｜トリアージ｜進行中｜保留中｜終了｜キャンセル+.</t>
   </si>
   <si>
@@ -583,7 +583,7 @@
     <t>inpatient | outpatient | ambulatory | emergency + / 入院｜外来｜外来｜救急＋</t>
   </si>
   <si>
-    <t>inpatient | outpatient | ambulatory | emergency +.
+    <t>inpatient | outpatient | ambulatory | emergency +.  
 入院｜外来｜外来｜救急＋。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -384,7 +384,7 @@
 </t>
   </si>
   <si>
-    <t>このEncounterが知られている識別子（複数可）【詳細参照】</t>
+    <t>このEncounterが知られている識別子（複数可）</t>
   </si>
   <si>
     <t>このEncounterが知られている識別子（複数可）。</t>
@@ -405,7 +405,7 @@
     <t>Encounter.status</t>
   </si>
   <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled + / 予定｜到着｜トリアージ｜進行中｜保留中｜終了｜キャンセル+【詳細参照】</t>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled + / 予定｜到着｜トリアージ｜進行中｜保留中｜終了｜キャンセル+</t>
   </si>
   <si>
     <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.  

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -234,7 +234,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+    <t>「リソースコンテンツの言語」</t>
   </si>
   <si>
     <t>リソースが書かれている基本言語。</t>
@@ -246,7 +246,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」(Ningen no gengo.)</t>
+    <t>「人間の言語。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -292,7 +292,7 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+    <t>「含まれている、インラインのリソース」</t>
   </si>
   <si>
     <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
@@ -418,7 +418,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>「Encounter（診察、受診、入退院など）の現状。」(Deai no genjou.)</t>
+    <t>「Encounter（診察、受診、入退院など）の現状。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
@@ -825,7 +825,7 @@
     <t>患者以外に関与する人</t>
   </si>
   <si>
-    <t>「患者以外にEncounter（診察、受診、入退院など）に関わった人々。」(Kanja igai ni deai ni kakawatta hitobito.)</t>
+    <t>「患者以外にEncounter（診察、受診、入退院など）に関わった人々。」</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1077,7 +1077,7 @@
     <t>事前入院識別子 (Jizen nyugaku shikibetsushi)</t>
   </si>
   <si>
-    <t>「入院前の識別子」(Nyūgaku mae no shikibetsu-shi)</t>
+    <t>「入院前の識別子」</t>
   </si>
   <si>
     <t>PV1-5</t>
@@ -1090,7 +1090,7 @@
 </t>
   </si>
   <si>
-    <t>「入院前に患者がいた場所／組織」(nyūin zen ni kanja ga ita basho / soshiki)</t>
+    <t>「入院前に患者がいた場所／組織」</t>
   </si>
   <si>
     <t>患者が入院する前に、どこの場所/組織から来たか。</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="477">
   <si>
     <t>Property</t>
   </si>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -467,12 +467,8 @@
     <t>関連するEncounter</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Encounter.modifierExtension</t>
@@ -2975,10 +2971,10 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>81</v>
@@ -2995,14 +2991,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3024,16 +3020,16 @@
         <v>134</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>81</v>
@@ -3082,7 +3078,7 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3111,10 +3107,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3137,13 +3133,13 @@
         <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3194,7 +3190,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3209,24 +3205,24 @@
         <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3252,13 +3248,13 @@
         <v>109</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3284,14 +3280,14 @@
         <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="AA13" t="s" s="2">
         <v>81</v>
       </c>
@@ -3308,7 +3304,7 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>89</v>
@@ -3323,24 +3319,24 @@
         <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>172</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3363,16 +3359,16 @@
         <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3422,7 +3418,7 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3440,7 +3436,7 @@
         <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>81</v>
@@ -3451,10 +3447,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3477,13 +3473,13 @@
         <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3534,7 +3530,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3552,7 +3548,7 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>81</v>
@@ -3563,14 +3559,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3592,13 +3588,13 @@
         <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="N16" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3648,7 +3644,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3666,7 +3662,7 @@
         <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>81</v>
@@ -3677,14 +3673,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3706,16 +3702,16 @@
         <v>134</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="N17" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>81</v>
@@ -3764,7 +3760,7 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3793,10 +3789,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3822,13 +3818,13 @@
         <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3854,14 +3850,14 @@
         <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Y18" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="Z18" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="AA18" t="s" s="2">
         <v>81</v>
       </c>
@@ -3878,7 +3874,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>89</v>
@@ -3896,7 +3892,7 @@
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>81</v>
@@ -3907,10 +3903,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3933,16 +3929,16 @@
         <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3992,7 +3988,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>89</v>
@@ -4010,7 +4006,7 @@
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>81</v>
@@ -4021,10 +4017,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4047,16 +4043,16 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4082,14 +4078,14 @@
         <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="AA20" t="s" s="2">
         <v>81</v>
       </c>
@@ -4106,7 +4102,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>89</v>
@@ -4124,21 +4120,21 @@
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4161,13 +4157,13 @@
         <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4218,7 +4214,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4236,7 +4232,7 @@
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>81</v>
@@ -4247,10 +4243,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4273,13 +4269,13 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4330,7 +4326,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4348,7 +4344,7 @@
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>81</v>
@@ -4359,14 +4355,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4388,13 +4384,13 @@
         <v>134</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="N23" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4444,7 +4440,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4462,7 +4458,7 @@
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>81</v>
@@ -4473,14 +4469,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4502,16 +4498,16 @@
         <v>134</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="N24" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O24" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4560,7 +4556,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4589,10 +4585,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4615,16 +4611,16 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4650,14 +4646,14 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
       </c>
@@ -4674,7 +4670,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>89</v>
@@ -4692,7 +4688,7 @@
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>81</v>
@@ -4703,10 +4699,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4729,16 +4725,16 @@
         <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="N26" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4788,7 +4784,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>89</v>
@@ -4806,7 +4802,7 @@
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>81</v>
@@ -4817,10 +4813,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4843,16 +4839,16 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4878,14 +4874,14 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
       </c>
@@ -4902,7 +4898,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4917,24 +4913,24 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4957,13 +4953,13 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4990,14 +4986,14 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5014,7 +5010,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5029,24 +5025,24 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5069,13 +5065,13 @@
         <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5102,14 +5098,14 @@
         <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>245</v>
-      </c>
       <c r="AA29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5126,7 +5122,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5144,25 +5140,25 @@
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>248</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5181,16 +5177,16 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5240,7 +5236,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5255,24 +5251,24 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>258</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5295,13 +5291,13 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5352,7 +5348,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5367,28 +5363,28 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5407,13 +5403,13 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5464,7 +5460,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5479,10 +5475,10 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>81</v>
@@ -5493,10 +5489,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5519,13 +5515,13 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5576,7 +5572,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5591,24 +5587,24 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>278</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5631,13 +5627,13 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5688,7 +5684,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5706,7 +5702,7 @@
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>81</v>
@@ -5717,14 +5713,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5746,13 +5742,13 @@
         <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="N35" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5802,7 +5798,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5820,7 +5816,7 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>81</v>
@@ -5831,14 +5827,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5860,16 +5856,16 @@
         <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="N36" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O36" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -5918,7 +5914,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5947,10 +5943,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5973,16 +5969,16 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6008,13 +6004,13 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -6032,7 +6028,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6047,24 +6043,24 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>289</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6087,13 +6083,13 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6144,7 +6140,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6162,21 +6158,21 @@
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6199,13 +6195,13 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6256,7 +6252,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6271,24 +6267,24 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>302</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6311,13 +6307,13 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6368,7 +6364,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6383,24 +6379,24 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>308</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6423,16 +6419,16 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6482,7 +6478,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6497,24 +6493,24 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>316</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6537,16 +6533,16 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6596,7 +6592,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6611,28 +6607,28 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>323</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6651,16 +6647,16 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6689,11 +6685,11 @@
         <v>113</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
       </c>
@@ -6710,7 +6706,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6725,28 +6721,28 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>334</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6765,16 +6761,16 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>337</v>
-      </c>
       <c r="M44" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6824,7 +6820,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6839,24 +6835,24 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>334</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6879,13 +6875,13 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6936,7 +6932,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6954,7 +6950,7 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>81</v>
@@ -6965,10 +6961,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6991,13 +6987,13 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7048,7 +7044,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7066,7 +7062,7 @@
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
@@ -7077,14 +7073,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7106,13 +7102,13 @@
         <v>134</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="N47" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7162,7 +7158,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7180,7 +7176,7 @@
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>81</v>
@@ -7191,14 +7187,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7220,16 +7216,16 @@
         <v>134</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="N48" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O48" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7278,7 +7274,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7307,14 +7303,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7333,16 +7329,16 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7392,7 +7388,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>89</v>
@@ -7407,24 +7403,24 @@
         <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>352</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7447,13 +7443,13 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7483,11 +7479,11 @@
         <v>113</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="AA50" t="s" s="2">
         <v>81</v>
       </c>
@@ -7504,7 +7500,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7522,7 +7518,7 @@
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>81</v>
@@ -7533,10 +7529,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7559,13 +7555,13 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7616,7 +7612,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7634,7 +7630,7 @@
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>81</v>
@@ -7645,10 +7641,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7671,16 +7667,16 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7730,7 +7726,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7748,7 +7744,7 @@
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>81</v>
@@ -7759,10 +7755,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7785,16 +7781,16 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7844,7 +7840,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7862,7 +7858,7 @@
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>81</v>
@@ -7873,10 +7869,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7899,13 +7895,13 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7956,7 +7952,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -7974,7 +7970,7 @@
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>81</v>
@@ -7985,14 +7981,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8014,13 +8010,13 @@
         <v>134</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="N55" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8070,7 +8066,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8088,7 +8084,7 @@
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>81</v>
@@ -8099,14 +8095,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8128,16 +8124,16 @@
         <v>134</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M56" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="N56" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O56" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8186,7 +8182,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8215,10 +8211,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8241,13 +8237,13 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8298,7 +8294,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8316,21 +8312,21 @@
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8353,13 +8349,13 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8410,7 +8406,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8428,7 +8424,7 @@
         <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>81</v>
@@ -8439,10 +8435,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8465,13 +8461,13 @@
         <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8501,11 +8497,11 @@
         <v>113</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>390</v>
-      </c>
       <c r="AA59" t="s" s="2">
         <v>81</v>
       </c>
@@ -8522,7 +8518,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8540,21 +8536,21 @@
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>392</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8577,13 +8573,13 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8610,14 +8606,14 @@
         <v>81</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="AA60" t="s" s="2">
         <v>81</v>
       </c>
@@ -8634,7 +8630,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8652,21 +8648,21 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8689,19 +8685,19 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -8726,14 +8722,14 @@
         <v>81</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>81</v>
       </c>
@@ -8750,7 +8746,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8768,21 +8764,21 @@
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>407</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8805,13 +8801,13 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8841,11 +8837,11 @@
         <v>113</v>
       </c>
       <c r="Y62" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="Z62" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>412</v>
-      </c>
       <c r="AA62" t="s" s="2">
         <v>81</v>
       </c>
@@ -8862,7 +8858,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -8880,21 +8876,21 @@
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>414</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8917,13 +8913,13 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8953,11 +8949,11 @@
         <v>113</v>
       </c>
       <c r="Y63" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="Z63" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>419</v>
-      </c>
       <c r="AA63" t="s" s="2">
         <v>81</v>
       </c>
@@ -8974,7 +8970,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -8992,21 +8988,21 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>421</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9029,13 +9025,13 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9086,7 +9082,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9104,21 +9100,21 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>426</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9141,13 +9137,13 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9174,14 +9170,14 @@
         <v>81</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Y65" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="Z65" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="Z65" t="s" s="2">
-        <v>431</v>
-      </c>
       <c r="AA65" t="s" s="2">
         <v>81</v>
       </c>
@@ -9198,7 +9194,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9216,21 +9212,21 @@
         <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>433</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9253,16 +9249,16 @@
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9312,7 +9308,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9330,7 +9326,7 @@
         <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>81</v>
@@ -9341,10 +9337,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9367,13 +9363,13 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9424,7 +9420,7 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9442,7 +9438,7 @@
         <v>81</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>81</v>
@@ -9453,14 +9449,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9482,13 +9478,13 @@
         <v>134</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="N68" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9538,7 +9534,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9556,7 +9552,7 @@
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>81</v>
@@ -9567,14 +9563,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9596,16 +9592,16 @@
         <v>134</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="N69" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O69" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>81</v>
@@ -9654,7 +9650,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -9683,10 +9679,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9709,13 +9705,13 @@
         <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9766,7 +9762,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>89</v>
@@ -9781,24 +9777,24 @@
         <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="AL70" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>448</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9824,13 +9820,13 @@
         <v>109</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9856,14 +9852,14 @@
         <v>81</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y71" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="Z71" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="Z71" t="s" s="2">
-        <v>454</v>
-      </c>
       <c r="AA71" t="s" s="2">
         <v>81</v>
       </c>
@@ -9880,7 +9876,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -9898,7 +9894,7 @@
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>81</v>
@@ -9909,10 +9905,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9935,16 +9931,16 @@
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9970,14 +9966,14 @@
         <v>81</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Y72" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="Z72" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>461</v>
-      </c>
       <c r="AA72" t="s" s="2">
         <v>81</v>
       </c>
@@ -9994,7 +9990,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10023,10 +10019,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10049,13 +10045,13 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10106,7 +10102,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10124,7 +10120,7 @@
         <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>81</v>
@@ -10135,10 +10131,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10161,13 +10157,13 @@
         <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10218,7 +10214,7 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10233,24 +10229,24 @@
         <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>470</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10273,16 +10269,16 @@
         <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10332,7 +10328,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10347,10 +10343,10 @@
         <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>81</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-encounter.xlsx
@@ -274,7 +274,7 @@
   </si>
   <si>
     <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
-dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}</t>
+dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:「もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。」 {contained.meta.security.empty()}dom-6:「資源は堅牢な管理のために物語を持つべきである。」 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -299,10 +299,10 @@
     <t>このアーティファクトの論理ID</t>
   </si>
   <si>
-    <t>リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。</t>
-  </si>
-  <si>
-    <t>リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。</t>
+    <t>「リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。」</t>
+  </si>
+  <si>
+    <t>「リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。」</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -315,7 +315,7 @@
 </t>
   </si>
   <si>
-    <t>リソースに関するメタデータ</t>
+    <t>「リソースに関するメタデータ」</t>
   </si>
   <si>
     <t>リソースに関するメタデータ。これはインフラストラクチャによって維持されるコンテンツです。 コンテンツの変更は、リソースのバージョン変更と常に関連しているわけではありません。</t>
@@ -338,7 +338,7 @@
     <t>このコンテンツが作成されたルールセット</t>
   </si>
   <si>
-    <t>リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。</t>
+    <t>「リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。」</t>
   </si>
   <si>
     <t>このルールセットを主張することで、取引先の限られた集団にしか内容を理解させることができず、長期的にはデータの有用性が制限されます。しかしながら、現存するヘルスエコシステムは高度に分断化しており、一般的に計算可能な形式でデータを定義、収集、交換する準備が整っていません。できる限り、実装者および/または仕様ライターはこの要素の使用を避けるべきです。使用する場合、URLは、そのナラティブとともに他のプロファイル、値セットなどを含む実装ガイドを定義する参照となります。</t>
@@ -354,10 +354,10 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」</t>
-  </si>
-  <si>
-    <t>リソースが書かれている基本言語。</t>
+    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+  </si>
+  <si>
+    <t>「リソースが書かれている基本言語。」</t>
   </si>
   <si>
     <t>言語はインデックスとアクセシビリティをサポートするために提供されます（通常、テキスト読み上げなどのサービスは言語タグを使用します）。物語のHTML言語タグは、物語に適用されます。リソース上の言語タグは、リソース内のデータから生成される他のプレゼンテーションの言語を指定するために使用できます。すべてのコンテンツが基本言語である必要はありません。Resource.languageは自動的に物語に適用されたと想定してはいけません。言語が指定されている場合、HTMLのdiv要素にも指定する必要があります（xml：langとhtml lang属性の関係に関する情報はHTML5の規則を参照）。</t>
@@ -366,7 +366,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」</t>
+    <t>「人間の言語。」(Ningen no gengo.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -386,10 +386,10 @@
 </t>
   </si>
   <si>
-    <t>人間の解釈のためのリソースのテキスト要約</t>
-  </si>
-  <si>
-    <t>リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。</t>
+    <t>「人間の解釈のためのリソースのテキスト要約」</t>
+  </si>
+  <si>
+    <t>「リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。」</t>
   </si>
   <si>
     <t>含まれるリソースには説明がありません。含まれないリソースには説明が必要です。場合によっては、リソースが少量のデータしか含まず、テキストだけで表現されることがあります（minOccurs = 1要素がすべて満たされている限り）。これは、情報が「テキストの塊」としてキャプチャされるレガシーシステムからのデータや、テキストが生またはナレーションされて符号化された情報が後で追加される場合に必要な場合があります。</t>
@@ -412,13 +412,13 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」</t>
-  </si>
-  <si>
-    <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
-  </si>
-  <si>
-    <t>コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。</t>
+    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+  </si>
+  <si>
+    <t>「これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。」</t>
+  </si>
+  <si>
+    <t>「コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。」</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -451,7 +451,7 @@
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
+ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Encounter.extension:associatedEncounter</t>
@@ -481,7 +481,7 @@
     <t>無視できない拡張機能 (Mushi dekinai kakuchou kinou)</t>
   </si>
   <si>
-    <t>リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。</t>
+    <t>「リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。」</t>
   </si>
   <si>
     <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
@@ -534,7 +534,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>「Encounter（診察、受診、入退院など）の現状。」</t>
+    <t>「出会いの現状。」(Deai no genjou.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
@@ -593,7 +593,7 @@
     <t>実装によって定義される追加コンテンツ</t>
   </si>
   <si>
-    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
+    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -606,11 +606,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>認識されなくても無視できない拡張機能</t>
-  </si>
-  <si>
-    <t>基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
-修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。</t>
+    <t>「認識されなくても無視できない拡張機能」(Ninshiki sarenakutemo mushi dekinai kakuchou kinou)</t>
+  </si>
+  <si>
+    <t>「基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
+修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。」</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -660,7 +660,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>Encounter（診察、受診、入退院など）の分類。 (Deai no bunrui.)</t>
+    <t>出会いの分類。 (Deai no bunrui.)</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
@@ -722,19 +722,19 @@
 </t>
   </si>
   <si>
-    <t>特定の種類のEncounter（診察、受診、入退院など） (tokutei no shurui no deai)</t>
-  </si>
-  <si>
-    <t>特定のEncounter（診察、受診、入退院など）の種類（例：メール相談、手術日帰り、スキルド・ナーシング、リハビリテーション）</t>
-  </si>
-  <si>
-    <t>Encounter（診察、受診、入退院など）をさらに分類する方法が多数存在するため、この要素は0から複数の値をとる。</t>
+    <t>特定の種類の出会い (tokutei no shurui no deai)</t>
+  </si>
+  <si>
+    <t>「特定の出会いの種類（例：メール相談、手術日帰り、スキルド・ナーシング、リハビリテーション）」</t>
+  </si>
+  <si>
+    <t>「出会いをさらに分類する方法が多数存在するため、この要素は0から複数の値をとる。」</t>
   </si>
   <si>
     <t>example</t>
   </si>
   <si>
-    <t>Encounter（診察、受診、入退院など）のタイプ。 (Deai no taipu.)</t>
+    <t>出会いのタイプ。 (Deai no taipu.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
@@ -770,10 +770,10 @@
     <t>Encounter.priority</t>
   </si>
   <si>
-    <t>Encounter（診察、受診、入退院など）の緊急性を示す</t>
-  </si>
-  <si>
-    <t>Encounter（診察、受診、入退院など）の緊急性を示します。</t>
+    <t>「出会いの緊急性を示す」</t>
+  </si>
+  <si>
+    <t>出会いの緊急性を示します。</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActPriority</t>
@@ -827,10 +827,10 @@
 </t>
   </si>
   <si>
-    <t>この遭遇が記録されるべきケアのエピソード</t>
-  </si>
-  <si>
-    <t>特定のエピソードの一部として特定のエンカウンターを分類する必要がある場合、このフィールドを使用する必要があります。この関連は、政府報告、問題追跡、共通の課題に関連するエンカウンターを特定の目的のためにグループ化するのに役立ちます。これらの関連は、通常、エピソードの後に作成され、新しいエンカウンターを追加するためにエピソードを編集するのではなく、入力時にグループ化されます（エピソードは数年にわたって広がる可能性があります）。</t>
+    <t>「この遭遇が記録されるべきケアのエピソード」</t>
+  </si>
+  <si>
+    <t>「特定のエピソードの一部として特定のエンカウンターを分類する必要がある場合、このフィールドを使用する必要があります。この関連は、政府報告、問題追跡、共通の課題に関連するエンカウンターを特定の目的のためにグループ化するのに役立ちます。これらの関連は、通常、エピソードの後に作成され、新しいエンカウンターを追加するためにエピソードを編集するのではなく、入力時にグループ化されます（エピソードは数年にわたって広がる可能性があります）。」</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -853,10 +853,10 @@
 </t>
   </si>
   <si>
-    <t>このEncounter（診察、受診、入退院など）を開始したサービスリクエスト</t>
-  </si>
-  <si>
-    <t>このEncounter（診察、受診、入退院など）が満たす要請（例：紹介依頼や手続き要請）</t>
+    <t>この出会いを開始したサービスリクエスト</t>
+  </si>
+  <si>
+    <t>この出会いが満たす要請（例：紹介依頼や手続き要請）</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -871,7 +871,7 @@
     <t>「遭遇に関わった参加者のリスト」 (Souguu ni kakawatta sankasha no risuto)</t>
   </si>
   <si>
-    <t>サービスを提供する責任を持つ人々のリスト</t>
+    <t>「サービスを提供する責任を持つ人々のリスト」</t>
   </si>
   <si>
     <t>Event.performer</t>
@@ -895,10 +895,10 @@
     <t>Encounter.participant.type</t>
   </si>
   <si>
-    <t>Encounter（診察、受診、入退院など）における参加者の役割</t>
-  </si>
-  <si>
-    <t>Encounter（診察、受診、入退院など）における参加者の役割。</t>
+    <t>「出会いにおける参加者の役割」</t>
+  </si>
+  <si>
+    <t>出会いにおける参加者の役割。</t>
   </si>
   <si>
     <t>参加者タイプは、個人がどのようにエンカウントに参加するかを示します。それには、非開業者の参加者が含まれ、開業者にとってはこのエンカウントの文脈でアクションタイプを説明することが含まれます（例：入院医師、診療医師、翻訳者、相談医師）。これは、雇用、教育、免許などの用語から派生した機能的な役割である開業者の役割とは異なります。</t>
@@ -938,10 +938,10 @@
 </t>
   </si>
   <si>
-    <t>患者以外に関与する人</t>
-  </si>
-  <si>
-    <t>「患者以外にEncounter（診察、受診、入退院など）に関わった人々。」</t>
+    <t>「患者以外に関与する人」</t>
+  </si>
+  <si>
+    <t>「患者以外に出会いに関わった人々。」(Kanja igai ni deai ni kakawatta hitobito.)</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -963,10 +963,10 @@
 </t>
   </si>
   <si>
-    <t>このEncounter（診察、受診、入退院など）を予定した予約</t>
-  </si>
-  <si>
-    <t>このEncounter（診察、受診、入退院など）を予定した約束。</t>
+    <t>「この出会いを予定した予約」(Kono deai o yotei shita yoyaku)</t>
+  </si>
+  <si>
+    <t>「この出会いを予定した約束。」</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=FLFS].target[classCode=ENC, moodCode=APT]</t>
@@ -978,13 +978,13 @@
     <t>Encounter.period</t>
   </si>
   <si>
-    <t>Encounter（診察、受診、入退院など）の始まりと終わりの時間</t>
-  </si>
-  <si>
-    <t>Encounter（診察、受診、入退院など）の開始時刻と終了時刻。</t>
-  </si>
-  <si>
-    <t>もし、まだ知られていなければ、期間の終わりは省略できます。</t>
+    <t>出会いの始まりと終わりの時間</t>
+  </si>
+  <si>
+    <t>出会いの開始時刻と終了時刻。</t>
+  </si>
+  <si>
+    <t>「もし、まだ知られていなければ、期間の終わりは省略できます。」</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1006,13 +1006,13 @@
 </t>
   </si>
   <si>
-    <t>Encounter（診察、受診、入退院など）が続いた時間（不在時間を差し引いた時間）</t>
+    <t>出会いが続いた時間（不在時間を差し引いた時間）</t>
   </si>
   <si>
     <t>接触が続いた時間の量です。休暇中の時間は除かれます。</t>
   </si>
   <si>
-    <t>休暇により、エンカウンター期間の時間が異なる場合があります。</t>
+    <t>「休暇により、エンカウンター期間の時間が異なる場合があります。」</t>
   </si>
   <si>
     <t>.lengthOfStayQuantity</t>
@@ -1028,16 +1028,16 @@
 Admission diagnosis</t>
   </si>
   <si>
-    <t>エンカウントが生じる理由がコード化されている</t>
-  </si>
-  <si>
-    <t>Encounter（診察、受診、入退院など）が起こる理由をコードとして表現します。入院に関しては、コード化された入院診断に使用できます。</t>
+    <t>「エンカウントが生じる理由がコード化されている」</t>
+  </si>
+  <si>
+    <t>出会いが起こる理由をコードとして表現します。入院に関しては、コード化された入院診断に使用できます。</t>
   </si>
   <si>
     <t>主要な診断を知る必要があるシステムには、標準拡張子primaryDiagnosis（フラグではなく、シーケンス値である1 = 主要な診断）でマークされます。</t>
   </si>
   <si>
-    <t>Encounter（診察、受診、入退院など）が起こる理由。</t>
+    <t>出会いが起こる理由。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
@@ -1062,7 +1062,7 @@
 </t>
   </si>
   <si>
-    <t>Encounter（診察、受診、入退院など）が生じた理由（参照）(Deai ga shoujita riyuu (sanshou))</t>
+    <t>出会いが生じた理由（参照）(Deai ga shoujita riyuu (sanshou))</t>
   </si>
   <si>
     <t>Encounter.diagnosis</t>
@@ -1071,7 +1071,7 @@
     <t>この診察に関連する診断のリスト</t>
   </si>
   <si>
-    <t>この対面に関連する診断リスト。</t>
+    <t>「この対面に関連する診断リスト。」</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=RSON]</t>
@@ -1097,10 +1097,10 @@
 </t>
   </si>
   <si>
-    <t>エンカウンターに関連する診断または処置</t>
-  </si>
-  <si>
-    <t>エンカウンターが発生する理由は、他のリソースからの情報を使用して指定されます。入院の場合、これは入院診断です。指標は通常、状態（evidence.detailで参照される他のリソースで）またはプロシジャー（処置等）です。</t>
+    <t>「エンカウンターに関連する診断または処置」</t>
+  </si>
+  <si>
+    <t>「エンカウンターが発生する理由は、他のリソースからの情報を使用して指定されます。入院の場合、これは入院診断です。指標は通常、状態（evidence.detailで参照される他のリソースで）または手順です。」</t>
   </si>
   <si>
     <t>Event.reasonReference</t>
@@ -1118,7 +1118,7 @@
     <t>この診断に対する役割（入院、請求、退院など）</t>
   </si>
   <si>
-    <t>この診断がEncounter（診察、受診、入退院など）の中で果たす役割（入院、請求、退院など）</t>
+    <t>この診断が出会いの中で果たす役割（入院、請求、退院など）</t>
   </si>
   <si>
     <t>この状態が表す診断のタイプ。 (Kono jōtai ga arawasu shindan no taipu.)</t>
@@ -1137,7 +1137,7 @@
     <t>役割ごとの診断ランキング</t>
   </si>
   <si>
-    <t>各役割タイプの診断ランキング</t>
+    <t>「各役割タイプの診断ランキング」</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=RSON].priority</t>
@@ -1153,10 +1153,10 @@
     <t>このエンカウンターの請求に使用できるアカウントのセット</t>
   </si>
   <si>
-    <t>このエンカウンターの請求に使用できるアカウントのセット。</t>
-  </si>
-  <si>
-    <t>請求システムは内部のビジネスルールに基づいて、Encounter（診察、受診、入退院など）に関連する請求可能なアイテムを複数の参照されたアカウントに割り当てることができます。</t>
+    <t>このインカウンターの請求に使用できるアカウントのセット。</t>
+  </si>
+  <si>
+    <t>請求システムは内部のビジネスルールに基づいて、出会いに関連する請求可能なアイテムを複数の参照されたアカウントに割り当てることができます。</t>
   </si>
   <si>
     <t>.pertains.A_Account</t>
@@ -1165,10 +1165,10 @@
     <t>Encounter.hospitalization</t>
   </si>
   <si>
-    <t>医療サービスの入院に関する詳細</t>
-  </si>
-  <si>
-    <t>医療サービスへの入院に関する詳細。</t>
+    <t>「医療サービスの入院に関する詳細」</t>
+  </si>
+  <si>
+    <t>「医療サービスへの入院に関する詳細。」</t>
   </si>
   <si>
     <t>「エンカウンター」は入院期間だけでなく、外来診療、地域クリニック、高齢者施設などの文脈も含まれる場合があります。@@ -1190,10 +1190,10 @@
     <t>Encounter.hospitalization.preAdmissionIdentifier</t>
   </si>
   <si>
-    <t>事前入院識別子 (Jizen nyugaku shikibetsushi)</t>
-  </si>
-  <si>
-    <t>「入院前の識別子」</t>
+    <t>事前入学識別子 (Jizen nyugaku shikibetsushi)</t>
+  </si>
+  <si>
+    <t>「入学前の識別子」(Nyūgaku mae no shikibetsu-shi)</t>
   </si>
   <si>
     <t>PV1-5</t>
@@ -1206,10 +1206,10 @@
 </t>
   </si>
   <si>
-    <t>「入院前に患者がいた場所／組織」</t>
-  </si>
-  <si>
-    <t>患者が入院する前に、どこの場所/組織から来たか。</t>
+    <t>「入院前に患者がいた場所／組織」(nyūin zen ni kanja ga ita basho / soshiki)</t>
+  </si>
+  <si>
+    <t>「患者が入院する前に、どこの場所/組織から来たか。」</t>
   </si>
   <si>
     <t>.participation[typeCode=ORG].role</t>
@@ -1218,10 +1218,10 @@
     <t>Encounter.hospitalization.admitSource</t>
   </si>
   <si>
-    <t>患者が入院した場所（医師の紹介、転院）</t>
-  </si>
-  <si>
-    <t>患者がどこから入院したのか（医師の紹介、転院）</t>
+    <t>「患者が入院した場所（医師の紹介、転院）」</t>
+  </si>
+  <si>
+    <t>「患者がどこから入院したのか（医師の紹介、転院）」</t>
   </si>
   <si>
     <t>患者が入院した場所はどこですか。 (Kanja ga nyūin shita basho wa doko desu ka?)</t>
@@ -1242,7 +1242,7 @@
     <t>発生した再入院のタイプ（あれば）。値がない場合は、再入院として識別されていないことを意味します。</t>
   </si>
   <si>
-    <t>この入院が再入院かどうか、そしてその理由が分かっている場合はなぜか。</t>
+    <t>「この入院が再入院かどうか、そしてその理由が分かっている場合はなぜか。」</t>
   </si>
   <si>
     <t>この入院の再入院の理由。</t>
@@ -1269,7 +1269,7 @@
     <t>Used to track patient's diet restrictions and/or preference. For a complete description of the nutrition needs of a patient during their stay, one should use the nutritionOrder resource which links to Encounter.</t>
   </si>
   <si>
-    <t>食品の好みを考慮して、医療、文化、倫理的観点から、提供要件に対応することができます。</t>
+    <t>「食品の好みを考慮して、医療、文化、倫理的観点から、提供要件に対応することができます。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-diet</t>
@@ -1308,7 +1308,7 @@
     <t>車椅子、翻訳者、ストレッチャー、など。</t>
   </si>
   <si>
-    <t>この入院の機会に行われた特別な要求、特定の装置などの提供などがある場合は。</t>
+    <t>「この入院の機会に行われた特別な要求、特定の装置などの提供などがある場合は。」</t>
   </si>
   <si>
     <t>特別な手配。</t>
@@ -1341,7 +1341,7 @@
     <t>Encounter.hospitalization.dischargeDisposition</t>
   </si>
   <si>
-    <t>退院後の場所のカテゴリーまたは種類</t>
+    <t>「退院後の場所のカテゴリーまたは種類」</t>
   </si>
   <si>
     <t>退院後の場所のカテゴリーまたは種類。</t>
@@ -1365,10 +1365,10 @@
     <t>患者が行った場所のリスト</t>
   </si>
   <si>
-    <t>この接触中に患者が滞在した場所のリスト</t>
-  </si>
-  <si>
-    <t>エンカウント」には、場所の種類である「クライアントの自宅」のような場所の参照を明示することで、バーチャルなエンカウントを記録できます。また、エンカウントクラスは「バーチャル」である必要があります。</t>
+    <t>「この接触中に患者が滞在した場所のリスト」</t>
+  </si>
+  <si>
+    <t>「エンカウント」には、場所の種類である「クライアントの自宅」のような場所の参照を明示することで、バーチャルなエンカウントを記録できます。また、エンカウントクラスは「バーチャル」である必要があります。」</t>
   </si>
   <si>
     <t>.participation[typeCode=LOC]</t>
@@ -1390,10 +1390,10 @@
 </t>
   </si>
   <si>
-    <t>Encounter（診察、受診、入退院など）の場所 (Deai no basho)</t>
-  </si>
-  <si>
-    <t>Encounter（診察、受診、入退院など）が起こる場所。</t>
+    <t>出会いの場所 (Deai no basho)</t>
+  </si>
+  <si>
+    <t>出会いが起こる場所。</t>
   </si>
   <si>
     <t>Event.location</t>
@@ -1432,7 +1432,7 @@
     <t>場所の物理的なタイプ（通常は場所の階層のレベル、ベッドルームワードなど）</t>
   </si>
   <si>
-    <t>これは、メッセージングまたはクエリを簡素化するために記録が必要なレベル（ベッド/病室/部屋など）を特定するために使用されます。</t>
+    <t>「これは、メッセージングまたはクエリを簡素化するために記録が必要なレベル（ベッド/病室/部屋など）を特定するために使用されます。」</t>
   </si>
   <si>
     <t>この情報は、エンカウンターリソースの理解とメッセージングまたはクエリの処理をサポートするために、ロケーションリソースからデノーマライズされています。
@@ -1448,7 +1448,7 @@
     <t>Encounter.location.period</t>
   </si>
   <si>
-    <t>患者が場所にいた期間</t>
+    <t>「患者が場所にいた期間」</t>
   </si>
   <si>
     <t>"患者が場所にいた期間。"</t>
@@ -1461,7 +1461,7 @@
 </t>
   </si>
   <si>
-    <t>このEncounter（診察、受診、入退院など）に責任を持つ組織（施設）</t>
+    <t>この出会いに責任を持つ組織（施設）</t>
   </si>
   <si>
     <t>このエンカウンターのサービスを主に担当する組織。これは患者の記録にある組織と同じかもしれませんが、外部組織からサービスを提供するアクターがいる場合など、別の組織である可能性もあります(別途請求される可能性があります)。大腸内視鏡検査の簡略化されたエンカウンターのバンドルを参照してください。</t>
@@ -1480,13 +1480,13 @@
 </t>
   </si>
   <si>
-    <t>もう一度のEncounter（診察、受診、入退院など）。このEncounter（診察、受診、入退院など）は一部である。</t>
-  </si>
-  <si>
-    <t>このEncounter（診察、受診、入退院など）が一部である、別のEncounter（診察、受診、入退院など）（手続き的にも時間的にも）。</t>
-  </si>
-  <si>
-    <t>これは、子供の経験を母親の経験に関連付けるためにも使用されます。詳細については、患者リソースのノートセクションを参照してください。</t>
+    <t>「もう一度の出会い。この出会いは一部である。」</t>
+  </si>
+  <si>
+    <t>この出会いが一部である、別の出会い（手続き的にも時間的にも）。</t>
+  </si>
+  <si>
+    <t>「これは、子供の経験を母親の経験に関連付けるためにも使用されます。詳細については、患者リソースのノートセクションを参照してください。」</t>
   </si>
   <si>
     <t>Event.partOf</t>
